--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijm/local/recentrifuge/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijm/local/recentrifuge/recentrifuge/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="22060" windowWidth="26340" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="22060" windowWidth="26340" windowHeight="16960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>(float)</t>
+  </si>
+  <si>
+    <t>Methanobacterium formicicum DSM 3637</t>
+  </si>
+  <si>
+    <t>Methanobacterium formicicum JCM 10132</t>
   </si>
 </sst>
 </file>
@@ -326,8 +332,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -370,9 +380,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,13 +662,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -694,25 +710,25 @@
         <v>9606</v>
       </c>
       <c r="C2">
-        <v>87130</v>
+        <v>86830</v>
       </c>
       <c r="D2">
-        <v>60576</v>
+        <v>60573</v>
       </c>
       <c r="E2">
-        <v>87130</v>
+        <v>87100</v>
       </c>
       <c r="F2">
-        <v>34171</v>
+        <v>31168</v>
       </c>
       <c r="G2">
-        <v>28324</v>
+        <v>27994</v>
       </c>
       <c r="H2">
-        <v>18270</v>
+        <v>17940</v>
       </c>
       <c r="I2">
-        <v>20396</v>
+        <v>17393</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1181,97 +1197,97 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>1204725</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>300</v>
+      </c>
+      <c r="I19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>1300163</v>
+      </c>
+      <c r="C20">
+        <v>300</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>3000</v>
+      </c>
+      <c r="G20">
+        <v>300</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>31998</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>5</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>398578</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>5000</v>
-      </c>
-      <c r="I20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>80865</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>10000</v>
-      </c>
-      <c r="I21">
-        <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>80864</v>
+        <v>398578</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1289,70 +1305,128 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="I22">
         <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>31</v>
+      <c r="A23" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>80865</v>
       </c>
       <c r="C23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>10000</v>
       </c>
       <c r="I23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>80864</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>10000</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="I24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10000</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25">
+        <v>10000</v>
+      </c>
+      <c r="F25">
+        <v>10000</v>
+      </c>
+      <c r="G25">
+        <v>10000</v>
+      </c>
+      <c r="H25">
+        <v>10000</v>
+      </c>
+      <c r="I25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24">
-        <f t="shared" ref="C24:I24" si="0">SUM(C2:C23)</f>
+      <c r="C26">
+        <f t="shared" ref="C26:I26" si="0">SUM(C2:C25)</f>
         <v>100000</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="I24">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="22060" windowWidth="26340" windowHeight="16960" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="22060" windowWidth="27740" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Methanobacterium formicicum JCM 10132</t>
+  </si>
+  <si>
+    <t>statistical noise in negative control samples</t>
   </si>
 </sst>
 </file>
@@ -323,12 +326,107 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -341,7 +439,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,6 +477,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -664,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,25 +818,25 @@
         <v>9606</v>
       </c>
       <c r="C2">
-        <v>86830</v>
+        <v>86818</v>
       </c>
       <c r="D2">
-        <v>60573</v>
+        <v>60565</v>
       </c>
       <c r="E2">
-        <v>87100</v>
+        <v>87094</v>
       </c>
       <c r="F2">
-        <v>31168</v>
+        <v>33271</v>
       </c>
       <c r="G2">
-        <v>27994</v>
+        <v>28225</v>
       </c>
       <c r="H2">
-        <v>17940</v>
+        <v>18171</v>
       </c>
       <c r="I2">
-        <v>17393</v>
+        <v>19496</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1028,14 +1136,14 @@
       <c r="B13">
         <v>1587</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
+      <c r="C13" s="23">
+        <v>3</v>
+      </c>
+      <c r="D13" s="24">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>3</v>
       </c>
       <c r="F13">
         <v>6000</v>
@@ -1057,14 +1165,14 @@
       <c r="B14">
         <v>187218</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
       </c>
       <c r="F14">
         <v>4260</v>
@@ -1086,14 +1194,14 @@
       <c r="B15">
         <v>1540099</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="C15" s="26">
+        <v>3</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1115,14 +1223,14 @@
       <c r="B16">
         <v>28901</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="C16" s="26">
+        <v>3</v>
+      </c>
+      <c r="D16" s="27">
+        <v>2</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1144,13 +1252,13 @@
       <c r="B17">
         <v>54736</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
         <v>0</v>
       </c>
       <c r="F17">
@@ -1173,14 +1281,14 @@
       <c r="B18">
         <v>59201</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18" s="28">
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1202,26 +1310,26 @@
       <c r="B19">
         <v>1204725</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30">
+        <v>2</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="I19">
-        <v>3000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1241,16 +1349,16 @@
         <v>30</v>
       </c>
       <c r="F20">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1442,7 +1550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1519,7 +1629,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32"/>
+      <c r="D12" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="22060" windowWidth="27740" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="22080" windowWidth="26340" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -45,15 +45,9 @@
     <t>Triticum aestivum</t>
   </si>
   <si>
-    <t>Malassezia globosa CBS 7966</t>
-  </si>
-  <si>
     <t>Pan troglodytes</t>
   </si>
   <si>
-    <t>Propionibacterium phage SKKY</t>
-  </si>
-  <si>
     <t>Methanosarcina mazei</t>
   </si>
   <si>
@@ -190,6 +184,12 @@
   </si>
   <si>
     <t>statistical noise in negative control samples</t>
+  </si>
+  <si>
+    <t>Malassezia globosa</t>
+  </si>
+  <si>
+    <t>Propionibacterium virus SKKY</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -488,13 +490,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,7 +777,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,31 +787,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -818,13 +822,13 @@
         <v>9606</v>
       </c>
       <c r="C2">
-        <v>86818</v>
+        <v>86798</v>
       </c>
       <c r="D2">
-        <v>60565</v>
+        <v>60745</v>
       </c>
       <c r="E2">
-        <v>87094</v>
+        <v>88074</v>
       </c>
       <c r="F2">
         <v>33271</v>
@@ -870,7 +874,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>9598</v>
@@ -986,19 +990,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>425265</v>
+        <v>76773</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>5000</v>
@@ -1015,10 +1019,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>1655020</v>
+        <v>1982305</v>
       </c>
       <c r="C9">
         <v>500</v>
@@ -1044,7 +1048,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>2209</v>
@@ -1073,7 +1077,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2208</v>
@@ -1102,7 +1106,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>1578</v>
@@ -1131,7 +1135,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>1587</v>
@@ -1160,7 +1164,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>187218</v>
@@ -1189,7 +1193,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>1540099</v>
@@ -1218,7 +1222,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>28901</v>
@@ -1247,7 +1251,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>54736</v>
@@ -1276,7 +1280,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>59201</v>
@@ -1305,7 +1309,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>1204725</v>
@@ -1334,7 +1338,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>1300163</v>
@@ -1363,7 +1367,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>31998</v>
@@ -1392,7 +1396,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>398578</v>
@@ -1421,7 +1425,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>80865</v>
@@ -1450,7 +1454,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>80864</v>
@@ -1479,7 +1483,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1508,7 +1512,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:I26" si="0">SUM(C2:C25)</f>
@@ -1564,81 +1568,81 @@
     <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="D12" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1646,11 +1650,11 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="22">
         <v>0.01</v>
@@ -1658,11 +1662,11 @@
     </row>
     <row r="17" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="22">
         <v>1E-3</v>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="22080" windowWidth="26340" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="2200" yWindow="1560" windowWidth="31460" windowHeight="19500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
-    <sheet name="types" sheetId="2" r:id="rId2"/>
+    <sheet name="key" sheetId="3" r:id="rId2"/>
+    <sheet name="types" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -190,6 +191,168 @@
   </si>
   <si>
     <t>Propionibacterium virus SKKY</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>HATCH</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>"x"</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"\\"</t>
+  </si>
+  <si>
+    <t>["smpl3", "smpl4"]</t>
+  </si>
+  <si>
+    <t>no_rank_species</t>
+  </si>
+  <si>
+    <t>"O"</t>
+  </si>
+  <si>
+    <t>["smpl2", "smpl4"]</t>
+  </si>
+  <si>
+    <t>"//"</t>
+  </si>
+  <si>
+    <t>"o"</t>
+  </si>
+  <si>
+    <t>["smpl1", "smpl2", "smpl3", "smpl4"]</t>
+  </si>
+  <si>
+    <t>["smpl1"]</t>
+  </si>
+  <si>
+    <t>"."</t>
+  </si>
+  <si>
+    <t>["smpl3"]</t>
+  </si>
+  <si>
+    <t>["smpl2"]</t>
+  </si>
+  <si>
+    <t>"/"</t>
+  </si>
+  <si>
+    <t>"-"</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>#000077</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>NATIVES</t>
+  </si>
+  <si>
+    <t>$\mathit{Zea\; mays}$ [just-control contaminant]</t>
+  </si>
+  <si>
+    <t>$\mathit{Homo\; sapiens}$ [critical contaminant]</t>
+  </si>
+  <si>
+    <t>$\mathit{Delftia\; acidovorans}$ SPH-1 [native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Delftia\; acidovorans}$ [SPH-1 strain native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Cutibacterium\; acnes}$ [severe contaminant]</t>
+  </si>
+  <si>
+    <t>$\mathit{Salmonella\; enterica}$ subs. enterica [native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Salmonella\; enterica}$ [native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Escherichia\; coli}$ [mild contaminant]</t>
+  </si>
+  <si>
+    <t>$\mathit{Methylobacterium\; radiotolerans}$ [native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Methanosarcina\; mazei}$ [CROSSOVER, smpl1 native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Lactobacillus\; helveticus}$ [native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Methanosarcina\; barkeri}$ [CROSSOVER, smpl3 native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Salmonella\; virus\; Stitch}$ [native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Malassezia\; globosa}$ [other contaminant]</t>
+  </si>
+  <si>
+    <t>$\mathit{Salmonella\; bongori}$ [native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Pan\; troglodytes}$ [mild contaminant]</t>
+  </si>
+  <si>
+    <t>$\mathit{Methanobacterium\; formicicum}$ DSM3637 [native]</t>
+  </si>
+  <si>
+    <t>$\mathit{M.\; formicicum}$ JCM 10132 [other cont.]</t>
+  </si>
+  <si>
+    <t>$\mathit{M.\; formicicum}$ [DSM3637 strain native]</t>
+  </si>
+  <si>
+    <t>$\mathit{Propionibacterium\; virus}$ SKKY [other cont.]</t>
+  </si>
+  <si>
+    <t>$\mathit{Triticum\; aestivum}$ [just-control contaminant]</t>
   </si>
 </sst>
 </file>
@@ -430,7 +593,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -440,8 +603,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,16 +654,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -776,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1551,6 +1720,471 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4577</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9606</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>398578</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>80866</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1747</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>59201</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>28901</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>562</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>31998</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2209</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1587</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2208</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1540099</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>76773</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>54736</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9598</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1204725</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1300163</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2162</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1982305</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4565</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -1078,25 +1078,25 @@
     <t>HIST</t>
   </si>
   <si>
-    <t>smpl_high</t>
-  </si>
-  <si>
-    <t>["smpl_high"]</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
-    <t>native taxa from NatMet high-complexity dataset for</t>
-  </si>
-  <si>
-    <t>benchmarking metagenomic software (Scyrba et al., 2017)</t>
-  </si>
-  <si>
     <t>Native high-complexity</t>
   </si>
   <si>
     <t>ROOT</t>
+  </si>
+  <si>
+    <t>native taxa from NatMet high-complexity dataset</t>
+  </si>
+  <si>
+    <t>for metagenomics benchmarks (Scyrba et al., 2017)</t>
+  </si>
+  <si>
+    <t>["smplH"]</t>
+  </si>
+  <si>
+    <t>smplH</t>
   </si>
 </sst>
 </file>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1738,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1770,7 +1770,7 @@
         <v>19496</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1802,7 +1802,7 @@
         <v>10000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>5000</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1866,7 +1866,7 @@
         <v>5000</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1962,7 +1962,7 @@
         <v>5000</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1994,7 +1994,7 @@
         <v>2000</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2026,7 +2026,7 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>5000</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="31">
         <v>1</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -10191,7 +10191,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="35" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>99996</v>
       </c>
       <c r="E267">
         <f t="shared" si="0"/>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="J267">
         <f t="shared" si="0"/>
-        <v>522878</v>
+        <v>600000</v>
       </c>
     </row>
   </sheetData>
@@ -10269,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D263"/>
+    <sheetView topLeftCell="A263" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10795,13 +10795,13 @@
         <v>107</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -10818,13 +10818,13 @@
         <v>108</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F24" t="s">
         <v>59</v>
@@ -10841,13 +10841,13 @@
         <v>109</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -10864,13 +10864,13 @@
         <v>110</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
@@ -10887,13 +10887,13 @@
         <v>111</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F27" t="s">
         <v>59</v>
@@ -10910,13 +10910,13 @@
         <v>112</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D28" t="s">
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
@@ -10933,13 +10933,13 @@
         <v>113</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F29" t="s">
         <v>59</v>
@@ -10956,13 +10956,13 @@
         <v>114</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -10979,13 +10979,13 @@
         <v>115</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D31" t="s">
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -11002,13 +11002,13 @@
         <v>116</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D32" t="s">
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F32" t="s">
         <v>59</v>
@@ -11025,13 +11025,13 @@
         <v>117</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F33" t="s">
         <v>59</v>
@@ -11048,13 +11048,13 @@
         <v>118</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -11071,13 +11071,13 @@
         <v>119</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F35" t="s">
         <v>59</v>
@@ -11094,13 +11094,13 @@
         <v>120</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -11117,13 +11117,13 @@
         <v>121</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
@@ -11140,13 +11140,13 @@
         <v>122</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F38" t="s">
         <v>59</v>
@@ -11163,13 +11163,13 @@
         <v>123</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D39" t="s">
         <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
@@ -11186,13 +11186,13 @@
         <v>124</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
@@ -11209,13 +11209,13 @@
         <v>125</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D41" t="s">
         <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -11232,13 +11232,13 @@
         <v>126</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D42" t="s">
         <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F42" t="s">
         <v>59</v>
@@ -11255,13 +11255,13 @@
         <v>127</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D43" t="s">
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F43" t="s">
         <v>59</v>
@@ -11278,13 +11278,13 @@
         <v>128</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F44" t="s">
         <v>59</v>
@@ -11301,13 +11301,13 @@
         <v>129</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F45" t="s">
         <v>59</v>
@@ -11324,13 +11324,13 @@
         <v>130</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D46" t="s">
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F46" t="s">
         <v>59</v>
@@ -11347,13 +11347,13 @@
         <v>131</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F47" t="s">
         <v>59</v>
@@ -11370,13 +11370,13 @@
         <v>132</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
         <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F48" t="s">
         <v>59</v>
@@ -11393,13 +11393,13 @@
         <v>133</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D49" t="s">
         <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F49" t="s">
         <v>59</v>
@@ -11416,13 +11416,13 @@
         <v>134</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D50" t="s">
         <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F50" t="s">
         <v>59</v>
@@ -11439,13 +11439,13 @@
         <v>135</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D51" t="s">
         <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F51" t="s">
         <v>59</v>
@@ -11462,13 +11462,13 @@
         <v>136</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D52" t="s">
         <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F52" t="s">
         <v>59</v>
@@ -11485,13 +11485,13 @@
         <v>137</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D53" t="s">
         <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F53" t="s">
         <v>59</v>
@@ -11508,13 +11508,13 @@
         <v>138</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
         <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F54" t="s">
         <v>59</v>
@@ -11531,13 +11531,13 @@
         <v>139</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F55" t="s">
         <v>59</v>
@@ -11554,13 +11554,13 @@
         <v>140</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D56" t="s">
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -11577,13 +11577,13 @@
         <v>141</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D57" t="s">
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F57" t="s">
         <v>59</v>
@@ -11600,13 +11600,13 @@
         <v>142</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F58" t="s">
         <v>59</v>
@@ -11623,13 +11623,13 @@
         <v>143</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F59" t="s">
         <v>59</v>
@@ -11646,13 +11646,13 @@
         <v>144</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
         <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F60" t="s">
         <v>59</v>
@@ -11669,13 +11669,13 @@
         <v>145</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D61" t="s">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F61" t="s">
         <v>59</v>
@@ -11692,13 +11692,13 @@
         <v>146</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D62" t="s">
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F62" t="s">
         <v>59</v>
@@ -11715,13 +11715,13 @@
         <v>147</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D63" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F63" t="s">
         <v>59</v>
@@ -11738,13 +11738,13 @@
         <v>148</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D64" t="s">
         <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F64" t="s">
         <v>59</v>
@@ -11761,13 +11761,13 @@
         <v>149</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D65" t="s">
         <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F65" t="s">
         <v>59</v>
@@ -11784,13 +11784,13 @@
         <v>150</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D66" t="s">
         <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F66" t="s">
         <v>59</v>
@@ -11807,13 +11807,13 @@
         <v>151</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D67" t="s">
         <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F67" t="s">
         <v>59</v>
@@ -11830,13 +11830,13 @@
         <v>152</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D68" t="s">
         <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F68" t="s">
         <v>59</v>
@@ -11853,13 +11853,13 @@
         <v>153</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D69" t="s">
         <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F69" t="s">
         <v>59</v>
@@ -11876,13 +11876,13 @@
         <v>154</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D70" t="s">
         <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F70" t="s">
         <v>59</v>
@@ -11899,13 +11899,13 @@
         <v>155</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D71" t="s">
         <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F71" t="s">
         <v>59</v>
@@ -11922,13 +11922,13 @@
         <v>156</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D72" t="s">
         <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F72" t="s">
         <v>59</v>
@@ -11945,13 +11945,13 @@
         <v>157</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D73" t="s">
         <v>60</v>
       </c>
       <c r="E73" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F73" t="s">
         <v>59</v>
@@ -11968,13 +11968,13 @@
         <v>158</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D74" t="s">
         <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F74" t="s">
         <v>59</v>
@@ -11991,13 +11991,13 @@
         <v>159</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D75" t="s">
         <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F75" t="s">
         <v>59</v>
@@ -12014,13 +12014,13 @@
         <v>160</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D76" t="s">
         <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F76" t="s">
         <v>59</v>
@@ -12037,13 +12037,13 @@
         <v>161</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D77" t="s">
         <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F77" t="s">
         <v>59</v>
@@ -12060,13 +12060,13 @@
         <v>162</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D78" t="s">
         <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F78" t="s">
         <v>59</v>
@@ -12083,13 +12083,13 @@
         <v>163</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D79" t="s">
         <v>60</v>
       </c>
       <c r="E79" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F79" t="s">
         <v>59</v>
@@ -12106,13 +12106,13 @@
         <v>164</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D80" t="s">
         <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F80" t="s">
         <v>59</v>
@@ -12129,13 +12129,13 @@
         <v>165</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D81" t="s">
         <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F81" t="s">
         <v>59</v>
@@ -12152,13 +12152,13 @@
         <v>166</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D82" t="s">
         <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F82" t="s">
         <v>59</v>
@@ -12175,13 +12175,13 @@
         <v>167</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D83" t="s">
         <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F83" t="s">
         <v>59</v>
@@ -12198,13 +12198,13 @@
         <v>168</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D84" t="s">
         <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F84" t="s">
         <v>59</v>
@@ -12221,13 +12221,13 @@
         <v>169</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D85" t="s">
         <v>60</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F85" t="s">
         <v>59</v>
@@ -12244,13 +12244,13 @@
         <v>170</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D86" t="s">
         <v>60</v>
       </c>
       <c r="E86" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F86" t="s">
         <v>59</v>
@@ -12267,13 +12267,13 @@
         <v>171</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D87" t="s">
         <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F87" t="s">
         <v>59</v>
@@ -12290,13 +12290,13 @@
         <v>172</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D88" t="s">
         <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F88" t="s">
         <v>59</v>
@@ -12313,13 +12313,13 @@
         <v>173</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D89" t="s">
         <v>60</v>
       </c>
       <c r="E89" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F89" t="s">
         <v>59</v>
@@ -12336,13 +12336,13 @@
         <v>174</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D90" t="s">
         <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F90" t="s">
         <v>59</v>
@@ -12359,13 +12359,13 @@
         <v>175</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D91" t="s">
         <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F91" t="s">
         <v>59</v>
@@ -12382,13 +12382,13 @@
         <v>176</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D92" t="s">
         <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F92" t="s">
         <v>59</v>
@@ -12405,13 +12405,13 @@
         <v>177</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D93" t="s">
         <v>60</v>
       </c>
       <c r="E93" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F93" t="s">
         <v>59</v>
@@ -12428,13 +12428,13 @@
         <v>178</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D94" t="s">
         <v>60</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F94" t="s">
         <v>59</v>
@@ -12451,13 +12451,13 @@
         <v>179</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D95" t="s">
         <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F95" t="s">
         <v>59</v>
@@ -12474,13 +12474,13 @@
         <v>180</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D96" t="s">
         <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F96" t="s">
         <v>59</v>
@@ -12497,13 +12497,13 @@
         <v>181</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D97" t="s">
         <v>60</v>
       </c>
       <c r="E97" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F97" t="s">
         <v>59</v>
@@ -12520,13 +12520,13 @@
         <v>182</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D98" t="s">
         <v>60</v>
       </c>
       <c r="E98" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F98" t="s">
         <v>59</v>
@@ -12543,13 +12543,13 @@
         <v>183</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D99" t="s">
         <v>60</v>
       </c>
       <c r="E99" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F99" t="s">
         <v>59</v>
@@ -12566,13 +12566,13 @@
         <v>184</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D100" t="s">
         <v>60</v>
       </c>
       <c r="E100" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F100" t="s">
         <v>59</v>
@@ -12589,13 +12589,13 @@
         <v>185</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D101" t="s">
         <v>60</v>
       </c>
       <c r="E101" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F101" t="s">
         <v>59</v>
@@ -12612,13 +12612,13 @@
         <v>186</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D102" t="s">
         <v>60</v>
       </c>
       <c r="E102" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F102" t="s">
         <v>59</v>
@@ -12635,13 +12635,13 @@
         <v>187</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D103" t="s">
         <v>60</v>
       </c>
       <c r="E103" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F103" t="s">
         <v>59</v>
@@ -12658,13 +12658,13 @@
         <v>188</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D104" t="s">
         <v>60</v>
       </c>
       <c r="E104" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F104" t="s">
         <v>59</v>
@@ -12681,13 +12681,13 @@
         <v>189</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D105" t="s">
         <v>60</v>
       </c>
       <c r="E105" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F105" t="s">
         <v>59</v>
@@ -12704,13 +12704,13 @@
         <v>190</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D106" t="s">
         <v>60</v>
       </c>
       <c r="E106" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F106" t="s">
         <v>59</v>
@@ -12727,13 +12727,13 @@
         <v>191</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D107" t="s">
         <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F107" t="s">
         <v>59</v>
@@ -12750,13 +12750,13 @@
         <v>192</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D108" t="s">
         <v>60</v>
       </c>
       <c r="E108" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F108" t="s">
         <v>59</v>
@@ -12773,13 +12773,13 @@
         <v>193</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D109" t="s">
         <v>60</v>
       </c>
       <c r="E109" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F109" t="s">
         <v>59</v>
@@ -12796,13 +12796,13 @@
         <v>194</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D110" t="s">
         <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F110" t="s">
         <v>59</v>
@@ -12819,13 +12819,13 @@
         <v>195</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D111" t="s">
         <v>60</v>
       </c>
       <c r="E111" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F111" t="s">
         <v>59</v>
@@ -12842,13 +12842,13 @@
         <v>196</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D112" t="s">
         <v>60</v>
       </c>
       <c r="E112" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F112" t="s">
         <v>59</v>
@@ -12865,13 +12865,13 @@
         <v>197</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D113" t="s">
         <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F113" t="s">
         <v>59</v>
@@ -12888,13 +12888,13 @@
         <v>198</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D114" t="s">
         <v>60</v>
       </c>
       <c r="E114" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F114" t="s">
         <v>59</v>
@@ -12911,13 +12911,13 @@
         <v>199</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D115" t="s">
         <v>60</v>
       </c>
       <c r="E115" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F115" t="s">
         <v>59</v>
@@ -12934,13 +12934,13 @@
         <v>200</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D116" t="s">
         <v>60</v>
       </c>
       <c r="E116" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F116" t="s">
         <v>59</v>
@@ -12957,13 +12957,13 @@
         <v>201</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D117" t="s">
         <v>60</v>
       </c>
       <c r="E117" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F117" t="s">
         <v>59</v>
@@ -12980,13 +12980,13 @@
         <v>202</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D118" t="s">
         <v>60</v>
       </c>
       <c r="E118" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F118" t="s">
         <v>59</v>
@@ -13003,13 +13003,13 @@
         <v>203</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D119" t="s">
         <v>60</v>
       </c>
       <c r="E119" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F119" t="s">
         <v>59</v>
@@ -13026,13 +13026,13 @@
         <v>204</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D120" t="s">
         <v>60</v>
       </c>
       <c r="E120" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F120" t="s">
         <v>59</v>
@@ -13049,13 +13049,13 @@
         <v>205</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D121" t="s">
         <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F121" t="s">
         <v>59</v>
@@ -13072,13 +13072,13 @@
         <v>206</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D122" t="s">
         <v>60</v>
       </c>
       <c r="E122" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F122" t="s">
         <v>59</v>
@@ -13095,13 +13095,13 @@
         <v>207</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D123" t="s">
         <v>60</v>
       </c>
       <c r="E123" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F123" t="s">
         <v>59</v>
@@ -13118,13 +13118,13 @@
         <v>208</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D124" t="s">
         <v>60</v>
       </c>
       <c r="E124" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F124" t="s">
         <v>59</v>
@@ -13141,13 +13141,13 @@
         <v>209</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D125" t="s">
         <v>60</v>
       </c>
       <c r="E125" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F125" t="s">
         <v>59</v>
@@ -13164,13 +13164,13 @@
         <v>210</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D126" t="s">
         <v>60</v>
       </c>
       <c r="E126" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F126" t="s">
         <v>59</v>
@@ -13187,13 +13187,13 @@
         <v>211</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D127" t="s">
         <v>60</v>
       </c>
       <c r="E127" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F127" t="s">
         <v>59</v>
@@ -13210,13 +13210,13 @@
         <v>212</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D128" t="s">
         <v>60</v>
       </c>
       <c r="E128" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F128" t="s">
         <v>59</v>
@@ -13233,13 +13233,13 @@
         <v>213</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D129" t="s">
         <v>60</v>
       </c>
       <c r="E129" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F129" t="s">
         <v>59</v>
@@ -13256,13 +13256,13 @@
         <v>214</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D130" t="s">
         <v>60</v>
       </c>
       <c r="E130" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F130" t="s">
         <v>59</v>
@@ -13279,13 +13279,13 @@
         <v>215</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D131" t="s">
         <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F131" t="s">
         <v>59</v>
@@ -13302,13 +13302,13 @@
         <v>216</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D132" t="s">
         <v>60</v>
       </c>
       <c r="E132" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F132" t="s">
         <v>59</v>
@@ -13325,13 +13325,13 @@
         <v>217</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D133" t="s">
         <v>60</v>
       </c>
       <c r="E133" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F133" t="s">
         <v>59</v>
@@ -13348,13 +13348,13 @@
         <v>218</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D134" t="s">
         <v>60</v>
       </c>
       <c r="E134" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F134" t="s">
         <v>59</v>
@@ -13371,13 +13371,13 @@
         <v>219</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D135" t="s">
         <v>60</v>
       </c>
       <c r="E135" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F135" t="s">
         <v>59</v>
@@ -13394,13 +13394,13 @@
         <v>220</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D136" t="s">
         <v>60</v>
       </c>
       <c r="E136" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F136" t="s">
         <v>59</v>
@@ -13417,13 +13417,13 @@
         <v>221</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D137" t="s">
         <v>60</v>
       </c>
       <c r="E137" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F137" t="s">
         <v>59</v>
@@ -13440,13 +13440,13 @@
         <v>222</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D138" t="s">
         <v>60</v>
       </c>
       <c r="E138" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F138" t="s">
         <v>59</v>
@@ -13463,13 +13463,13 @@
         <v>223</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D139" t="s">
         <v>60</v>
       </c>
       <c r="E139" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F139" t="s">
         <v>59</v>
@@ -13486,13 +13486,13 @@
         <v>224</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D140" t="s">
         <v>60</v>
       </c>
       <c r="E140" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F140" t="s">
         <v>59</v>
@@ -13509,13 +13509,13 @@
         <v>225</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D141" t="s">
         <v>60</v>
       </c>
       <c r="E141" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F141" t="s">
         <v>59</v>
@@ -13532,13 +13532,13 @@
         <v>226</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D142" t="s">
         <v>60</v>
       </c>
       <c r="E142" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F142" t="s">
         <v>59</v>
@@ -13555,13 +13555,13 @@
         <v>227</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D143" t="s">
         <v>60</v>
       </c>
       <c r="E143" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F143" t="s">
         <v>59</v>
@@ -13578,13 +13578,13 @@
         <v>228</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D144" t="s">
         <v>60</v>
       </c>
       <c r="E144" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F144" t="s">
         <v>59</v>
@@ -13601,13 +13601,13 @@
         <v>229</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D145" t="s">
         <v>60</v>
       </c>
       <c r="E145" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F145" t="s">
         <v>59</v>
@@ -13624,13 +13624,13 @@
         <v>230</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D146" t="s">
         <v>60</v>
       </c>
       <c r="E146" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F146" t="s">
         <v>59</v>
@@ -13647,13 +13647,13 @@
         <v>231</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D147" t="s">
         <v>60</v>
       </c>
       <c r="E147" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F147" t="s">
         <v>59</v>
@@ -13670,13 +13670,13 @@
         <v>232</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D148" t="s">
         <v>60</v>
       </c>
       <c r="E148" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F148" t="s">
         <v>59</v>
@@ -13693,13 +13693,13 @@
         <v>233</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D149" t="s">
         <v>60</v>
       </c>
       <c r="E149" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F149" t="s">
         <v>59</v>
@@ -13716,13 +13716,13 @@
         <v>234</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D150" t="s">
         <v>60</v>
       </c>
       <c r="E150" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F150" t="s">
         <v>59</v>
@@ -13739,13 +13739,13 @@
         <v>235</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D151" t="s">
         <v>60</v>
       </c>
       <c r="E151" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F151" t="s">
         <v>59</v>
@@ -13762,13 +13762,13 @@
         <v>236</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D152" t="s">
         <v>60</v>
       </c>
       <c r="E152" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F152" t="s">
         <v>59</v>
@@ -13785,13 +13785,13 @@
         <v>237</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D153" t="s">
         <v>60</v>
       </c>
       <c r="E153" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F153" t="s">
         <v>59</v>
@@ -13808,13 +13808,13 @@
         <v>238</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D154" t="s">
         <v>60</v>
       </c>
       <c r="E154" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F154" t="s">
         <v>59</v>
@@ -13831,13 +13831,13 @@
         <v>239</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D155" t="s">
         <v>60</v>
       </c>
       <c r="E155" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F155" t="s">
         <v>59</v>
@@ -13854,13 +13854,13 @@
         <v>240</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D156" t="s">
         <v>60</v>
       </c>
       <c r="E156" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F156" t="s">
         <v>59</v>
@@ -13877,13 +13877,13 @@
         <v>241</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D157" t="s">
         <v>60</v>
       </c>
       <c r="E157" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F157" t="s">
         <v>59</v>
@@ -13900,13 +13900,13 @@
         <v>242</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D158" t="s">
         <v>60</v>
       </c>
       <c r="E158" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F158" t="s">
         <v>59</v>
@@ -13923,13 +13923,13 @@
         <v>243</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D159" t="s">
         <v>60</v>
       </c>
       <c r="E159" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F159" t="s">
         <v>59</v>
@@ -13946,13 +13946,13 @@
         <v>244</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D160" t="s">
         <v>60</v>
       </c>
       <c r="E160" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F160" t="s">
         <v>59</v>
@@ -13969,13 +13969,13 @@
         <v>245</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D161" t="s">
         <v>60</v>
       </c>
       <c r="E161" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F161" t="s">
         <v>59</v>
@@ -13992,13 +13992,13 @@
         <v>246</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D162" t="s">
         <v>60</v>
       </c>
       <c r="E162" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F162" t="s">
         <v>59</v>
@@ -14015,13 +14015,13 @@
         <v>247</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D163" t="s">
         <v>60</v>
       </c>
       <c r="E163" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F163" t="s">
         <v>59</v>
@@ -14038,13 +14038,13 @@
         <v>248</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D164" t="s">
         <v>60</v>
       </c>
       <c r="E164" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F164" t="s">
         <v>59</v>
@@ -14061,13 +14061,13 @@
         <v>249</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D165" t="s">
         <v>60</v>
       </c>
       <c r="E165" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F165" t="s">
         <v>59</v>
@@ -14084,13 +14084,13 @@
         <v>250</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D166" t="s">
         <v>60</v>
       </c>
       <c r="E166" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F166" t="s">
         <v>59</v>
@@ -14107,13 +14107,13 @@
         <v>251</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D167" t="s">
         <v>60</v>
       </c>
       <c r="E167" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F167" t="s">
         <v>59</v>
@@ -14130,13 +14130,13 @@
         <v>252</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D168" t="s">
         <v>60</v>
       </c>
       <c r="E168" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F168" t="s">
         <v>59</v>
@@ -14153,13 +14153,13 @@
         <v>253</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D169" t="s">
         <v>60</v>
       </c>
       <c r="E169" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F169" t="s">
         <v>59</v>
@@ -14176,13 +14176,13 @@
         <v>254</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D170" t="s">
         <v>60</v>
       </c>
       <c r="E170" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F170" t="s">
         <v>59</v>
@@ -14199,13 +14199,13 @@
         <v>255</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D171" t="s">
         <v>60</v>
       </c>
       <c r="E171" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F171" t="s">
         <v>59</v>
@@ -14222,13 +14222,13 @@
         <v>256</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D172" t="s">
         <v>60</v>
       </c>
       <c r="E172" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F172" t="s">
         <v>59</v>
@@ -14245,13 +14245,13 @@
         <v>257</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D173" t="s">
         <v>60</v>
       </c>
       <c r="E173" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F173" t="s">
         <v>59</v>
@@ -14268,13 +14268,13 @@
         <v>258</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D174" t="s">
         <v>60</v>
       </c>
       <c r="E174" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F174" t="s">
         <v>59</v>
@@ -14291,13 +14291,13 @@
         <v>259</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D175" t="s">
         <v>60</v>
       </c>
       <c r="E175" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F175" t="s">
         <v>59</v>
@@ -14314,13 +14314,13 @@
         <v>260</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D176" t="s">
         <v>60</v>
       </c>
       <c r="E176" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F176" t="s">
         <v>59</v>
@@ -14337,13 +14337,13 @@
         <v>261</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D177" t="s">
         <v>60</v>
       </c>
       <c r="E177" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F177" t="s">
         <v>59</v>
@@ -14360,13 +14360,13 @@
         <v>262</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D178" t="s">
         <v>60</v>
       </c>
       <c r="E178" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F178" t="s">
         <v>59</v>
@@ -14383,13 +14383,13 @@
         <v>263</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D179" t="s">
         <v>60</v>
       </c>
       <c r="E179" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F179" t="s">
         <v>59</v>
@@ -14406,13 +14406,13 @@
         <v>264</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D180" t="s">
         <v>60</v>
       </c>
       <c r="E180" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F180" t="s">
         <v>59</v>
@@ -14429,13 +14429,13 @@
         <v>265</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D181" t="s">
         <v>60</v>
       </c>
       <c r="E181" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
         <v>59</v>
@@ -14452,13 +14452,13 @@
         <v>266</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D182" t="s">
         <v>60</v>
       </c>
       <c r="E182" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
         <v>59</v>
@@ -14475,13 +14475,13 @@
         <v>267</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D183" t="s">
         <v>60</v>
       </c>
       <c r="E183" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F183" t="s">
         <v>59</v>
@@ -14498,13 +14498,13 @@
         <v>268</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D184" t="s">
         <v>60</v>
       </c>
       <c r="E184" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
         <v>59</v>
@@ -14521,13 +14521,13 @@
         <v>269</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D185" t="s">
         <v>60</v>
       </c>
       <c r="E185" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F185" t="s">
         <v>59</v>
@@ -14544,13 +14544,13 @@
         <v>270</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D186" t="s">
         <v>60</v>
       </c>
       <c r="E186" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
         <v>59</v>
@@ -14567,13 +14567,13 @@
         <v>271</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D187" t="s">
         <v>60</v>
       </c>
       <c r="E187" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
         <v>59</v>
@@ -14590,13 +14590,13 @@
         <v>272</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D188" t="s">
         <v>60</v>
       </c>
       <c r="E188" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F188" t="s">
         <v>59</v>
@@ -14613,13 +14613,13 @@
         <v>273</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D189" t="s">
         <v>60</v>
       </c>
       <c r="E189" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F189" t="s">
         <v>59</v>
@@ -14636,13 +14636,13 @@
         <v>274</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D190" t="s">
         <v>60</v>
       </c>
       <c r="E190" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F190" t="s">
         <v>59</v>
@@ -14659,13 +14659,13 @@
         <v>275</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D191" t="s">
         <v>60</v>
       </c>
       <c r="E191" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F191" t="s">
         <v>59</v>
@@ -14682,13 +14682,13 @@
         <v>276</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D192" t="s">
         <v>60</v>
       </c>
       <c r="E192" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F192" t="s">
         <v>59</v>
@@ -14705,13 +14705,13 @@
         <v>277</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D193" t="s">
         <v>60</v>
       </c>
       <c r="E193" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F193" t="s">
         <v>59</v>
@@ -14728,13 +14728,13 @@
         <v>278</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D194" t="s">
         <v>60</v>
       </c>
       <c r="E194" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F194" t="s">
         <v>59</v>
@@ -14751,13 +14751,13 @@
         <v>279</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D195" t="s">
         <v>60</v>
       </c>
       <c r="E195" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F195" t="s">
         <v>59</v>
@@ -14774,13 +14774,13 @@
         <v>280</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D196" t="s">
         <v>60</v>
       </c>
       <c r="E196" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F196" t="s">
         <v>59</v>
@@ -14797,13 +14797,13 @@
         <v>281</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D197" t="s">
         <v>60</v>
       </c>
       <c r="E197" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F197" t="s">
         <v>59</v>
@@ -14820,13 +14820,13 @@
         <v>282</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D198" t="s">
         <v>60</v>
       </c>
       <c r="E198" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F198" t="s">
         <v>59</v>
@@ -14843,13 +14843,13 @@
         <v>283</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D199" t="s">
         <v>60</v>
       </c>
       <c r="E199" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F199" t="s">
         <v>59</v>
@@ -14866,13 +14866,13 @@
         <v>284</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D200" t="s">
         <v>60</v>
       </c>
       <c r="E200" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F200" t="s">
         <v>59</v>
@@ -14889,13 +14889,13 @@
         <v>285</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D201" t="s">
         <v>60</v>
       </c>
       <c r="E201" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F201" t="s">
         <v>59</v>
@@ -14912,13 +14912,13 @@
         <v>286</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D202" t="s">
         <v>60</v>
       </c>
       <c r="E202" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F202" t="s">
         <v>59</v>
@@ -14935,13 +14935,13 @@
         <v>287</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D203" t="s">
         <v>60</v>
       </c>
       <c r="E203" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F203" t="s">
         <v>59</v>
@@ -14958,13 +14958,13 @@
         <v>288</v>
       </c>
       <c r="C204" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D204" t="s">
         <v>60</v>
       </c>
       <c r="E204" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F204" t="s">
         <v>59</v>
@@ -14981,13 +14981,13 @@
         <v>289</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D205" t="s">
         <v>60</v>
       </c>
       <c r="E205" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F205" t="s">
         <v>59</v>
@@ -15004,13 +15004,13 @@
         <v>290</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D206" t="s">
         <v>60</v>
       </c>
       <c r="E206" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F206" t="s">
         <v>59</v>
@@ -15027,13 +15027,13 @@
         <v>291</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D207" t="s">
         <v>60</v>
       </c>
       <c r="E207" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F207" t="s">
         <v>59</v>
@@ -15050,13 +15050,13 @@
         <v>292</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D208" t="s">
         <v>60</v>
       </c>
       <c r="E208" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F208" t="s">
         <v>59</v>
@@ -15073,13 +15073,13 @@
         <v>293</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D209" t="s">
         <v>60</v>
       </c>
       <c r="E209" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F209" t="s">
         <v>59</v>
@@ -15096,13 +15096,13 @@
         <v>294</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D210" t="s">
         <v>60</v>
       </c>
       <c r="E210" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F210" t="s">
         <v>59</v>
@@ -15119,13 +15119,13 @@
         <v>295</v>
       </c>
       <c r="C211" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D211" t="s">
         <v>60</v>
       </c>
       <c r="E211" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F211" t="s">
         <v>59</v>
@@ -15142,13 +15142,13 @@
         <v>296</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D212" t="s">
         <v>60</v>
       </c>
       <c r="E212" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F212" t="s">
         <v>59</v>
@@ -15165,13 +15165,13 @@
         <v>297</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D213" t="s">
         <v>60</v>
       </c>
       <c r="E213" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F213" t="s">
         <v>59</v>
@@ -15188,13 +15188,13 @@
         <v>298</v>
       </c>
       <c r="C214" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D214" t="s">
         <v>60</v>
       </c>
       <c r="E214" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F214" t="s">
         <v>59</v>
@@ -15211,13 +15211,13 @@
         <v>299</v>
       </c>
       <c r="C215" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D215" t="s">
         <v>60</v>
       </c>
       <c r="E215" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F215" t="s">
         <v>59</v>
@@ -15234,13 +15234,13 @@
         <v>300</v>
       </c>
       <c r="C216" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D216" t="s">
         <v>60</v>
       </c>
       <c r="E216" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F216" t="s">
         <v>59</v>
@@ -15257,13 +15257,13 @@
         <v>301</v>
       </c>
       <c r="C217" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D217" t="s">
         <v>60</v>
       </c>
       <c r="E217" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F217" t="s">
         <v>59</v>
@@ -15280,13 +15280,13 @@
         <v>302</v>
       </c>
       <c r="C218" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D218" t="s">
         <v>60</v>
       </c>
       <c r="E218" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F218" t="s">
         <v>59</v>
@@ -15303,13 +15303,13 @@
         <v>303</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D219" t="s">
         <v>60</v>
       </c>
       <c r="E219" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F219" t="s">
         <v>59</v>
@@ -15326,13 +15326,13 @@
         <v>304</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D220" t="s">
         <v>60</v>
       </c>
       <c r="E220" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F220" t="s">
         <v>59</v>
@@ -15349,13 +15349,13 @@
         <v>305</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D221" t="s">
         <v>60</v>
       </c>
       <c r="E221" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F221" t="s">
         <v>59</v>
@@ -15372,13 +15372,13 @@
         <v>306</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D222" t="s">
         <v>60</v>
       </c>
       <c r="E222" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F222" t="s">
         <v>59</v>
@@ -15395,13 +15395,13 @@
         <v>307</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D223" t="s">
         <v>60</v>
       </c>
       <c r="E223" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F223" t="s">
         <v>59</v>
@@ -15418,13 +15418,13 @@
         <v>308</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D224" t="s">
         <v>60</v>
       </c>
       <c r="E224" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F224" t="s">
         <v>59</v>
@@ -15441,13 +15441,13 @@
         <v>309</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D225" t="s">
         <v>60</v>
       </c>
       <c r="E225" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F225" t="s">
         <v>59</v>
@@ -15464,13 +15464,13 @@
         <v>310</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D226" t="s">
         <v>60</v>
       </c>
       <c r="E226" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F226" t="s">
         <v>59</v>
@@ -15487,13 +15487,13 @@
         <v>311</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D227" t="s">
         <v>60</v>
       </c>
       <c r="E227" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F227" t="s">
         <v>59</v>
@@ -15510,13 +15510,13 @@
         <v>312</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D228" t="s">
         <v>60</v>
       </c>
       <c r="E228" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F228" t="s">
         <v>59</v>
@@ -15533,13 +15533,13 @@
         <v>313</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D229" t="s">
         <v>60</v>
       </c>
       <c r="E229" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F229" t="s">
         <v>59</v>
@@ -15556,13 +15556,13 @@
         <v>314</v>
       </c>
       <c r="C230" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D230" t="s">
         <v>60</v>
       </c>
       <c r="E230" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F230" t="s">
         <v>59</v>
@@ -15579,13 +15579,13 @@
         <v>315</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D231" t="s">
         <v>60</v>
       </c>
       <c r="E231" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F231" t="s">
         <v>59</v>
@@ -15602,13 +15602,13 @@
         <v>316</v>
       </c>
       <c r="C232" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D232" t="s">
         <v>60</v>
       </c>
       <c r="E232" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F232" t="s">
         <v>59</v>
@@ -15625,13 +15625,13 @@
         <v>317</v>
       </c>
       <c r="C233" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D233" t="s">
         <v>60</v>
       </c>
       <c r="E233" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F233" t="s">
         <v>59</v>
@@ -15648,13 +15648,13 @@
         <v>318</v>
       </c>
       <c r="C234" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D234" t="s">
         <v>60</v>
       </c>
       <c r="E234" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F234" t="s">
         <v>59</v>
@@ -15671,13 +15671,13 @@
         <v>319</v>
       </c>
       <c r="C235" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D235" t="s">
         <v>60</v>
       </c>
       <c r="E235" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F235" t="s">
         <v>59</v>
@@ -15694,13 +15694,13 @@
         <v>320</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D236" t="s">
         <v>60</v>
       </c>
       <c r="E236" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F236" t="s">
         <v>59</v>
@@ -15717,13 +15717,13 @@
         <v>321</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D237" t="s">
         <v>60</v>
       </c>
       <c r="E237" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F237" t="s">
         <v>59</v>
@@ -15740,13 +15740,13 @@
         <v>322</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D238" t="s">
         <v>60</v>
       </c>
       <c r="E238" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F238" t="s">
         <v>59</v>
@@ -15763,13 +15763,13 @@
         <v>323</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D239" t="s">
         <v>60</v>
       </c>
       <c r="E239" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F239" t="s">
         <v>59</v>
@@ -15786,13 +15786,13 @@
         <v>324</v>
       </c>
       <c r="C240" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D240" t="s">
         <v>60</v>
       </c>
       <c r="E240" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F240" t="s">
         <v>59</v>
@@ -15809,13 +15809,13 @@
         <v>325</v>
       </c>
       <c r="C241" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D241" t="s">
         <v>60</v>
       </c>
       <c r="E241" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F241" t="s">
         <v>59</v>
@@ -15832,13 +15832,13 @@
         <v>326</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D242" t="s">
         <v>60</v>
       </c>
       <c r="E242" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F242" t="s">
         <v>59</v>
@@ -15855,13 +15855,13 @@
         <v>327</v>
       </c>
       <c r="C243" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D243" t="s">
         <v>60</v>
       </c>
       <c r="E243" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F243" t="s">
         <v>59</v>
@@ -15878,13 +15878,13 @@
         <v>328</v>
       </c>
       <c r="C244" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D244" t="s">
         <v>60</v>
       </c>
       <c r="E244" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F244" t="s">
         <v>59</v>
@@ -15901,13 +15901,13 @@
         <v>329</v>
       </c>
       <c r="C245" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D245" t="s">
         <v>60</v>
       </c>
       <c r="E245" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F245" t="s">
         <v>59</v>
@@ -15924,13 +15924,13 @@
         <v>330</v>
       </c>
       <c r="C246" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D246" t="s">
         <v>60</v>
       </c>
       <c r="E246" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F246" t="s">
         <v>59</v>
@@ -15947,13 +15947,13 @@
         <v>331</v>
       </c>
       <c r="C247" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D247" t="s">
         <v>60</v>
       </c>
       <c r="E247" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F247" t="s">
         <v>59</v>
@@ -15970,13 +15970,13 @@
         <v>332</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D248" t="s">
         <v>60</v>
       </c>
       <c r="E248" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F248" t="s">
         <v>59</v>
@@ -15993,13 +15993,13 @@
         <v>333</v>
       </c>
       <c r="C249" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D249" t="s">
         <v>60</v>
       </c>
       <c r="E249" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F249" t="s">
         <v>59</v>
@@ -16016,13 +16016,13 @@
         <v>334</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D250" t="s">
         <v>60</v>
       </c>
       <c r="E250" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F250" t="s">
         <v>59</v>
@@ -16039,13 +16039,13 @@
         <v>335</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D251" t="s">
         <v>60</v>
       </c>
       <c r="E251" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F251" t="s">
         <v>59</v>
@@ -16062,13 +16062,13 @@
         <v>336</v>
       </c>
       <c r="C252" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D252" t="s">
         <v>60</v>
       </c>
       <c r="E252" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F252" t="s">
         <v>59</v>
@@ -16085,13 +16085,13 @@
         <v>337</v>
       </c>
       <c r="C253" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D253" t="s">
         <v>60</v>
       </c>
       <c r="E253" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F253" t="s">
         <v>59</v>
@@ -16108,13 +16108,13 @@
         <v>338</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D254" t="s">
         <v>60</v>
       </c>
       <c r="E254" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F254" t="s">
         <v>59</v>
@@ -16131,13 +16131,13 @@
         <v>339</v>
       </c>
       <c r="C255" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D255" t="s">
         <v>60</v>
       </c>
       <c r="E255" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F255" t="s">
         <v>59</v>
@@ -16154,13 +16154,13 @@
         <v>340</v>
       </c>
       <c r="C256" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D256" t="s">
         <v>60</v>
       </c>
       <c r="E256" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F256" t="s">
         <v>59</v>
@@ -16177,13 +16177,13 @@
         <v>341</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D257" t="s">
         <v>60</v>
       </c>
       <c r="E257" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F257" t="s">
         <v>59</v>
@@ -16200,13 +16200,13 @@
         <v>342</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D258" t="s">
         <v>60</v>
       </c>
       <c r="E258" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F258" t="s">
         <v>59</v>
@@ -16223,13 +16223,13 @@
         <v>343</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D259" t="s">
         <v>60</v>
       </c>
       <c r="E259" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F259" t="s">
         <v>59</v>
@@ -16246,13 +16246,13 @@
         <v>344</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D260" t="s">
         <v>60</v>
       </c>
       <c r="E260" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F260" t="s">
         <v>59</v>
@@ -16269,13 +16269,13 @@
         <v>345</v>
       </c>
       <c r="C261" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D261" t="s">
         <v>60</v>
       </c>
       <c r="E261" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F261" t="s">
         <v>59</v>
@@ -16292,13 +16292,13 @@
         <v>346</v>
       </c>
       <c r="C262" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D262" t="s">
         <v>60</v>
       </c>
       <c r="E262" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F262" t="s">
         <v>59</v>
@@ -16315,13 +16315,13 @@
         <v>347</v>
       </c>
       <c r="C263" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D263" t="s">
         <v>60</v>
       </c>
       <c r="E263" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F263" t="s">
         <v>59</v>
@@ -16344,7 +16344,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="25" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>352</v>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1380" windowWidth="31460" windowHeight="19500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="22060" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,7 +1752,7 @@
         <v>86405</v>
       </c>
       <c r="D2">
-        <v>60381</v>
+        <v>60385</v>
       </c>
       <c r="E2">
         <v>87710</v>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="0"/>
-        <v>99996</v>
+        <v>100000</v>
       </c>
       <c r="E267">
         <f t="shared" si="0"/>
@@ -10269,16 +10269,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E263"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J267" sqref="J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -16344,7 +16346,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijm/local/recentrifuge/recentrifuge/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8DEA8-CEB0-5A42-BD1C-E95BE05D1AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22060" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
     <sheet name="key" sheetId="3" r:id="rId2"/>
     <sheet name="types" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="358">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -1097,13 +1104,19 @@
   </si>
   <si>
     <t>smplH</t>
+  </si>
+  <si>
+    <t>Parasphingorhabdus marina</t>
+  </si>
+  <si>
+    <t>Parasphingorhabdus litoris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1354,7 +1367,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1407,6 +1420,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1430,6 +1446,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1697,19 +1716,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1741,7 +1760,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1792,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1824,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1837,7 +1856,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1869,7 +1888,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +1920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1965,7 +1984,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
@@ -1997,7 +2016,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +2048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -2061,7 +2080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="17" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2112,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -2125,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -2189,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -2221,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -2253,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -2285,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -2349,7 +2368,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
@@ -2381,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
@@ -2445,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17" thickBot="1">
       <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
@@ -2477,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
@@ -2509,7 +2528,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -2541,7 +2560,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
@@ -2573,7 +2592,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -2605,7 +2624,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
@@ -2637,7 +2656,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>112</v>
       </c>
@@ -2669,7 +2688,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
@@ -2701,7 +2720,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>114</v>
       </c>
@@ -2733,7 +2752,7 @@
         <v>7709</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>115</v>
       </c>
@@ -2765,7 +2784,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -2797,7 +2816,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -2829,7 +2848,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>118</v>
       </c>
@@ -2861,7 +2880,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>119</v>
       </c>
@@ -2893,7 +2912,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
@@ -2925,7 +2944,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -2957,7 +2976,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -2989,7 +3008,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -3021,7 +3040,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -3053,7 +3072,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
@@ -3085,7 +3104,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>126</v>
       </c>
@@ -3117,7 +3136,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -3149,7 +3168,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>128</v>
       </c>
@@ -3181,7 +3200,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>129</v>
       </c>
@@ -3213,7 +3232,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>130</v>
       </c>
@@ -3245,7 +3264,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>131</v>
       </c>
@@ -3277,7 +3296,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>132</v>
       </c>
@@ -3309,7 +3328,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
@@ -3341,7 +3360,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>134</v>
       </c>
@@ -3373,7 +3392,7 @@
         <v>9101</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>135</v>
       </c>
@@ -3405,7 +3424,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>136</v>
       </c>
@@ -3437,7 +3456,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -3469,7 +3488,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>138</v>
       </c>
@@ -3501,7 +3520,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>139</v>
       </c>
@@ -3533,7 +3552,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>140</v>
       </c>
@@ -3565,7 +3584,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>141</v>
       </c>
@@ -3597,7 +3616,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>142</v>
       </c>
@@ -3629,7 +3648,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>143</v>
       </c>
@@ -3661,7 +3680,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>144</v>
       </c>
@@ -3693,7 +3712,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>145</v>
       </c>
@@ -3725,7 +3744,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>146</v>
       </c>
@@ -3757,7 +3776,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>147</v>
       </c>
@@ -3789,7 +3808,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>148</v>
       </c>
@@ -3821,7 +3840,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>149</v>
       </c>
@@ -3853,7 +3872,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>150</v>
       </c>
@@ -3885,7 +3904,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>151</v>
       </c>
@@ -3917,7 +3936,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
@@ -3949,7 +3968,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
@@ -3981,7 +4000,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>154</v>
       </c>
@@ -4013,7 +4032,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>155</v>
       </c>
@@ -4045,7 +4064,7 @@
         <v>7266</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>156</v>
       </c>
@@ -4077,7 +4096,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>157</v>
       </c>
@@ -4109,7 +4128,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
@@ -4141,7 +4160,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>159</v>
       </c>
@@ -4173,7 +4192,7 @@
         <v>7370</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
@@ -4205,7 +4224,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -4237,7 +4256,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
         <v>162</v>
       </c>
@@ -4269,7 +4288,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>163</v>
       </c>
@@ -4301,7 +4320,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>164</v>
       </c>
@@ -4333,7 +4352,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
@@ -4365,7 +4384,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -4397,7 +4416,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>167</v>
       </c>
@@ -4429,7 +4448,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>168</v>
       </c>
@@ -4461,7 +4480,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
@@ -4493,7 +4512,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
         <v>170</v>
       </c>
@@ -4525,7 +4544,7 @@
         <v>13038</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
@@ -4557,7 +4576,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>172</v>
       </c>
@@ -4589,7 +4608,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
         <v>173</v>
       </c>
@@ -4621,7 +4640,7 @@
         <v>5346</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>174</v>
       </c>
@@ -4653,7 +4672,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
         <v>175</v>
       </c>
@@ -4685,7 +4704,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>176</v>
       </c>
@@ -4717,7 +4736,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
         <v>177</v>
       </c>
@@ -4749,7 +4768,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
         <v>178</v>
       </c>
@@ -4781,7 +4800,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>179</v>
       </c>
@@ -4813,7 +4832,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>180</v>
       </c>
@@ -4845,7 +4864,7 @@
         <v>13107</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>181</v>
       </c>
@@ -4877,7 +4896,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>182</v>
       </c>
@@ -4909,7 +4928,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>183</v>
       </c>
@@ -4941,7 +4960,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>184</v>
       </c>
@@ -4973,7 +4992,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
         <v>185</v>
       </c>
@@ -5005,7 +5024,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
         <v>186</v>
       </c>
@@ -5037,7 +5056,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
         <v>187</v>
       </c>
@@ -5069,7 +5088,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
         <v>188</v>
       </c>
@@ -5101,7 +5120,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
         <v>189</v>
       </c>
@@ -5133,7 +5152,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
         <v>190</v>
       </c>
@@ -5165,7 +5184,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
         <v>191</v>
       </c>
@@ -5197,7 +5216,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
         <v>192</v>
       </c>
@@ -5229,7 +5248,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>193</v>
       </c>
@@ -5261,7 +5280,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
         <v>194</v>
       </c>
@@ -5293,7 +5312,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
         <v>195</v>
       </c>
@@ -5325,7 +5344,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
         <v>196</v>
       </c>
@@ -5357,7 +5376,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
         <v>197</v>
       </c>
@@ -5389,7 +5408,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>198</v>
       </c>
@@ -5421,7 +5440,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
         <v>199</v>
       </c>
@@ -5453,7 +5472,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
         <v>200</v>
       </c>
@@ -5485,7 +5504,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
         <v>201</v>
       </c>
@@ -5517,7 +5536,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
         <v>202</v>
       </c>
@@ -5549,7 +5568,7 @@
         <v>5972</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
         <v>203</v>
       </c>
@@ -5581,7 +5600,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
         <v>204</v>
       </c>
@@ -5613,7 +5632,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
         <v>205</v>
       </c>
@@ -5645,7 +5664,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
         <v>206</v>
       </c>
@@ -5677,7 +5696,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>207</v>
       </c>
@@ -5709,7 +5728,7 @@
         <v>4745</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
         <v>208</v>
       </c>
@@ -5741,7 +5760,7 @@
         <v>6328</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>209</v>
       </c>
@@ -5773,7 +5792,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
         <v>210</v>
       </c>
@@ -5805,7 +5824,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
         <v>211</v>
       </c>
@@ -5837,7 +5856,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
         <v>212</v>
       </c>
@@ -5869,7 +5888,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
         <v>213</v>
       </c>
@@ -5901,7 +5920,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
         <v>214</v>
       </c>
@@ -5933,7 +5952,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
         <v>215</v>
       </c>
@@ -5965,7 +5984,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
         <v>216</v>
       </c>
@@ -5997,7 +6016,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
         <v>217</v>
       </c>
@@ -6029,7 +6048,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
         <v>218</v>
       </c>
@@ -6061,7 +6080,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
         <v>219</v>
       </c>
@@ -6093,7 +6112,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="s">
         <v>220</v>
       </c>
@@ -6125,7 +6144,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
         <v>221</v>
       </c>
@@ -6157,7 +6176,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
         <v>222</v>
       </c>
@@ -6189,7 +6208,7 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
         <v>223</v>
       </c>
@@ -6221,7 +6240,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
         <v>224</v>
       </c>
@@ -6253,7 +6272,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
         <v>225</v>
       </c>
@@ -6285,7 +6304,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
         <v>226</v>
       </c>
@@ -6317,7 +6336,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
         <v>227</v>
       </c>
@@ -6349,7 +6368,7 @@
         <v>8344</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
         <v>228</v>
       </c>
@@ -6381,7 +6400,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
         <v>229</v>
       </c>
@@ -6413,7 +6432,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="s">
         <v>230</v>
       </c>
@@ -6445,7 +6464,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="s">
         <v>231</v>
       </c>
@@ -6477,7 +6496,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="s">
         <v>232</v>
       </c>
@@ -6509,7 +6528,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="s">
         <v>233</v>
       </c>
@@ -6541,7 +6560,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="s">
         <v>234</v>
       </c>
@@ -6573,7 +6592,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="s">
         <v>235</v>
       </c>
@@ -6605,7 +6624,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
         <v>236</v>
       </c>
@@ -6637,7 +6656,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="s">
         <v>237</v>
       </c>
@@ -6669,7 +6688,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="s">
         <v>238</v>
       </c>
@@ -6701,7 +6720,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="s">
         <v>239</v>
       </c>
@@ -6733,7 +6752,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="s">
         <v>240</v>
       </c>
@@ -6765,7 +6784,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="s">
         <v>241</v>
       </c>
@@ -6797,7 +6816,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="s">
         <v>242</v>
       </c>
@@ -6829,7 +6848,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="s">
         <v>243</v>
       </c>
@@ -6861,7 +6880,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="s">
         <v>244</v>
       </c>
@@ -6893,7 +6912,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="s">
         <v>245</v>
       </c>
@@ -6925,7 +6944,7 @@
         <v>7376</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="s">
         <v>246</v>
       </c>
@@ -6957,7 +6976,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="s">
         <v>247</v>
       </c>
@@ -6989,7 +7008,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
         <v>248</v>
       </c>
@@ -7021,7 +7040,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="s">
         <v>249</v>
       </c>
@@ -7053,7 +7072,7 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="s">
         <v>250</v>
       </c>
@@ -7085,7 +7104,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="s">
         <v>251</v>
       </c>
@@ -7117,7 +7136,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="s">
         <v>252</v>
       </c>
@@ -7149,7 +7168,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="s">
         <v>253</v>
       </c>
@@ -7181,7 +7200,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="s">
         <v>254</v>
       </c>
@@ -7213,7 +7232,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="s">
         <v>255</v>
       </c>
@@ -7245,7 +7264,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="s">
         <v>256</v>
       </c>
@@ -7277,7 +7296,7 @@
         <v>7498</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="s">
         <v>257</v>
       </c>
@@ -7309,7 +7328,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="s">
         <v>258</v>
       </c>
@@ -7341,7 +7360,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="s">
         <v>259</v>
       </c>
@@ -7373,7 +7392,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="s">
         <v>260</v>
       </c>
@@ -7405,7 +7424,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="s">
         <v>261</v>
       </c>
@@ -7437,7 +7456,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="s">
         <v>262</v>
       </c>
@@ -7469,7 +7488,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="s">
         <v>263</v>
       </c>
@@ -7501,7 +7520,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="s">
         <v>264</v>
       </c>
@@ -7533,7 +7552,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="s">
         <v>265</v>
       </c>
@@ -7565,7 +7584,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="s">
         <v>266</v>
       </c>
@@ -7597,7 +7616,7 @@
         <v>17597</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="s">
         <v>267</v>
       </c>
@@ -7629,7 +7648,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="s">
         <v>268</v>
       </c>
@@ -7661,7 +7680,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="s">
         <v>269</v>
       </c>
@@ -7693,7 +7712,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="s">
         <v>270</v>
       </c>
@@ -7725,7 +7744,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="s">
         <v>271</v>
       </c>
@@ -7757,7 +7776,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="s">
         <v>272</v>
       </c>
@@ -7789,7 +7808,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="s">
         <v>273</v>
       </c>
@@ -7821,7 +7840,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="s">
         <v>274</v>
       </c>
@@ -7853,7 +7872,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="s">
         <v>275</v>
       </c>
@@ -7885,7 +7904,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="s">
         <v>276</v>
       </c>
@@ -7917,7 +7936,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="s">
         <v>277</v>
       </c>
@@ -7949,7 +7968,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="s">
         <v>278</v>
       </c>
@@ -7981,7 +8000,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="s">
         <v>279</v>
       </c>
@@ -8013,7 +8032,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="s">
         <v>280</v>
       </c>
@@ -8045,7 +8064,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="s">
         <v>281</v>
       </c>
@@ -8077,7 +8096,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="s">
         <v>282</v>
       </c>
@@ -8109,7 +8128,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="s">
         <v>283</v>
       </c>
@@ -8141,7 +8160,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="s">
         <v>284</v>
       </c>
@@ -8173,7 +8192,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="s">
         <v>285</v>
       </c>
@@ -8205,7 +8224,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="s">
         <v>286</v>
       </c>
@@ -8237,7 +8256,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="s">
         <v>287</v>
       </c>
@@ -8269,7 +8288,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="s">
         <v>288</v>
       </c>
@@ -8301,7 +8320,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="s">
         <v>289</v>
       </c>
@@ -8333,7 +8352,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="s">
         <v>290</v>
       </c>
@@ -8365,7 +8384,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="s">
         <v>291</v>
       </c>
@@ -8397,7 +8416,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
         <v>292</v>
       </c>
@@ -8429,7 +8448,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="s">
         <v>293</v>
       </c>
@@ -8461,7 +8480,7 @@
         <v>6140</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="s">
         <v>294</v>
       </c>
@@ -8493,7 +8512,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="s">
         <v>295</v>
       </c>
@@ -8525,7 +8544,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="s">
         <v>296</v>
       </c>
@@ -8557,7 +8576,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="s">
         <v>297</v>
       </c>
@@ -8589,7 +8608,7 @@
         <v>8130</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="s">
         <v>298</v>
       </c>
@@ -8621,7 +8640,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="s">
         <v>299</v>
       </c>
@@ -8653,7 +8672,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="s">
         <v>300</v>
       </c>
@@ -8685,7 +8704,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="s">
         <v>301</v>
       </c>
@@ -8717,7 +8736,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="s">
         <v>302</v>
       </c>
@@ -8749,7 +8768,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="s">
         <v>303</v>
       </c>
@@ -8781,7 +8800,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="s">
         <v>304</v>
       </c>
@@ -8813,7 +8832,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="s">
         <v>305</v>
       </c>
@@ -8845,7 +8864,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="s">
         <v>306</v>
       </c>
@@ -8877,7 +8896,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="s">
         <v>307</v>
       </c>
@@ -8909,7 +8928,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10">
       <c r="A226" s="1" t="s">
         <v>308</v>
       </c>
@@ -8941,7 +8960,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10">
       <c r="A227" s="1" t="s">
         <v>309</v>
       </c>
@@ -8973,7 +8992,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10">
       <c r="A228" s="1" t="s">
         <v>310</v>
       </c>
@@ -9005,7 +9024,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10">
       <c r="A229" s="1" t="s">
         <v>311</v>
       </c>
@@ -9037,7 +9056,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10">
       <c r="A230" s="1" t="s">
         <v>312</v>
       </c>
@@ -9069,7 +9088,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10">
       <c r="A231" s="1" t="s">
         <v>313</v>
       </c>
@@ -9101,7 +9120,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10">
       <c r="A232" s="1" t="s">
         <v>314</v>
       </c>
@@ -9133,7 +9152,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10">
       <c r="A233" s="1" t="s">
         <v>315</v>
       </c>
@@ -9165,7 +9184,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10">
       <c r="A234" s="1" t="s">
         <v>316</v>
       </c>
@@ -9197,7 +9216,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10">
       <c r="A235" s="1" t="s">
         <v>317</v>
       </c>
@@ -9229,9 +9248,9 @@
         <v>7166</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
-        <v>318</v>
+    <row r="236" spans="1:10" ht="17">
+      <c r="A236" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="B236">
         <v>394733</v>
@@ -9261,9 +9280,9 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10">
       <c r="A237" s="1" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="B237">
         <v>394732</v>
@@ -9293,7 +9312,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10">
       <c r="A238" s="1" t="s">
         <v>320</v>
       </c>
@@ -9325,7 +9344,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10">
       <c r="A239" s="1" t="s">
         <v>321</v>
       </c>
@@ -9357,7 +9376,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10">
       <c r="A240" s="1" t="s">
         <v>322</v>
       </c>
@@ -9389,7 +9408,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10">
       <c r="A241" s="1" t="s">
         <v>323</v>
       </c>
@@ -9421,7 +9440,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10">
       <c r="A242" s="1" t="s">
         <v>324</v>
       </c>
@@ -9453,7 +9472,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10">
       <c r="A243" s="1" t="s">
         <v>325</v>
       </c>
@@ -9485,7 +9504,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10">
       <c r="A244" s="1" t="s">
         <v>326</v>
       </c>
@@ -9517,7 +9536,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10">
       <c r="A245" s="1" t="s">
         <v>327</v>
       </c>
@@ -9549,7 +9568,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10">
       <c r="A246" s="1" t="s">
         <v>328</v>
       </c>
@@ -9581,7 +9600,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10">
       <c r="A247" s="1" t="s">
         <v>329</v>
       </c>
@@ -9613,7 +9632,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10">
       <c r="A248" s="1" t="s">
         <v>330</v>
       </c>
@@ -9645,7 +9664,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10">
       <c r="A249" s="1" t="s">
         <v>331</v>
       </c>
@@ -9677,7 +9696,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10">
       <c r="A250" s="1" t="s">
         <v>332</v>
       </c>
@@ -9709,7 +9728,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10">
       <c r="A251" s="1" t="s">
         <v>333</v>
       </c>
@@ -9741,7 +9760,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10">
       <c r="A252" s="1" t="s">
         <v>334</v>
       </c>
@@ -9773,7 +9792,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10">
       <c r="A253" s="1" t="s">
         <v>335</v>
       </c>
@@ -9805,7 +9824,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10">
       <c r="A254" s="1" t="s">
         <v>336</v>
       </c>
@@ -9837,7 +9856,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10">
       <c r="A255" s="1" t="s">
         <v>337</v>
       </c>
@@ -9869,7 +9888,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10">
       <c r="A256" s="1" t="s">
         <v>338</v>
       </c>
@@ -9901,7 +9920,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10">
       <c r="A257" s="1" t="s">
         <v>339</v>
       </c>
@@ -9933,7 +9952,7 @@
         <v>4145</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10">
       <c r="A258" s="1" t="s">
         <v>340</v>
       </c>
@@ -9965,7 +9984,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10">
       <c r="A259" s="1" t="s">
         <v>341</v>
       </c>
@@ -9997,7 +10016,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10">
       <c r="A260" s="1" t="s">
         <v>342</v>
       </c>
@@ -10029,7 +10048,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10">
       <c r="A261" s="1" t="s">
         <v>343</v>
       </c>
@@ -10061,7 +10080,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10">
       <c r="A262" s="1" t="s">
         <v>344</v>
       </c>
@@ -10093,7 +10112,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10">
       <c r="A263" s="1" t="s">
         <v>345</v>
       </c>
@@ -10125,7 +10144,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10">
       <c r="A264" s="1" t="s">
         <v>346</v>
       </c>
@@ -10157,7 +10176,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="17" thickBot="1">
       <c r="A265" s="1" t="s">
         <v>347</v>
       </c>
@@ -10189,7 +10208,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10">
       <c r="A266" s="35" t="s">
         <v>351</v>
       </c>
@@ -10221,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10">
       <c r="A267" s="2" t="s">
         <v>26</v>
       </c>
@@ -10266,14 +10285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J267" sqref="J267"/>
+    <sheetView topLeftCell="A118" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="54.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="23" customWidth="1"/>
@@ -10283,7 +10302,7 @@
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -10306,7 +10325,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>4577</v>
       </c>
@@ -10329,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>9606</v>
       </c>
@@ -10352,7 +10371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>398578</v>
       </c>
@@ -10375,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>80866</v>
       </c>
@@ -10398,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1747</v>
       </c>
@@ -10421,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>59201</v>
       </c>
@@ -10444,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>28901</v>
       </c>
@@ -10467,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>562</v>
       </c>
@@ -10490,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>31998</v>
       </c>
@@ -10513,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2209</v>
       </c>
@@ -10536,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1587</v>
       </c>
@@ -10559,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2208</v>
       </c>
@@ -10582,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1540099</v>
       </c>
@@ -10605,7 +10624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>76773</v>
       </c>
@@ -10628,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>54736</v>
       </c>
@@ -10651,7 +10670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>9598</v>
       </c>
@@ -10674,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1204725</v>
       </c>
@@ -10697,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1300163</v>
       </c>
@@ -10720,7 +10739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2162</v>
       </c>
@@ -10743,7 +10762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1982305</v>
       </c>
@@ -10766,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>4565</v>
       </c>
@@ -10789,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>33998</v>
       </c>
@@ -10812,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>103728</v>
       </c>
@@ -10835,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>103729</v>
       </c>
@@ -10858,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>96101</v>
       </c>
@@ -10881,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>42197</v>
       </c>
@@ -10904,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1080</v>
       </c>
@@ -10927,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>41985</v>
       </c>
@@ -10950,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>293890</v>
       </c>
@@ -10973,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>196587</v>
       </c>
@@ -10996,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>279824</v>
       </c>
@@ -11019,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>237019</v>
       </c>
@@ -11042,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>57028</v>
       </c>
@@ -11065,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>291403</v>
       </c>
@@ -11088,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>235931</v>
       </c>
@@ -11111,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>889453</v>
       </c>
@@ -11134,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>1120994</v>
       </c>
@@ -11157,7 +11176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>82374</v>
       </c>
@@ -11180,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>561088</v>
       </c>
@@ -11203,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>591202</v>
       </c>
@@ -11226,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>440515</v>
       </c>
@@ -11249,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>188872</v>
       </c>
@@ -11272,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>375061</v>
       </c>
@@ -11295,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>394340</v>
       </c>
@@ -11318,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>180295</v>
       </c>
@@ -11341,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>370622</v>
       </c>
@@ -11364,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>41977</v>
       </c>
@@ -11387,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>116849</v>
       </c>
@@ -11410,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>170623</v>
       </c>
@@ -11433,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>454048</v>
       </c>
@@ -11456,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>53254</v>
       </c>
@@ -11479,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>71656</v>
       </c>
@@ -11502,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>55210</v>
       </c>
@@ -11525,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>509094</v>
       </c>
@@ -11548,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>575302</v>
       </c>
@@ -11571,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>367474</v>
       </c>
@@ -11594,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>456330</v>
       </c>
@@ -11617,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>53342</v>
       </c>
@@ -11640,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>28898</v>
       </c>
@@ -11663,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>576117</v>
       </c>
@@ -11686,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>76595</v>
       </c>
@@ -11709,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>504486</v>
       </c>
@@ -11732,7 +11751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>180163</v>
       </c>
@@ -11755,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>393003</v>
       </c>
@@ -11778,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>104662</v>
       </c>
@@ -11801,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>1004</v>
       </c>
@@ -11824,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>331697</v>
       </c>
@@ -11847,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>421530</v>
       </c>
@@ -11870,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>1278652</v>
       </c>
@@ -11893,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>91624</v>
       </c>
@@ -11916,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>349931</v>
       </c>
@@ -11939,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>29357</v>
       </c>
@@ -11962,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>36845</v>
       </c>
@@ -11985,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>259063</v>
       </c>
@@ -12008,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>1557</v>
       </c>
@@ -12031,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>33954</v>
       </c>
@@ -12054,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>29365</v>
       </c>
@@ -12077,7 +12096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>100134</v>
       </c>
@@ -12100,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>108437</v>
       </c>
@@ -12123,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>990</v>
       </c>
@@ -12146,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>109258</v>
       </c>
@@ -12169,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>35837</v>
       </c>
@@ -12192,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>51616</v>
       </c>
@@ -12215,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>888</v>
       </c>
@@ -12238,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>897</v>
       </c>
@@ -12261,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>51195</v>
       </c>
@@ -12284,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>380392</v>
       </c>
@@ -12307,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>231440</v>
       </c>
@@ -12330,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>91360</v>
       </c>
@@ -12353,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>329936</v>
       </c>
@@ -12376,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>53343</v>
       </c>
@@ -12399,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>1566</v>
       </c>
@@ -12422,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>74701</v>
       </c>
@@ -12445,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>348840</v>
       </c>
@@ -12468,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>876</v>
       </c>
@@ -12491,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>47158</v>
       </c>
@@ -12514,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>45629</v>
       </c>
@@ -12537,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>575978</v>
       </c>
@@ -12560,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>466107</v>
       </c>
@@ -12583,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>458711</v>
       </c>
@@ -12606,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>299072</v>
       </c>
@@ -12629,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>76007</v>
       </c>
@@ -12652,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>332095</v>
       </c>
@@ -12675,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>288995</v>
       </c>
@@ -12698,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>1294566</v>
       </c>
@@ -12721,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>292407</v>
       </c>
@@ -12744,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>363850</v>
       </c>
@@ -12767,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>651661</v>
       </c>
@@ -12790,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>172045</v>
       </c>
@@ -12813,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>504469</v>
       </c>
@@ -12836,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>65700</v>
       </c>
@@ -12859,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>42322</v>
       </c>
@@ -12882,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>44754</v>
       </c>
@@ -12905,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>28122</v>
       </c>
@@ -12928,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>428988</v>
       </c>
@@ -12951,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>654838</v>
       </c>
@@ -12974,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>49280</v>
       </c>
@@ -12997,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>745368</v>
       </c>
@@ -13020,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>402884</v>
       </c>
@@ -13043,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>115783</v>
       </c>
@@ -13066,7 +13085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>390806</v>
       </c>
@@ -13089,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>334858</v>
       </c>
@@ -13112,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>2242</v>
       </c>
@@ -13135,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>480814</v>
       </c>
@@ -13158,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>180311</v>
       </c>
@@ -13181,7 +13200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>568105</v>
       </c>
@@ -13204,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>496053</v>
       </c>
@@ -13227,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>344998</v>
       </c>
@@ -13250,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>446684</v>
       </c>
@@ -13273,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>265175</v>
       </c>
@@ -13296,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>53444</v>
       </c>
@@ -13319,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>82688</v>
       </c>
@@ -13342,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>83526</v>
       </c>
@@ -13365,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>643671</v>
       </c>
@@ -13388,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>988</v>
       </c>
@@ -13411,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>1150508</v>
       </c>
@@ -13434,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>40571</v>
       </c>
@@ -13457,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>438851</v>
       </c>
@@ -13480,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>262325</v>
       </c>
@@ -13503,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>435289</v>
       </c>
@@ -13526,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>57040</v>
       </c>
@@ -13549,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>561184</v>
       </c>
@@ -13572,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>561365</v>
       </c>
@@ -13595,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>429344</v>
       </c>
@@ -13618,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>287990</v>
       </c>
@@ -13641,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>293552</v>
       </c>
@@ -13664,7 +13683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>1028</v>
       </c>
@@ -13687,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>86796</v>
       </c>
@@ -13710,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>349095</v>
       </c>
@@ -13733,7 +13752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>213248</v>
       </c>
@@ -13756,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>374425</v>
       </c>
@@ -13779,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>330227</v>
       </c>
@@ -13802,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>1071583</v>
       </c>
@@ -13825,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>875239</v>
       </c>
@@ -13848,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>468058</v>
       </c>
@@ -13871,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>33922</v>
       </c>
@@ -13894,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>244584</v>
       </c>
@@ -13917,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>171291</v>
       </c>
@@ -13940,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>1255265</v>
       </c>
@@ -13963,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>756689</v>
       </c>
@@ -13986,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>443157</v>
       </c>
@@ -14009,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>1843</v>
       </c>
@@ -14032,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>223904</v>
       </c>
@@ -14055,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>1259470</v>
       </c>
@@ -14078,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>424797</v>
       </c>
@@ -14101,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>906888</v>
       </c>
@@ -14124,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>191564</v>
       </c>
@@ -14147,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>1189325</v>
       </c>
@@ -14170,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>129578</v>
       </c>
@@ -14193,7 +14212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>64969</v>
       </c>
@@ -14216,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>684063</v>
       </c>
@@ -14239,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>1243042</v>
       </c>
@@ -14262,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>100176</v>
       </c>
@@ -14285,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>1037355</v>
       </c>
@@ -14308,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>623280</v>
       </c>
@@ -14331,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>115544</v>
       </c>
@@ -14354,7 +14373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>351343</v>
       </c>
@@ -14377,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>188932</v>
       </c>
@@ -14400,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>572036</v>
       </c>
@@ -14423,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>420403</v>
       </c>
@@ -14446,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>1167741</v>
       </c>
@@ -14469,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>490570</v>
       </c>
@@ -14492,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>1456769</v>
       </c>
@@ -14515,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>263852</v>
       </c>
@@ -14538,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>696762</v>
       </c>
@@ -14561,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>422297</v>
       </c>
@@ -14584,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>198312</v>
       </c>
@@ -14607,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>36874</v>
       </c>
@@ -14630,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>29524</v>
       </c>
@@ -14653,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>387890</v>
       </c>
@@ -14676,7 +14695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>176898</v>
       </c>
@@ -14699,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>577679</v>
       </c>
@@ -14722,7 +14741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>185641</v>
       </c>
@@ -14745,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>387889</v>
       </c>
@@ -14768,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>228603</v>
       </c>
@@ -14791,7 +14810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>526729</v>
       </c>
@@ -14814,7 +14833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>765201</v>
       </c>
@@ -14837,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>45622</v>
       </c>
@@ -14860,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>65401</v>
       </c>
@@ -14883,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>48467</v>
       </c>
@@ -14906,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>48464</v>
       </c>
@@ -14929,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>185007</v>
       </c>
@@ -14952,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>451637</v>
       </c>
@@ -14975,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>86175</v>
       </c>
@@ -14998,7 +15017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>157792</v>
       </c>
@@ -15021,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>289483</v>
       </c>
@@ -15044,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>176598</v>
       </c>
@@ -15067,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>1256701</v>
       </c>
@@ -15090,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>366349</v>
       </c>
@@ -15113,7 +15132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>554335</v>
       </c>
@@ -15136,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>182367</v>
       </c>
@@ -15159,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>1387244</v>
       </c>
@@ -15182,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>1172533</v>
       </c>
@@ -15205,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>287609</v>
       </c>
@@ -15228,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>198092</v>
       </c>
@@ -15251,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>424704</v>
       </c>
@@ -15274,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>407226</v>
       </c>
@@ -15297,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>241145</v>
       </c>
@@ -15320,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>270918</v>
       </c>
@@ -15343,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>435906</v>
       </c>
@@ -15366,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>143223</v>
       </c>
@@ -15389,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>447422</v>
       </c>
@@ -15412,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>148453</v>
       </c>
@@ -15435,7 +15454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>255519</v>
       </c>
@@ -15458,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>130788</v>
       </c>
@@ -15481,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>142842</v>
       </c>
@@ -15504,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>253256</v>
       </c>
@@ -15527,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>619805</v>
       </c>
@@ -15550,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>28454</v>
       </c>
@@ -15573,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>563996</v>
       </c>
@@ -15596,7 +15615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>397260</v>
       </c>
@@ -15619,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>160791</v>
       </c>
@@ -15642,7 +15661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>394733</v>
       </c>
@@ -15665,7 +15684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>394732</v>
       </c>
@@ -15688,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>286803</v>
       </c>
@@ -15711,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>44749</v>
       </c>
@@ -15734,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>406432</v>
       </c>
@@ -15757,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>1933</v>
       </c>
@@ -15780,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>83771</v>
       </c>
@@ -15803,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>619730</v>
       </c>
@@ -15826,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>266809</v>
       </c>
@@ -15849,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>447593</v>
       </c>
@@ -15872,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>412896</v>
       </c>
@@ -15895,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>213588</v>
       </c>
@@ -15918,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>238991</v>
       </c>
@@ -15941,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>54294</v>
       </c>
@@ -15964,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>92487</v>
       </c>
@@ -15987,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>43131</v>
       </c>
@@ -16010,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>225004</v>
       </c>
@@ -16033,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>261392</v>
       </c>
@@ -16056,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>158751</v>
       </c>
@@ -16079,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>160236</v>
       </c>
@@ -16102,7 +16121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>227322</v>
       </c>
@@ -16125,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>349273</v>
       </c>
@@ -16148,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>114707</v>
       </c>
@@ -16171,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>158754</v>
       </c>
@@ -16194,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>435912</v>
       </c>
@@ -16217,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>184755</v>
       </c>
@@ -16240,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>321325</v>
       </c>
@@ -16263,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>72806</v>
       </c>
@@ -16286,7 +16305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>391736</v>
       </c>
@@ -16309,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>355930</v>
       </c>
@@ -16342,28 +16361,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20" customHeight="1"/>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="B2" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20" customHeight="1"/>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
@@ -16371,7 +16390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
         <v>30</v>
@@ -16380,7 +16399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
         <v>31</v>
@@ -16389,7 +16408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="15" t="s">
         <v>32</v>
@@ -16398,7 +16417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
         <v>33</v>
@@ -16407,7 +16426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="B9" s="17" t="s">
         <v>35</v>
       </c>
@@ -16415,7 +16434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20" customHeight="1" thickBot="1">
       <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
@@ -16423,13 +16442,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="20" customHeight="1" thickBot="1">
       <c r="B11" s="26"/>
       <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="B12" s="25" t="s">
         <v>350</v>
       </c>
@@ -16437,21 +16456,21 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="B13" s="25"/>
       <c r="D13" s="19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="B14" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="B16" s="21" t="s">
         <v>36</v>
       </c>
@@ -16463,7 +16482,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="20" customHeight="1">
       <c r="B17" s="21" t="s">
         <v>46</v>
       </c>
@@ -16475,8 +16494,8 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:5" ht="20" customHeight="1"/>
+    <row r="19" spans="2:5" ht="20" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijm/local/recentrifuge/recentrifuge/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8DEA8-CEB0-5A42-BD1C-E95BE05D1AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01391503-EA40-B843-B471-F9E5DA4356A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-8320" windowWidth="68800" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="359">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -1110,13 +1113,38 @@
   </si>
   <si>
     <t>Parasphingorhabdus litoris</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adlercreutzia equolifaciens </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subsp.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> celatus</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1182,6 +1210,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1367,7 +1403,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1423,6 +1459,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1719,9 +1756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3201,8 +3236,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>129</v>
+      <c r="A47" s="37" t="s">
+        <v>358</v>
       </c>
       <c r="B47">
         <v>394340</v>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijm/local/recentrifuge/recentrifuge/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01391503-EA40-B843-B471-F9E5DA4356A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47011C-CFD3-1D47-8B82-490D51A4D3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8320" windowWidth="68800" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48540" yWindow="380" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="365">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -1138,6 +1138,24 @@
       </rPr>
       <t xml:space="preserve"> celatus</t>
     </r>
+  </si>
+  <si>
+    <t>Pseudodesulfovibrio halophilus</t>
+  </si>
+  <si>
+    <t>Humidesulfovibrio idahonensis</t>
+  </si>
+  <si>
+    <t>Paucidesulfovibrio gracilis</t>
+  </si>
+  <si>
+    <t>Halodesulfovibrio marinisediminis</t>
+  </si>
+  <si>
+    <t>Megalodesulfovibrio paquesii</t>
+  </si>
+  <si>
+    <t>Desulfobaculum senezii</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4901,7 +4921,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="B99">
         <v>47158</v>
@@ -4933,7 +4953,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="B100">
         <v>45629</v>
@@ -4965,7 +4985,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="B101">
         <v>575978</v>
@@ -5029,7 +5049,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
       <c r="B103">
         <v>458711</v>
@@ -5061,7 +5081,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="B104">
         <v>299072</v>
@@ -5093,7 +5113,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="B105">
         <v>76007</v>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijm/local/recentrifuge/recentrifuge/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47011C-CFD3-1D47-8B82-490D51A4D3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E19177-34ED-F04B-8AAF-B4042D0E598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48540" yWindow="380" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-42700" yWindow="-2580" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="369">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -1156,6 +1156,18 @@
   </si>
   <si>
     <t>Desulfobaculum senezii</t>
+  </si>
+  <si>
+    <t>Desulforamulus aeronauticus</t>
+  </si>
+  <si>
+    <t>Desulfofundulus australicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desulforamulus putei </t>
+  </si>
+  <si>
+    <t>Desulfofundulus thermosubterraneus</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1787,7 @@
   <dimension ref="A1:J267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4761,7 +4773,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="B94">
         <v>53343</v>
@@ -4793,7 +4805,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="B95">
         <v>1566</v>
@@ -4825,7 +4837,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="B96">
         <v>74701</v>
@@ -4857,7 +4869,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="B97">
         <v>348840</v>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijm/local/recentrifuge/recentrifuge/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E19177-34ED-F04B-8AAF-B4042D0E598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB8A60-DA43-C244-BBBE-4A07230AEA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-42700" yWindow="-2580" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="370">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -1134,6 +1134,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> celatus</t>
@@ -1168,6 +1169,9 @@
   </si>
   <si>
     <t>Desulfofundulus thermosubterraneus</t>
+  </si>
+  <si>
+    <t>Neoroseomonas lacus</t>
   </si>
 </sst>
 </file>
@@ -1187,12 +1191,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,6 +1219,7 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1235,6 +1242,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1433,10 +1441,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1470,10 +1477,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1485,7 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1786,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1796,7 +1801,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
@@ -1828,7 +1833,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1860,7 +1865,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1892,7 +1897,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -1924,7 +1929,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -1956,7 +1961,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6">
@@ -1988,7 +1993,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -2020,7 +2025,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B8">
@@ -2052,7 +2057,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B9">
@@ -2084,7 +2089,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -2116,7 +2121,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11">
@@ -2148,7 +2153,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B12">
@@ -2180,19 +2185,19 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B13">
         <v>1587</v>
       </c>
-      <c r="C13" s="27">
-        <v>3</v>
-      </c>
-      <c r="D13" s="28">
-        <v>2</v>
-      </c>
-      <c r="E13" s="29">
+      <c r="C13" s="25">
+        <v>3</v>
+      </c>
+      <c r="D13" s="26">
+        <v>2</v>
+      </c>
+      <c r="E13" s="27">
         <v>3</v>
       </c>
       <c r="F13">
@@ -2212,19 +2217,19 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B14">
         <v>187218</v>
       </c>
-      <c r="C14" s="30">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="C14" s="28">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
         <v>1</v>
       </c>
       <c r="F14">
@@ -2244,19 +2249,19 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B15">
         <v>1540099</v>
       </c>
-      <c r="C15" s="30">
-        <v>3</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="C15" s="28">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
         <v>2</v>
       </c>
       <c r="F15">
@@ -2276,19 +2281,19 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B16">
         <v>28901</v>
       </c>
-      <c r="C16" s="30">
-        <v>3</v>
-      </c>
-      <c r="D16" s="22">
-        <v>2</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="C16" s="28">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="29">
         <v>1</v>
       </c>
       <c r="F16">
@@ -2308,19 +2313,19 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B17">
         <v>54736</v>
       </c>
-      <c r="C17" s="30">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
         <v>0</v>
       </c>
       <c r="F17">
@@ -2340,19 +2345,19 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B18">
         <v>59201</v>
       </c>
-      <c r="C18" s="30">
-        <v>1</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
         <v>2</v>
       </c>
       <c r="F18">
@@ -2372,19 +2377,19 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" thickBot="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B19">
         <v>1204725</v>
       </c>
-      <c r="C19" s="32">
-        <v>1</v>
-      </c>
-      <c r="D19" s="33">
-        <v>2</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="C19" s="30">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31">
+        <v>2</v>
+      </c>
+      <c r="E19" s="32">
         <v>1</v>
       </c>
       <c r="F19">
@@ -2404,7 +2409,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B20">
@@ -2436,7 +2441,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B21">
@@ -2468,7 +2473,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B22">
@@ -2500,7 +2505,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B23">
@@ -2532,7 +2537,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B24">
@@ -2570,13 +2575,13 @@
       <c r="B25">
         <v>33998</v>
       </c>
-      <c r="C25" s="27">
-        <v>0</v>
-      </c>
-      <c r="D25" s="28">
-        <v>1</v>
-      </c>
-      <c r="E25" s="29">
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27">
         <v>4</v>
       </c>
       <c r="F25">
@@ -2602,13 +2607,13 @@
       <c r="B26">
         <v>103728</v>
       </c>
-      <c r="C26" s="30">
-        <v>1</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-      <c r="E26" s="31">
+      <c r="C26" s="28">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
         <v>0</v>
       </c>
       <c r="F26">
@@ -2634,13 +2639,13 @@
       <c r="B27">
         <v>103729</v>
       </c>
-      <c r="C27" s="30">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22">
-        <v>0</v>
-      </c>
-      <c r="E27" s="31">
+      <c r="C27" s="28">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="29">
         <v>3</v>
       </c>
       <c r="F27">
@@ -2666,13 +2671,13 @@
       <c r="B28">
         <v>96101</v>
       </c>
-      <c r="C28" s="30">
-        <v>3</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1</v>
-      </c>
-      <c r="E28" s="31">
+      <c r="C28" s="28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29">
         <v>2</v>
       </c>
       <c r="F28">
@@ -2698,13 +2703,13 @@
       <c r="B29">
         <v>42197</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <v>4</v>
       </c>
-      <c r="D29" s="22">
-        <v>1</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="29">
         <v>1</v>
       </c>
       <c r="F29">
@@ -2730,13 +2735,13 @@
       <c r="B30">
         <v>1080</v>
       </c>
-      <c r="C30" s="30">
-        <v>2</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1</v>
-      </c>
-      <c r="E30" s="31">
+      <c r="C30" s="28">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="29">
         <v>1</v>
       </c>
       <c r="F30">
@@ -2762,13 +2767,13 @@
       <c r="B31">
         <v>41985</v>
       </c>
-      <c r="C31" s="30">
-        <v>2</v>
-      </c>
-      <c r="D31" s="22">
-        <v>1</v>
-      </c>
-      <c r="E31" s="31">
+      <c r="C31" s="28">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="29">
         <v>3</v>
       </c>
       <c r="F31">
@@ -2794,13 +2799,13 @@
       <c r="B32">
         <v>293890</v>
       </c>
-      <c r="C32" s="30">
-        <v>3</v>
-      </c>
-      <c r="D32" s="22">
-        <v>1</v>
-      </c>
-      <c r="E32" s="31">
+      <c r="C32" s="28">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
         <v>2</v>
       </c>
       <c r="F32">
@@ -2826,13 +2831,13 @@
       <c r="B33">
         <v>196587</v>
       </c>
-      <c r="C33" s="30">
-        <v>3</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1</v>
-      </c>
-      <c r="E33" s="31">
+      <c r="C33" s="28">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="29">
         <v>2</v>
       </c>
       <c r="F33">
@@ -2858,13 +2863,13 @@
       <c r="B34">
         <v>279824</v>
       </c>
-      <c r="C34" s="30">
-        <v>1</v>
-      </c>
-      <c r="D34" s="22">
-        <v>1</v>
-      </c>
-      <c r="E34" s="31">
+      <c r="C34" s="28">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="29">
         <v>2</v>
       </c>
       <c r="F34">
@@ -2890,13 +2895,13 @@
       <c r="B35">
         <v>237019</v>
       </c>
-      <c r="C35" s="30">
-        <v>3</v>
-      </c>
-      <c r="D35" s="22">
-        <v>0</v>
-      </c>
-      <c r="E35" s="31">
+      <c r="C35" s="28">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="29">
         <v>2</v>
       </c>
       <c r="F35">
@@ -2922,13 +2927,13 @@
       <c r="B36">
         <v>57028</v>
       </c>
-      <c r="C36" s="30">
-        <v>3</v>
-      </c>
-      <c r="D36" s="22">
-        <v>0</v>
-      </c>
-      <c r="E36" s="31">
+      <c r="C36" s="28">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="29">
         <v>0</v>
       </c>
       <c r="F36">
@@ -2954,13 +2959,13 @@
       <c r="B37">
         <v>291403</v>
       </c>
-      <c r="C37" s="30">
-        <v>2</v>
-      </c>
-      <c r="D37" s="22">
-        <v>2</v>
-      </c>
-      <c r="E37" s="31">
+      <c r="C37" s="28">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="29">
         <v>0</v>
       </c>
       <c r="F37">
@@ -2986,13 +2991,13 @@
       <c r="B38">
         <v>235931</v>
       </c>
-      <c r="C38" s="30">
-        <v>3</v>
-      </c>
-      <c r="D38" s="22">
-        <v>1</v>
-      </c>
-      <c r="E38" s="31">
+      <c r="C38" s="28">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="29">
         <v>2</v>
       </c>
       <c r="F38">
@@ -3018,13 +3023,13 @@
       <c r="B39">
         <v>889453</v>
       </c>
-      <c r="C39" s="30">
-        <v>3</v>
-      </c>
-      <c r="D39" s="22">
-        <v>2</v>
-      </c>
-      <c r="E39" s="31">
+      <c r="C39" s="28">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="29">
         <v>2</v>
       </c>
       <c r="F39">
@@ -3050,13 +3055,13 @@
       <c r="B40">
         <v>1120994</v>
       </c>
-      <c r="C40" s="30">
-        <v>1</v>
-      </c>
-      <c r="D40" s="22">
-        <v>0</v>
-      </c>
-      <c r="E40" s="31">
+      <c r="C40" s="28">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="29">
         <v>3</v>
       </c>
       <c r="F40">
@@ -3082,13 +3087,13 @@
       <c r="B41">
         <v>82374</v>
       </c>
-      <c r="C41" s="30">
-        <v>1</v>
-      </c>
-      <c r="D41" s="22">
-        <v>2</v>
-      </c>
-      <c r="E41" s="31">
+      <c r="C41" s="28">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="29">
         <v>0</v>
       </c>
       <c r="F41">
@@ -3114,13 +3119,13 @@
       <c r="B42">
         <v>561088</v>
       </c>
-      <c r="C42" s="30">
-        <v>3</v>
-      </c>
-      <c r="D42" s="22">
-        <v>2</v>
-      </c>
-      <c r="E42" s="31">
+      <c r="C42" s="28">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="29">
         <v>0</v>
       </c>
       <c r="F42">
@@ -3146,13 +3151,13 @@
       <c r="B43">
         <v>591202</v>
       </c>
-      <c r="C43" s="30">
-        <v>2</v>
-      </c>
-      <c r="D43" s="22">
-        <v>1</v>
-      </c>
-      <c r="E43" s="31">
+      <c r="C43" s="28">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="29">
         <v>3</v>
       </c>
       <c r="F43">
@@ -3178,13 +3183,13 @@
       <c r="B44">
         <v>440515</v>
       </c>
-      <c r="C44" s="30">
-        <v>2</v>
-      </c>
-      <c r="D44" s="22">
-        <v>0</v>
-      </c>
-      <c r="E44" s="31">
+      <c r="C44" s="28">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29">
         <v>2</v>
       </c>
       <c r="F44">
@@ -3210,13 +3215,13 @@
       <c r="B45">
         <v>188872</v>
       </c>
-      <c r="C45" s="30">
-        <v>1</v>
-      </c>
-      <c r="D45" s="22">
-        <v>2</v>
-      </c>
-      <c r="E45" s="31">
+      <c r="C45" s="28">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="29">
         <v>1</v>
       </c>
       <c r="F45">
@@ -3242,13 +3247,13 @@
       <c r="B46">
         <v>375061</v>
       </c>
-      <c r="C46" s="30">
-        <v>0</v>
-      </c>
-      <c r="D46" s="22">
-        <v>1</v>
-      </c>
-      <c r="E46" s="31">
+      <c r="C46" s="28">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="29">
         <v>0</v>
       </c>
       <c r="F46">
@@ -3268,19 +3273,19 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="34" t="s">
         <v>358</v>
       </c>
       <c r="B47">
         <v>394340</v>
       </c>
-      <c r="C47" s="30">
-        <v>3</v>
-      </c>
-      <c r="D47" s="22">
-        <v>0</v>
-      </c>
-      <c r="E47" s="31">
+      <c r="C47" s="28">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="29">
         <v>2</v>
       </c>
       <c r="F47">
@@ -3306,13 +3311,13 @@
       <c r="B48">
         <v>180295</v>
       </c>
-      <c r="C48" s="30">
-        <v>2</v>
-      </c>
-      <c r="D48" s="22">
-        <v>3</v>
-      </c>
-      <c r="E48" s="31">
+      <c r="C48" s="28">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="29">
         <v>3</v>
       </c>
       <c r="F48">
@@ -3338,13 +3343,13 @@
       <c r="B49">
         <v>370622</v>
       </c>
-      <c r="C49" s="30">
-        <v>0</v>
-      </c>
-      <c r="D49" s="22">
+      <c r="C49" s="28">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="29">
         <v>0</v>
       </c>
       <c r="F49">
@@ -3370,13 +3375,13 @@
       <c r="B50">
         <v>41977</v>
       </c>
-      <c r="C50" s="30">
-        <v>0</v>
-      </c>
-      <c r="D50" s="22">
-        <v>2</v>
-      </c>
-      <c r="E50" s="31">
+      <c r="C50" s="28">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="29">
         <v>0</v>
       </c>
       <c r="F50">
@@ -3402,13 +3407,13 @@
       <c r="B51">
         <v>116849</v>
       </c>
-      <c r="C51" s="30">
-        <v>1</v>
-      </c>
-      <c r="D51" s="22">
-        <v>2</v>
-      </c>
-      <c r="E51" s="31">
+      <c r="C51" s="28">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" s="29">
         <v>2</v>
       </c>
       <c r="F51">
@@ -3434,13 +3439,13 @@
       <c r="B52">
         <v>170623</v>
       </c>
-      <c r="C52" s="30">
-        <v>3</v>
-      </c>
-      <c r="D52" s="22">
-        <v>0</v>
-      </c>
-      <c r="E52" s="31">
+      <c r="C52" s="28">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="29">
         <v>2</v>
       </c>
       <c r="F52">
@@ -3466,13 +3471,13 @@
       <c r="B53">
         <v>454048</v>
       </c>
-      <c r="C53" s="30">
-        <v>3</v>
-      </c>
-      <c r="D53" s="22">
-        <v>1</v>
-      </c>
-      <c r="E53" s="31">
+      <c r="C53" s="28">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="29">
         <v>2</v>
       </c>
       <c r="F53">
@@ -3498,13 +3503,13 @@
       <c r="B54">
         <v>53254</v>
       </c>
-      <c r="C54" s="30">
-        <v>1</v>
-      </c>
-      <c r="D54" s="22">
-        <v>1</v>
-      </c>
-      <c r="E54" s="31">
+      <c r="C54" s="28">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="29">
         <v>0</v>
       </c>
       <c r="F54">
@@ -3530,13 +3535,13 @@
       <c r="B55">
         <v>71656</v>
       </c>
-      <c r="C55" s="30">
-        <v>2</v>
-      </c>
-      <c r="D55" s="22">
-        <v>2</v>
-      </c>
-      <c r="E55" s="31">
+      <c r="C55" s="28">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="29">
         <v>1</v>
       </c>
       <c r="F55">
@@ -3562,13 +3567,13 @@
       <c r="B56">
         <v>55210</v>
       </c>
-      <c r="C56" s="30">
-        <v>2</v>
-      </c>
-      <c r="D56" s="22">
-        <v>3</v>
-      </c>
-      <c r="E56" s="31">
+      <c r="C56" s="28">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" s="29">
         <v>3</v>
       </c>
       <c r="F56">
@@ -3594,13 +3599,13 @@
       <c r="B57">
         <v>509094</v>
       </c>
-      <c r="C57" s="30">
-        <v>1</v>
-      </c>
-      <c r="D57" s="22">
-        <v>0</v>
-      </c>
-      <c r="E57" s="31">
+      <c r="C57" s="28">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29">
         <v>2</v>
       </c>
       <c r="F57">
@@ -3626,13 +3631,13 @@
       <c r="B58">
         <v>575302</v>
       </c>
-      <c r="C58" s="30">
-        <v>1</v>
-      </c>
-      <c r="D58" s="22">
-        <v>0</v>
-      </c>
-      <c r="E58" s="31">
+      <c r="C58" s="28">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29">
         <v>1</v>
       </c>
       <c r="F58">
@@ -3658,13 +3663,13 @@
       <c r="B59">
         <v>367474</v>
       </c>
-      <c r="C59" s="30">
-        <v>2</v>
-      </c>
-      <c r="D59" s="22">
-        <v>0</v>
-      </c>
-      <c r="E59" s="31">
+      <c r="C59" s="28">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="29">
         <v>0</v>
       </c>
       <c r="F59">
@@ -3690,13 +3695,13 @@
       <c r="B60">
         <v>456330</v>
       </c>
-      <c r="C60" s="30">
-        <v>3</v>
-      </c>
-      <c r="D60" s="22">
-        <v>3</v>
-      </c>
-      <c r="E60" s="31">
+      <c r="C60" s="28">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" s="29">
         <v>1</v>
       </c>
       <c r="F60">
@@ -3722,13 +3727,13 @@
       <c r="B61">
         <v>53342</v>
       </c>
-      <c r="C61" s="30">
-        <v>2</v>
-      </c>
-      <c r="D61" s="22">
-        <v>1</v>
-      </c>
-      <c r="E61" s="31">
+      <c r="C61" s="28">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="29">
         <v>0</v>
       </c>
       <c r="F61">
@@ -3754,13 +3759,13 @@
       <c r="B62">
         <v>28898</v>
       </c>
-      <c r="C62" s="30">
-        <v>0</v>
-      </c>
-      <c r="D62" s="22">
-        <v>3</v>
-      </c>
-      <c r="E62" s="31">
+      <c r="C62" s="28">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" s="29">
         <v>0</v>
       </c>
       <c r="F62">
@@ -3786,13 +3791,13 @@
       <c r="B63">
         <v>576117</v>
       </c>
-      <c r="C63" s="30">
-        <v>2</v>
-      </c>
-      <c r="D63" s="22">
-        <v>3</v>
-      </c>
-      <c r="E63" s="31">
+      <c r="C63" s="28">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" s="29">
         <v>4</v>
       </c>
       <c r="F63">
@@ -3818,13 +3823,13 @@
       <c r="B64">
         <v>76595</v>
       </c>
-      <c r="C64" s="30">
-        <v>2</v>
-      </c>
-      <c r="D64" s="22">
-        <v>3</v>
-      </c>
-      <c r="E64" s="31">
+      <c r="C64" s="28">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" s="29">
         <v>3</v>
       </c>
       <c r="F64">
@@ -3850,13 +3855,13 @@
       <c r="B65">
         <v>504486</v>
       </c>
-      <c r="C65" s="30">
-        <v>3</v>
-      </c>
-      <c r="D65" s="22">
-        <v>2</v>
-      </c>
-      <c r="E65" s="31">
+      <c r="C65" s="28">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="29">
         <v>2</v>
       </c>
       <c r="F65">
@@ -3882,13 +3887,13 @@
       <c r="B66">
         <v>180163</v>
       </c>
-      <c r="C66" s="30">
-        <v>1</v>
-      </c>
-      <c r="D66" s="22">
-        <v>0</v>
-      </c>
-      <c r="E66" s="31">
+      <c r="C66" s="28">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="29">
         <v>0</v>
       </c>
       <c r="F66">
@@ -3914,13 +3919,13 @@
       <c r="B67">
         <v>393003</v>
       </c>
-      <c r="C67" s="30">
-        <v>1</v>
-      </c>
-      <c r="D67" s="22">
-        <v>2</v>
-      </c>
-      <c r="E67" s="31">
+      <c r="C67" s="28">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="29">
         <v>3</v>
       </c>
       <c r="F67">
@@ -3946,13 +3951,13 @@
       <c r="B68">
         <v>104662</v>
       </c>
-      <c r="C68" s="30">
-        <v>0</v>
-      </c>
-      <c r="D68" s="22">
-        <v>2</v>
-      </c>
-      <c r="E68" s="31">
+      <c r="C68" s="28">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" s="29">
         <v>1</v>
       </c>
       <c r="F68">
@@ -3978,13 +3983,13 @@
       <c r="B69">
         <v>1004</v>
       </c>
-      <c r="C69" s="30">
-        <v>1</v>
-      </c>
-      <c r="D69" s="22">
-        <v>3</v>
-      </c>
-      <c r="E69" s="31">
+      <c r="C69" s="28">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" s="29">
         <v>2</v>
       </c>
       <c r="F69">
@@ -4010,13 +4015,13 @@
       <c r="B70">
         <v>331697</v>
       </c>
-      <c r="C70" s="30">
-        <v>2</v>
-      </c>
-      <c r="D70" s="22">
-        <v>1</v>
-      </c>
-      <c r="E70" s="31">
+      <c r="C70" s="28">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="29">
         <v>1</v>
       </c>
       <c r="F70">
@@ -4042,13 +4047,13 @@
       <c r="B71">
         <v>421530</v>
       </c>
-      <c r="C71" s="30">
-        <v>2</v>
-      </c>
-      <c r="D71" s="22">
-        <v>0</v>
-      </c>
-      <c r="E71" s="31">
+      <c r="C71" s="28">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="29">
         <v>3</v>
       </c>
       <c r="F71">
@@ -4074,13 +4079,13 @@
       <c r="B72">
         <v>1278652</v>
       </c>
-      <c r="C72" s="30">
-        <v>0</v>
-      </c>
-      <c r="D72" s="22">
-        <v>0</v>
-      </c>
-      <c r="E72" s="31">
+      <c r="C72" s="28">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29">
         <v>0</v>
       </c>
       <c r="F72">
@@ -4106,13 +4111,13 @@
       <c r="B73">
         <v>91624</v>
       </c>
-      <c r="C73" s="30">
-        <v>1</v>
-      </c>
-      <c r="D73" s="22">
-        <v>0</v>
-      </c>
-      <c r="E73" s="31">
+      <c r="C73" s="28">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="29">
         <v>0</v>
       </c>
       <c r="F73">
@@ -4138,13 +4143,13 @@
       <c r="B74">
         <v>349931</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C74" s="28">
         <v>4</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74">
         <v>4</v>
       </c>
-      <c r="E74" s="31">
+      <c r="E74" s="29">
         <v>3</v>
       </c>
       <c r="F74">
@@ -4170,13 +4175,13 @@
       <c r="B75">
         <v>29357</v>
       </c>
-      <c r="C75" s="30">
-        <v>0</v>
-      </c>
-      <c r="D75" s="22">
-        <v>1</v>
-      </c>
-      <c r="E75" s="31">
+      <c r="C75" s="28">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="29">
         <v>3</v>
       </c>
       <c r="F75">
@@ -4202,13 +4207,13 @@
       <c r="B76">
         <v>36845</v>
       </c>
-      <c r="C76" s="30">
-        <v>3</v>
-      </c>
-      <c r="D76" s="22">
-        <v>3</v>
-      </c>
-      <c r="E76" s="31">
+      <c r="C76" s="28">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" s="29">
         <v>2</v>
       </c>
       <c r="F76">
@@ -4234,13 +4239,13 @@
       <c r="B77">
         <v>259063</v>
       </c>
-      <c r="C77" s="30">
-        <v>2</v>
-      </c>
-      <c r="D77" s="22">
-        <v>1</v>
-      </c>
-      <c r="E77" s="31">
+      <c r="C77" s="28">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="29">
         <v>1</v>
       </c>
       <c r="F77">
@@ -4266,13 +4271,13 @@
       <c r="B78">
         <v>1557</v>
       </c>
-      <c r="C78" s="30">
-        <v>2</v>
-      </c>
-      <c r="D78" s="22">
-        <v>1</v>
-      </c>
-      <c r="E78" s="31">
+      <c r="C78" s="28">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="29">
         <v>2</v>
       </c>
       <c r="F78">
@@ -4298,13 +4303,13 @@
       <c r="B79">
         <v>33954</v>
       </c>
-      <c r="C79" s="30">
-        <v>2</v>
-      </c>
-      <c r="D79" s="22">
-        <v>1</v>
-      </c>
-      <c r="E79" s="31">
+      <c r="C79" s="28">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="29">
         <v>2</v>
       </c>
       <c r="F79">
@@ -4330,13 +4335,13 @@
       <c r="B80">
         <v>29365</v>
       </c>
-      <c r="C80" s="30">
-        <v>0</v>
-      </c>
-      <c r="D80" s="22">
-        <v>1</v>
-      </c>
-      <c r="E80" s="31">
+      <c r="C80" s="28">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="29">
         <v>3</v>
       </c>
       <c r="F80">
@@ -4362,13 +4367,13 @@
       <c r="B81">
         <v>100134</v>
       </c>
-      <c r="C81" s="30">
-        <v>3</v>
-      </c>
-      <c r="D81" s="22">
-        <v>0</v>
-      </c>
-      <c r="E81" s="31">
+      <c r="C81" s="28">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="29">
         <v>1</v>
       </c>
       <c r="F81">
@@ -4394,13 +4399,13 @@
       <c r="B82">
         <v>108437</v>
       </c>
-      <c r="C82" s="30">
-        <v>3</v>
-      </c>
-      <c r="D82" s="22">
-        <v>1</v>
-      </c>
-      <c r="E82" s="31">
+      <c r="C82" s="28">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="29">
         <v>2</v>
       </c>
       <c r="F82">
@@ -4426,13 +4431,13 @@
       <c r="B83">
         <v>990</v>
       </c>
-      <c r="C83" s="30">
-        <v>0</v>
-      </c>
-      <c r="D83" s="22">
-        <v>3</v>
-      </c>
-      <c r="E83" s="31">
+      <c r="C83" s="28">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" s="29">
         <v>1</v>
       </c>
       <c r="F83">
@@ -4458,13 +4463,13 @@
       <c r="B84">
         <v>109258</v>
       </c>
-      <c r="C84" s="30">
-        <v>0</v>
-      </c>
-      <c r="D84" s="22">
-        <v>0</v>
-      </c>
-      <c r="E84" s="31">
+      <c r="C84" s="28">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="29">
         <v>2</v>
       </c>
       <c r="F84">
@@ -4490,13 +4495,13 @@
       <c r="B85">
         <v>35837</v>
       </c>
-      <c r="C85" s="30">
-        <v>3</v>
-      </c>
-      <c r="D85" s="22">
-        <v>0</v>
-      </c>
-      <c r="E85" s="31">
+      <c r="C85" s="28">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="29">
         <v>2</v>
       </c>
       <c r="F85">
@@ -4522,13 +4527,13 @@
       <c r="B86">
         <v>51616</v>
       </c>
-      <c r="C86" s="30">
-        <v>3</v>
-      </c>
-      <c r="D86" s="22">
-        <v>2</v>
-      </c>
-      <c r="E86" s="31">
+      <c r="C86" s="28">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" s="29">
         <v>2</v>
       </c>
       <c r="F86">
@@ -4554,13 +4559,13 @@
       <c r="B87">
         <v>888</v>
       </c>
-      <c r="C87" s="30">
-        <v>1</v>
-      </c>
-      <c r="D87" s="22">
-        <v>2</v>
-      </c>
-      <c r="E87" s="31">
+      <c r="C87" s="28">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" s="29">
         <v>0</v>
       </c>
       <c r="F87">
@@ -4586,13 +4591,13 @@
       <c r="B88">
         <v>897</v>
       </c>
-      <c r="C88" s="30">
-        <v>3</v>
-      </c>
-      <c r="D88" s="22">
-        <v>1</v>
-      </c>
-      <c r="E88" s="31">
+      <c r="C88" s="28">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="29">
         <v>2</v>
       </c>
       <c r="F88">
@@ -4618,13 +4623,13 @@
       <c r="B89">
         <v>51195</v>
       </c>
-      <c r="C89" s="30">
-        <v>3</v>
-      </c>
-      <c r="D89" s="22">
-        <v>1</v>
-      </c>
-      <c r="E89" s="31">
+      <c r="C89" s="28">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="29">
         <v>3</v>
       </c>
       <c r="F89">
@@ -4650,13 +4655,13 @@
       <c r="B90">
         <v>380392</v>
       </c>
-      <c r="C90" s="30">
-        <v>0</v>
-      </c>
-      <c r="D90" s="22">
-        <v>2</v>
-      </c>
-      <c r="E90" s="31">
+      <c r="C90" s="28">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" s="29">
         <v>0</v>
       </c>
       <c r="F90">
@@ -4682,13 +4687,13 @@
       <c r="B91">
         <v>231440</v>
       </c>
-      <c r="C91" s="30">
-        <v>2</v>
-      </c>
-      <c r="D91" s="22">
-        <v>2</v>
-      </c>
-      <c r="E91" s="31">
+      <c r="C91" s="28">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" s="29">
         <v>1</v>
       </c>
       <c r="F91">
@@ -4714,13 +4719,13 @@
       <c r="B92">
         <v>91360</v>
       </c>
-      <c r="C92" s="30">
-        <v>3</v>
-      </c>
-      <c r="D92" s="22">
-        <v>3</v>
-      </c>
-      <c r="E92" s="31">
+      <c r="C92" s="28">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" s="29">
         <v>0</v>
       </c>
       <c r="F92">
@@ -4746,13 +4751,13 @@
       <c r="B93">
         <v>329936</v>
       </c>
-      <c r="C93" s="30">
-        <v>3</v>
-      </c>
-      <c r="D93" s="22">
-        <v>0</v>
-      </c>
-      <c r="E93" s="31">
+      <c r="C93" s="28">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="29">
         <v>0</v>
       </c>
       <c r="F93">
@@ -4778,13 +4783,13 @@
       <c r="B94">
         <v>53343</v>
       </c>
-      <c r="C94" s="30">
-        <v>0</v>
-      </c>
-      <c r="D94" s="22">
-        <v>2</v>
-      </c>
-      <c r="E94" s="31">
+      <c r="C94" s="28">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" s="29">
         <v>2</v>
       </c>
       <c r="F94">
@@ -4810,13 +4815,13 @@
       <c r="B95">
         <v>1566</v>
       </c>
-      <c r="C95" s="30">
-        <v>1</v>
-      </c>
-      <c r="D95" s="22">
-        <v>0</v>
-      </c>
-      <c r="E95" s="31">
+      <c r="C95" s="28">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="29">
         <v>0</v>
       </c>
       <c r="F95">
@@ -4842,13 +4847,13 @@
       <c r="B96">
         <v>74701</v>
       </c>
-      <c r="C96" s="30">
-        <v>3</v>
-      </c>
-      <c r="D96" s="22">
-        <v>1</v>
-      </c>
-      <c r="E96" s="31">
+      <c r="C96" s="28">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="29">
         <v>1</v>
       </c>
       <c r="F96">
@@ -4874,13 +4879,13 @@
       <c r="B97">
         <v>348840</v>
       </c>
-      <c r="C97" s="30">
-        <v>1</v>
-      </c>
-      <c r="D97" s="22">
-        <v>0</v>
-      </c>
-      <c r="E97" s="31">
+      <c r="C97" s="28">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="29">
         <v>2</v>
       </c>
       <c r="F97">
@@ -4906,13 +4911,13 @@
       <c r="B98">
         <v>876</v>
       </c>
-      <c r="C98" s="30">
-        <v>0</v>
-      </c>
-      <c r="D98" s="22">
-        <v>2</v>
-      </c>
-      <c r="E98" s="31">
+      <c r="C98" s="28">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" s="29">
         <v>2</v>
       </c>
       <c r="F98">
@@ -4938,13 +4943,13 @@
       <c r="B99">
         <v>47158</v>
       </c>
-      <c r="C99" s="30">
-        <v>2</v>
-      </c>
-      <c r="D99" s="22">
-        <v>2</v>
-      </c>
-      <c r="E99" s="31">
+      <c r="C99" s="28">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" s="29">
         <v>1</v>
       </c>
       <c r="F99">
@@ -4970,13 +4975,13 @@
       <c r="B100">
         <v>45629</v>
       </c>
-      <c r="C100" s="30">
-        <v>3</v>
-      </c>
-      <c r="D100" s="22">
-        <v>0</v>
-      </c>
-      <c r="E100" s="31">
+      <c r="C100" s="28">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" s="29">
         <v>1</v>
       </c>
       <c r="F100">
@@ -5002,13 +5007,13 @@
       <c r="B101">
         <v>575978</v>
       </c>
-      <c r="C101" s="30">
-        <v>0</v>
-      </c>
-      <c r="D101" s="22">
-        <v>2</v>
-      </c>
-      <c r="E101" s="31">
+      <c r="C101" s="28">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" s="29">
         <v>0</v>
       </c>
       <c r="F101">
@@ -5034,13 +5039,13 @@
       <c r="B102">
         <v>466107</v>
       </c>
-      <c r="C102" s="30">
-        <v>2</v>
-      </c>
-      <c r="D102" s="22">
-        <v>0</v>
-      </c>
-      <c r="E102" s="31">
+      <c r="C102" s="28">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" s="29">
         <v>1</v>
       </c>
       <c r="F102">
@@ -5066,13 +5071,13 @@
       <c r="B103">
         <v>458711</v>
       </c>
-      <c r="C103" s="30">
-        <v>2</v>
-      </c>
-      <c r="D103" s="22">
-        <v>0</v>
-      </c>
-      <c r="E103" s="31">
+      <c r="C103" s="28">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" s="29">
         <v>2</v>
       </c>
       <c r="F103">
@@ -5098,13 +5103,13 @@
       <c r="B104">
         <v>299072</v>
       </c>
-      <c r="C104" s="30">
-        <v>0</v>
-      </c>
-      <c r="D104" s="22">
-        <v>1</v>
-      </c>
-      <c r="E104" s="31">
+      <c r="C104" s="28">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" s="29">
         <v>0</v>
       </c>
       <c r="F104">
@@ -5130,13 +5135,13 @@
       <c r="B105">
         <v>76007</v>
       </c>
-      <c r="C105" s="30">
-        <v>3</v>
-      </c>
-      <c r="D105" s="22">
-        <v>2</v>
-      </c>
-      <c r="E105" s="31">
+      <c r="C105" s="28">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" s="29">
         <v>2</v>
       </c>
       <c r="F105">
@@ -5162,13 +5167,13 @@
       <c r="B106">
         <v>332095</v>
       </c>
-      <c r="C106" s="30">
-        <v>3</v>
-      </c>
-      <c r="D106" s="22">
-        <v>0</v>
-      </c>
-      <c r="E106" s="31">
+      <c r="C106" s="28">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" s="29">
         <v>0</v>
       </c>
       <c r="F106">
@@ -5194,13 +5199,13 @@
       <c r="B107">
         <v>288995</v>
       </c>
-      <c r="C107" s="30">
-        <v>1</v>
-      </c>
-      <c r="D107" s="22">
-        <v>0</v>
-      </c>
-      <c r="E107" s="31">
+      <c r="C107" s="28">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" s="29">
         <v>4</v>
       </c>
       <c r="F107">
@@ -5226,13 +5231,13 @@
       <c r="B108">
         <v>1294566</v>
       </c>
-      <c r="C108" s="30">
-        <v>1</v>
-      </c>
-      <c r="D108" s="22">
-        <v>1</v>
-      </c>
-      <c r="E108" s="31">
+      <c r="C108" s="28">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="29">
         <v>1</v>
       </c>
       <c r="F108">
@@ -5258,13 +5263,13 @@
       <c r="B109">
         <v>292407</v>
       </c>
-      <c r="C109" s="30">
-        <v>3</v>
-      </c>
-      <c r="D109" s="22">
-        <v>0</v>
-      </c>
-      <c r="E109" s="31">
+      <c r="C109" s="28">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" s="29">
         <v>0</v>
       </c>
       <c r="F109">
@@ -5290,13 +5295,13 @@
       <c r="B110">
         <v>363850</v>
       </c>
-      <c r="C110" s="30">
-        <v>2</v>
-      </c>
-      <c r="D110" s="22">
-        <v>0</v>
-      </c>
-      <c r="E110" s="31">
+      <c r="C110" s="28">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" s="29">
         <v>1</v>
       </c>
       <c r="F110">
@@ -5322,13 +5327,13 @@
       <c r="B111">
         <v>651661</v>
       </c>
-      <c r="C111" s="30">
-        <v>1</v>
-      </c>
-      <c r="D111" s="22">
-        <v>1</v>
-      </c>
-      <c r="E111" s="31">
+      <c r="C111" s="28">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" s="29">
         <v>0</v>
       </c>
       <c r="F111">
@@ -5354,13 +5359,13 @@
       <c r="B112">
         <v>172045</v>
       </c>
-      <c r="C112" s="30">
-        <v>1</v>
-      </c>
-      <c r="D112" s="22">
-        <v>0</v>
-      </c>
-      <c r="E112" s="31">
+      <c r="C112" s="28">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" s="29">
         <v>0</v>
       </c>
       <c r="F112">
@@ -5386,13 +5391,13 @@
       <c r="B113">
         <v>504469</v>
       </c>
-      <c r="C113" s="30">
-        <v>2</v>
-      </c>
-      <c r="D113" s="22">
-        <v>3</v>
-      </c>
-      <c r="E113" s="31">
+      <c r="C113" s="28">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" s="29">
         <v>0</v>
       </c>
       <c r="F113">
@@ -5418,13 +5423,13 @@
       <c r="B114">
         <v>65700</v>
       </c>
-      <c r="C114" s="30">
-        <v>2</v>
-      </c>
-      <c r="D114" s="22">
-        <v>3</v>
-      </c>
-      <c r="E114" s="31">
+      <c r="C114" s="28">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" s="29">
         <v>0</v>
       </c>
       <c r="F114">
@@ -5450,13 +5455,13 @@
       <c r="B115">
         <v>42322</v>
       </c>
-      <c r="C115" s="30">
-        <v>2</v>
-      </c>
-      <c r="D115" s="22">
-        <v>2</v>
-      </c>
-      <c r="E115" s="31">
+      <c r="C115" s="28">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" s="29">
         <v>2</v>
       </c>
       <c r="F115">
@@ -5482,13 +5487,13 @@
       <c r="B116">
         <v>44754</v>
       </c>
-      <c r="C116" s="30">
-        <v>0</v>
-      </c>
-      <c r="D116" s="22">
-        <v>3</v>
-      </c>
-      <c r="E116" s="31">
+      <c r="C116" s="28">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" s="29">
         <v>1</v>
       </c>
       <c r="F116">
@@ -5514,13 +5519,13 @@
       <c r="B117">
         <v>28122</v>
       </c>
-      <c r="C117" s="30">
-        <v>3</v>
-      </c>
-      <c r="D117" s="22">
-        <v>1</v>
-      </c>
-      <c r="E117" s="31">
+      <c r="C117" s="28">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="29">
         <v>0</v>
       </c>
       <c r="F117">
@@ -5546,13 +5551,13 @@
       <c r="B118">
         <v>428988</v>
       </c>
-      <c r="C118" s="30">
-        <v>3</v>
-      </c>
-      <c r="D118" s="22">
-        <v>3</v>
-      </c>
-      <c r="E118" s="31">
+      <c r="C118" s="28">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" s="29">
         <v>2</v>
       </c>
       <c r="F118">
@@ -5578,13 +5583,13 @@
       <c r="B119">
         <v>654838</v>
       </c>
-      <c r="C119" s="30">
-        <v>2</v>
-      </c>
-      <c r="D119" s="22">
-        <v>3</v>
-      </c>
-      <c r="E119" s="31">
+      <c r="C119" s="28">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119" s="29">
         <v>0</v>
       </c>
       <c r="F119">
@@ -5610,13 +5615,13 @@
       <c r="B120">
         <v>49280</v>
       </c>
-      <c r="C120" s="30">
-        <v>2</v>
-      </c>
-      <c r="D120" s="22">
-        <v>3</v>
-      </c>
-      <c r="E120" s="31">
+      <c r="C120" s="28">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" s="29">
         <v>1</v>
       </c>
       <c r="F120">
@@ -5642,13 +5647,13 @@
       <c r="B121">
         <v>745368</v>
       </c>
-      <c r="C121" s="30">
-        <v>1</v>
-      </c>
-      <c r="D121" s="22">
-        <v>1</v>
-      </c>
-      <c r="E121" s="31">
+      <c r="C121" s="28">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="29">
         <v>2</v>
       </c>
       <c r="F121">
@@ -5674,13 +5679,13 @@
       <c r="B122">
         <v>402884</v>
       </c>
-      <c r="C122" s="30">
-        <v>1</v>
-      </c>
-      <c r="D122" s="22">
-        <v>3</v>
-      </c>
-      <c r="E122" s="31">
+      <c r="C122" s="28">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" s="29">
         <v>2</v>
       </c>
       <c r="F122">
@@ -5706,13 +5711,13 @@
       <c r="B123">
         <v>115783</v>
       </c>
-      <c r="C123" s="30">
-        <v>2</v>
-      </c>
-      <c r="D123" s="22">
-        <v>2</v>
-      </c>
-      <c r="E123" s="31">
+      <c r="C123" s="28">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" s="29">
         <v>0</v>
       </c>
       <c r="F123">
@@ -5738,13 +5743,13 @@
       <c r="B124">
         <v>390806</v>
       </c>
-      <c r="C124" s="30">
-        <v>3</v>
-      </c>
-      <c r="D124" s="22">
-        <v>0</v>
-      </c>
-      <c r="E124" s="31">
+      <c r="C124" s="28">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" s="29">
         <v>0</v>
       </c>
       <c r="F124">
@@ -5770,13 +5775,13 @@
       <c r="B125">
         <v>334858</v>
       </c>
-      <c r="C125" s="30">
-        <v>1</v>
-      </c>
-      <c r="D125" s="22">
-        <v>3</v>
-      </c>
-      <c r="E125" s="31">
+      <c r="C125" s="28">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125" s="29">
         <v>1</v>
       </c>
       <c r="F125">
@@ -5802,13 +5807,13 @@
       <c r="B126">
         <v>2242</v>
       </c>
-      <c r="C126" s="30">
-        <v>1</v>
-      </c>
-      <c r="D126" s="22">
-        <v>2</v>
-      </c>
-      <c r="E126" s="31">
+      <c r="C126" s="28">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" s="29">
         <v>3</v>
       </c>
       <c r="F126">
@@ -5834,13 +5839,13 @@
       <c r="B127">
         <v>480814</v>
       </c>
-      <c r="C127" s="30">
-        <v>2</v>
-      </c>
-      <c r="D127" s="22">
-        <v>1</v>
-      </c>
-      <c r="E127" s="31">
+      <c r="C127" s="28">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" s="29">
         <v>3</v>
       </c>
       <c r="F127">
@@ -5866,13 +5871,13 @@
       <c r="B128">
         <v>180311</v>
       </c>
-      <c r="C128" s="30">
-        <v>3</v>
-      </c>
-      <c r="D128" s="22">
-        <v>1</v>
-      </c>
-      <c r="E128" s="31">
+      <c r="C128" s="28">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="29">
         <v>1</v>
       </c>
       <c r="F128">
@@ -5898,13 +5903,13 @@
       <c r="B129">
         <v>568105</v>
       </c>
-      <c r="C129" s="30">
+      <c r="C129" s="28">
         <v>4</v>
       </c>
-      <c r="D129" s="22">
-        <v>0</v>
-      </c>
-      <c r="E129" s="31">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" s="29">
         <v>3</v>
       </c>
       <c r="F129">
@@ -5930,13 +5935,13 @@
       <c r="B130">
         <v>496053</v>
       </c>
-      <c r="C130" s="30">
-        <v>0</v>
-      </c>
-      <c r="D130" s="22">
-        <v>2</v>
-      </c>
-      <c r="E130" s="31">
+      <c r="C130" s="28">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" s="29">
         <v>3</v>
       </c>
       <c r="F130">
@@ -5962,13 +5967,13 @@
       <c r="B131">
         <v>344998</v>
       </c>
-      <c r="C131" s="30">
-        <v>3</v>
-      </c>
-      <c r="D131" s="22">
-        <v>0</v>
-      </c>
-      <c r="E131" s="31">
+      <c r="C131" s="28">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" s="29">
         <v>2</v>
       </c>
       <c r="F131">
@@ -5994,13 +5999,13 @@
       <c r="B132">
         <v>446684</v>
       </c>
-      <c r="C132" s="30">
-        <v>1</v>
-      </c>
-      <c r="D132" s="22">
-        <v>0</v>
-      </c>
-      <c r="E132" s="31">
+      <c r="C132" s="28">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" s="29">
         <v>1</v>
       </c>
       <c r="F132">
@@ -6026,13 +6031,13 @@
       <c r="B133">
         <v>265175</v>
       </c>
-      <c r="C133" s="30">
-        <v>2</v>
-      </c>
-      <c r="D133" s="22">
-        <v>2</v>
-      </c>
-      <c r="E133" s="31">
+      <c r="C133" s="28">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" s="29">
         <v>1</v>
       </c>
       <c r="F133">
@@ -6058,13 +6063,13 @@
       <c r="B134">
         <v>53444</v>
       </c>
-      <c r="C134" s="30">
-        <v>2</v>
-      </c>
-      <c r="D134" s="22">
+      <c r="C134" s="28">
+        <v>2</v>
+      </c>
+      <c r="D134">
         <v>4</v>
       </c>
-      <c r="E134" s="31">
+      <c r="E134" s="29">
         <v>3</v>
       </c>
       <c r="F134">
@@ -6090,13 +6095,13 @@
       <c r="B135">
         <v>82688</v>
       </c>
-      <c r="C135" s="30">
-        <v>2</v>
-      </c>
-      <c r="D135" s="22">
-        <v>3</v>
-      </c>
-      <c r="E135" s="31">
+      <c r="C135" s="28">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" s="29">
         <v>3</v>
       </c>
       <c r="F135">
@@ -6122,13 +6127,13 @@
       <c r="B136">
         <v>83526</v>
       </c>
-      <c r="C136" s="30">
-        <v>2</v>
-      </c>
-      <c r="D136" s="22">
-        <v>2</v>
-      </c>
-      <c r="E136" s="31">
+      <c r="C136" s="28">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136" s="29">
         <v>2</v>
       </c>
       <c r="F136">
@@ -6154,13 +6159,13 @@
       <c r="B137">
         <v>643671</v>
       </c>
-      <c r="C137" s="30">
-        <v>0</v>
-      </c>
-      <c r="D137" s="22">
-        <v>3</v>
-      </c>
-      <c r="E137" s="31">
+      <c r="C137" s="28">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137" s="29">
         <v>2</v>
       </c>
       <c r="F137">
@@ -6186,13 +6191,13 @@
       <c r="B138">
         <v>988</v>
       </c>
-      <c r="C138" s="30">
-        <v>3</v>
-      </c>
-      <c r="D138" s="22">
-        <v>1</v>
-      </c>
-      <c r="E138" s="31">
+      <c r="C138" s="28">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" s="29">
         <v>1</v>
       </c>
       <c r="F138">
@@ -6218,13 +6223,13 @@
       <c r="B139">
         <v>1150508</v>
       </c>
-      <c r="C139" s="30">
-        <v>1</v>
-      </c>
-      <c r="D139" s="22">
-        <v>2</v>
-      </c>
-      <c r="E139" s="31">
+      <c r="C139" s="28">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" s="29">
         <v>3</v>
       </c>
       <c r="F139">
@@ -6250,13 +6255,13 @@
       <c r="B140">
         <v>40571</v>
       </c>
-      <c r="C140" s="30">
-        <v>2</v>
-      </c>
-      <c r="D140" s="22">
-        <v>3</v>
-      </c>
-      <c r="E140" s="31">
+      <c r="C140" s="28">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" s="29">
         <v>0</v>
       </c>
       <c r="F140">
@@ -6282,13 +6287,13 @@
       <c r="B141">
         <v>438851</v>
       </c>
-      <c r="C141" s="30">
-        <v>2</v>
-      </c>
-      <c r="D141" s="22">
-        <v>3</v>
-      </c>
-      <c r="E141" s="31">
+      <c r="C141" s="28">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141" s="29">
         <v>2</v>
       </c>
       <c r="F141">
@@ -6314,13 +6319,13 @@
       <c r="B142">
         <v>262325</v>
       </c>
-      <c r="C142" s="30">
-        <v>3</v>
-      </c>
-      <c r="D142" s="22">
-        <v>3</v>
-      </c>
-      <c r="E142" s="31">
+      <c r="C142" s="28">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142" s="29">
         <v>0</v>
       </c>
       <c r="F142">
@@ -6346,13 +6351,13 @@
       <c r="B143">
         <v>435289</v>
       </c>
-      <c r="C143" s="30">
-        <v>1</v>
-      </c>
-      <c r="D143" s="22">
-        <v>3</v>
-      </c>
-      <c r="E143" s="31">
+      <c r="C143" s="28">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" s="29">
         <v>2</v>
       </c>
       <c r="F143">
@@ -6378,13 +6383,13 @@
       <c r="B144">
         <v>57040</v>
       </c>
-      <c r="C144" s="30">
-        <v>3</v>
-      </c>
-      <c r="D144" s="22">
-        <v>0</v>
-      </c>
-      <c r="E144" s="31">
+      <c r="C144" s="28">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" s="29">
         <v>1</v>
       </c>
       <c r="F144">
@@ -6410,13 +6415,13 @@
       <c r="B145">
         <v>561184</v>
       </c>
-      <c r="C145" s="30">
-        <v>1</v>
-      </c>
-      <c r="D145" s="22">
-        <v>3</v>
-      </c>
-      <c r="E145" s="31">
+      <c r="C145" s="28">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" s="29">
         <v>1</v>
       </c>
       <c r="F145">
@@ -6442,13 +6447,13 @@
       <c r="B146">
         <v>561365</v>
       </c>
-      <c r="C146" s="30">
-        <v>0</v>
-      </c>
-      <c r="D146" s="22">
-        <v>3</v>
-      </c>
-      <c r="E146" s="31">
+      <c r="C146" s="28">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146" s="29">
         <v>1</v>
       </c>
       <c r="F146">
@@ -6474,13 +6479,13 @@
       <c r="B147">
         <v>429344</v>
       </c>
-      <c r="C147" s="30">
-        <v>3</v>
-      </c>
-      <c r="D147" s="22">
-        <v>3</v>
-      </c>
-      <c r="E147" s="31">
+      <c r="C147" s="28">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147" s="29">
         <v>3</v>
       </c>
       <c r="F147">
@@ -6506,13 +6511,13 @@
       <c r="B148">
         <v>287990</v>
       </c>
-      <c r="C148" s="30">
-        <v>2</v>
-      </c>
-      <c r="D148" s="22">
-        <v>0</v>
-      </c>
-      <c r="E148" s="31">
+      <c r="C148" s="28">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" s="29">
         <v>2</v>
       </c>
       <c r="F148">
@@ -6538,13 +6543,13 @@
       <c r="B149">
         <v>293552</v>
       </c>
-      <c r="C149" s="30">
-        <v>3</v>
-      </c>
-      <c r="D149" s="22">
-        <v>0</v>
-      </c>
-      <c r="E149" s="31">
+      <c r="C149" s="28">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" s="29">
         <v>1</v>
       </c>
       <c r="F149">
@@ -6570,13 +6575,13 @@
       <c r="B150">
         <v>1028</v>
       </c>
-      <c r="C150" s="30">
-        <v>3</v>
-      </c>
-      <c r="D150" s="22">
-        <v>0</v>
-      </c>
-      <c r="E150" s="31">
+      <c r="C150" s="28">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" s="29">
         <v>2</v>
       </c>
       <c r="F150">
@@ -6602,13 +6607,13 @@
       <c r="B151">
         <v>86796</v>
       </c>
-      <c r="C151" s="30">
-        <v>2</v>
-      </c>
-      <c r="D151" s="22">
-        <v>1</v>
-      </c>
-      <c r="E151" s="31">
+      <c r="C151" s="28">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" s="29">
         <v>3</v>
       </c>
       <c r="F151">
@@ -6634,13 +6639,13 @@
       <c r="B152">
         <v>349095</v>
       </c>
-      <c r="C152" s="30">
-        <v>1</v>
-      </c>
-      <c r="D152" s="22">
-        <v>2</v>
-      </c>
-      <c r="E152" s="31">
+      <c r="C152" s="28">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" s="29">
         <v>3</v>
       </c>
       <c r="F152">
@@ -6666,13 +6671,13 @@
       <c r="B153">
         <v>213248</v>
       </c>
-      <c r="C153" s="30">
-        <v>2</v>
-      </c>
-      <c r="D153" s="22">
-        <v>3</v>
-      </c>
-      <c r="E153" s="31">
+      <c r="C153" s="28">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153" s="29">
         <v>3</v>
       </c>
       <c r="F153">
@@ -6698,13 +6703,13 @@
       <c r="B154">
         <v>374425</v>
       </c>
-      <c r="C154" s="30">
-        <v>1</v>
-      </c>
-      <c r="D154" s="22">
-        <v>3</v>
-      </c>
-      <c r="E154" s="31">
+      <c r="C154" s="28">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154" s="29">
         <v>0</v>
       </c>
       <c r="F154">
@@ -6730,13 +6735,13 @@
       <c r="B155">
         <v>330227</v>
       </c>
-      <c r="C155" s="30">
-        <v>0</v>
-      </c>
-      <c r="D155" s="22">
-        <v>3</v>
-      </c>
-      <c r="E155" s="31">
+      <c r="C155" s="28">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155" s="29">
         <v>2</v>
       </c>
       <c r="F155">
@@ -6762,13 +6767,13 @@
       <c r="B156">
         <v>1071583</v>
       </c>
-      <c r="C156" s="30">
-        <v>2</v>
-      </c>
-      <c r="D156" s="22">
-        <v>3</v>
-      </c>
-      <c r="E156" s="31">
+      <c r="C156" s="28">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156" s="29">
         <v>3</v>
       </c>
       <c r="F156">
@@ -6794,13 +6799,13 @@
       <c r="B157">
         <v>875239</v>
       </c>
-      <c r="C157" s="30">
-        <v>2</v>
-      </c>
-      <c r="D157" s="22">
-        <v>3</v>
-      </c>
-      <c r="E157" s="31">
+      <c r="C157" s="28">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157" s="29">
         <v>3</v>
       </c>
       <c r="F157">
@@ -6826,13 +6831,13 @@
       <c r="B158">
         <v>468058</v>
       </c>
-      <c r="C158" s="30">
-        <v>0</v>
-      </c>
-      <c r="D158" s="22">
-        <v>3</v>
-      </c>
-      <c r="E158" s="31">
+      <c r="C158" s="28">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158" s="29">
         <v>2</v>
       </c>
       <c r="F158">
@@ -6858,13 +6863,13 @@
       <c r="B159">
         <v>33922</v>
       </c>
-      <c r="C159" s="30">
-        <v>3</v>
-      </c>
-      <c r="D159" s="22">
-        <v>2</v>
-      </c>
-      <c r="E159" s="31">
+      <c r="C159" s="28">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159" s="29">
         <v>0</v>
       </c>
       <c r="F159">
@@ -6890,13 +6895,13 @@
       <c r="B160">
         <v>244584</v>
       </c>
-      <c r="C160" s="30">
-        <v>0</v>
-      </c>
-      <c r="D160" s="22">
-        <v>2</v>
-      </c>
-      <c r="E160" s="31">
+      <c r="C160" s="28">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160" s="29">
         <v>1</v>
       </c>
       <c r="F160">
@@ -6922,13 +6927,13 @@
       <c r="B161">
         <v>171291</v>
       </c>
-      <c r="C161" s="30">
-        <v>0</v>
-      </c>
-      <c r="D161" s="22">
-        <v>3</v>
-      </c>
-      <c r="E161" s="31">
+      <c r="C161" s="28">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161" s="29">
         <v>0</v>
       </c>
       <c r="F161">
@@ -6954,13 +6959,13 @@
       <c r="B162">
         <v>1255265</v>
       </c>
-      <c r="C162" s="30">
-        <v>3</v>
-      </c>
-      <c r="D162" s="22">
-        <v>0</v>
-      </c>
-      <c r="E162" s="31">
+      <c r="C162" s="28">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" s="29">
         <v>0</v>
       </c>
       <c r="F162">
@@ -6986,13 +6991,13 @@
       <c r="B163">
         <v>756689</v>
       </c>
-      <c r="C163" s="30">
-        <v>2</v>
-      </c>
-      <c r="D163" s="22">
-        <v>1</v>
-      </c>
-      <c r="E163" s="31">
+      <c r="C163" s="28">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" s="29">
         <v>0</v>
       </c>
       <c r="F163">
@@ -7018,13 +7023,13 @@
       <c r="B164">
         <v>443157</v>
       </c>
-      <c r="C164" s="30">
-        <v>0</v>
-      </c>
-      <c r="D164" s="22">
-        <v>3</v>
-      </c>
-      <c r="E164" s="31">
+      <c r="C164" s="28">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164" s="29">
         <v>3</v>
       </c>
       <c r="F164">
@@ -7050,13 +7055,13 @@
       <c r="B165">
         <v>1843</v>
       </c>
-      <c r="C165" s="30">
-        <v>2</v>
-      </c>
-      <c r="D165" s="22">
-        <v>2</v>
-      </c>
-      <c r="E165" s="31">
+      <c r="C165" s="28">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165" s="29">
         <v>1</v>
       </c>
       <c r="F165">
@@ -7082,13 +7087,13 @@
       <c r="B166">
         <v>223904</v>
       </c>
-      <c r="C166" s="30">
-        <v>3</v>
-      </c>
-      <c r="D166" s="22">
-        <v>1</v>
-      </c>
-      <c r="E166" s="31">
+      <c r="C166" s="28">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" s="29">
         <v>0</v>
       </c>
       <c r="F166">
@@ -7114,13 +7119,13 @@
       <c r="B167">
         <v>1259470</v>
       </c>
-      <c r="C167" s="30">
-        <v>2</v>
-      </c>
-      <c r="D167" s="22">
-        <v>1</v>
-      </c>
-      <c r="E167" s="31">
+      <c r="C167" s="28">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" s="29">
         <v>3</v>
       </c>
       <c r="F167">
@@ -7146,13 +7151,13 @@
       <c r="B168">
         <v>424797</v>
       </c>
-      <c r="C168" s="30">
-        <v>0</v>
-      </c>
-      <c r="D168" s="22">
-        <v>0</v>
-      </c>
-      <c r="E168" s="31">
+      <c r="C168" s="28">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" s="29">
         <v>1</v>
       </c>
       <c r="F168">
@@ -7178,13 +7183,13 @@
       <c r="B169">
         <v>906888</v>
       </c>
-      <c r="C169" s="30">
-        <v>2</v>
-      </c>
-      <c r="D169" s="22">
-        <v>3</v>
-      </c>
-      <c r="E169" s="31">
+      <c r="C169" s="28">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169" s="29">
         <v>0</v>
       </c>
       <c r="F169">
@@ -7210,13 +7215,13 @@
       <c r="B170">
         <v>191564</v>
       </c>
-      <c r="C170" s="30">
-        <v>3</v>
-      </c>
-      <c r="D170" s="22">
-        <v>1</v>
-      </c>
-      <c r="E170" s="31">
+      <c r="C170" s="28">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" s="29">
         <v>1</v>
       </c>
       <c r="F170">
@@ -7242,13 +7247,13 @@
       <c r="B171">
         <v>1189325</v>
       </c>
-      <c r="C171" s="30">
-        <v>1</v>
-      </c>
-      <c r="D171" s="22">
-        <v>0</v>
-      </c>
-      <c r="E171" s="31">
+      <c r="C171" s="28">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" s="29">
         <v>3</v>
       </c>
       <c r="F171">
@@ -7274,13 +7279,13 @@
       <c r="B172">
         <v>129578</v>
       </c>
-      <c r="C172" s="30">
-        <v>0</v>
-      </c>
-      <c r="D172" s="22">
-        <v>3</v>
-      </c>
-      <c r="E172" s="31">
+      <c r="C172" s="28">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172" s="29">
         <v>1</v>
       </c>
       <c r="F172">
@@ -7306,13 +7311,13 @@
       <c r="B173">
         <v>64969</v>
       </c>
-      <c r="C173" s="30">
-        <v>0</v>
-      </c>
-      <c r="D173" s="22">
-        <v>2</v>
-      </c>
-      <c r="E173" s="31">
+      <c r="C173" s="28">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173" s="29">
         <v>0</v>
       </c>
       <c r="F173">
@@ -7338,13 +7343,13 @@
       <c r="B174">
         <v>684063</v>
       </c>
-      <c r="C174" s="30">
-        <v>1</v>
-      </c>
-      <c r="D174" s="22">
-        <v>1</v>
-      </c>
-      <c r="E174" s="31">
+      <c r="C174" s="28">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" s="29">
         <v>1</v>
       </c>
       <c r="F174">
@@ -7370,13 +7375,13 @@
       <c r="B175">
         <v>1243042</v>
       </c>
-      <c r="C175" s="30">
-        <v>3</v>
-      </c>
-      <c r="D175" s="22">
-        <v>1</v>
-      </c>
-      <c r="E175" s="31">
+      <c r="C175" s="28">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" s="29">
         <v>3</v>
       </c>
       <c r="F175">
@@ -7402,13 +7407,13 @@
       <c r="B176">
         <v>100176</v>
       </c>
-      <c r="C176" s="30">
-        <v>2</v>
-      </c>
-      <c r="D176" s="22">
-        <v>0</v>
-      </c>
-      <c r="E176" s="31">
+      <c r="C176" s="28">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" s="29">
         <v>0</v>
       </c>
       <c r="F176">
@@ -7434,13 +7439,13 @@
       <c r="B177">
         <v>1037355</v>
       </c>
-      <c r="C177" s="30">
-        <v>2</v>
-      </c>
-      <c r="D177" s="22">
-        <v>1</v>
-      </c>
-      <c r="E177" s="31">
+      <c r="C177" s="28">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" s="29">
         <v>4</v>
       </c>
       <c r="F177">
@@ -7466,13 +7471,13 @@
       <c r="B178">
         <v>623280</v>
       </c>
-      <c r="C178" s="30">
-        <v>1</v>
-      </c>
-      <c r="D178" s="22">
-        <v>0</v>
-      </c>
-      <c r="E178" s="31">
+      <c r="C178" s="28">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" s="29">
         <v>3</v>
       </c>
       <c r="F178">
@@ -7498,13 +7503,13 @@
       <c r="B179">
         <v>115544</v>
       </c>
-      <c r="C179" s="30">
-        <v>0</v>
-      </c>
-      <c r="D179" s="22">
-        <v>3</v>
-      </c>
-      <c r="E179" s="31">
+      <c r="C179" s="28">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179" s="29">
         <v>1</v>
       </c>
       <c r="F179">
@@ -7530,13 +7535,13 @@
       <c r="B180">
         <v>351343</v>
       </c>
-      <c r="C180" s="30">
-        <v>2</v>
-      </c>
-      <c r="D180" s="22">
-        <v>2</v>
-      </c>
-      <c r="E180" s="31">
+      <c r="C180" s="28">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180" s="29">
         <v>3</v>
       </c>
       <c r="F180">
@@ -7562,13 +7567,13 @@
       <c r="B181">
         <v>188932</v>
       </c>
-      <c r="C181" s="30">
-        <v>2</v>
-      </c>
-      <c r="D181" s="22">
-        <v>0</v>
-      </c>
-      <c r="E181" s="31">
+      <c r="C181" s="28">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" s="29">
         <v>1</v>
       </c>
       <c r="F181">
@@ -7594,13 +7599,13 @@
       <c r="B182">
         <v>572036</v>
       </c>
-      <c r="C182" s="30">
-        <v>1</v>
-      </c>
-      <c r="D182" s="22">
-        <v>0</v>
-      </c>
-      <c r="E182" s="31">
+      <c r="C182" s="28">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" s="29">
         <v>2</v>
       </c>
       <c r="F182">
@@ -7626,13 +7631,13 @@
       <c r="B183">
         <v>420403</v>
       </c>
-      <c r="C183" s="30">
-        <v>3</v>
-      </c>
-      <c r="D183" s="22">
-        <v>0</v>
-      </c>
-      <c r="E183" s="31">
+      <c r="C183" s="28">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" s="29">
         <v>3</v>
       </c>
       <c r="F183">
@@ -7658,13 +7663,13 @@
       <c r="B184">
         <v>1167741</v>
       </c>
-      <c r="C184" s="30">
+      <c r="C184" s="28">
         <v>4</v>
       </c>
-      <c r="D184" s="22">
+      <c r="D184">
         <v>4</v>
       </c>
-      <c r="E184" s="31">
+      <c r="E184" s="29">
         <v>3</v>
       </c>
       <c r="F184">
@@ -7690,13 +7695,13 @@
       <c r="B185">
         <v>490570</v>
       </c>
-      <c r="C185" s="30">
-        <v>3</v>
-      </c>
-      <c r="D185" s="22">
-        <v>0</v>
-      </c>
-      <c r="E185" s="31">
+      <c r="C185" s="28">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" s="29">
         <v>1</v>
       </c>
       <c r="F185">
@@ -7722,13 +7727,13 @@
       <c r="B186">
         <v>1456769</v>
       </c>
-      <c r="C186" s="30">
-        <v>3</v>
-      </c>
-      <c r="D186" s="22">
-        <v>1</v>
-      </c>
-      <c r="E186" s="31">
+      <c r="C186" s="28">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" s="29">
         <v>3</v>
       </c>
       <c r="F186">
@@ -7754,13 +7759,13 @@
       <c r="B187">
         <v>263852</v>
       </c>
-      <c r="C187" s="30">
-        <v>2</v>
-      </c>
-      <c r="D187" s="22">
-        <v>0</v>
-      </c>
-      <c r="E187" s="31">
+      <c r="C187" s="28">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" s="29">
         <v>2</v>
       </c>
       <c r="F187">
@@ -7786,13 +7791,13 @@
       <c r="B188">
         <v>696762</v>
       </c>
-      <c r="C188" s="30">
-        <v>1</v>
-      </c>
-      <c r="D188" s="22">
-        <v>1</v>
-      </c>
-      <c r="E188" s="31">
+      <c r="C188" s="28">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" s="29">
         <v>0</v>
       </c>
       <c r="F188">
@@ -7818,13 +7823,13 @@
       <c r="B189">
         <v>422297</v>
       </c>
-      <c r="C189" s="30">
-        <v>0</v>
-      </c>
-      <c r="D189" s="22">
-        <v>3</v>
-      </c>
-      <c r="E189" s="31">
+      <c r="C189" s="28">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189" s="29">
         <v>3</v>
       </c>
       <c r="F189">
@@ -7850,13 +7855,13 @@
       <c r="B190">
         <v>198312</v>
       </c>
-      <c r="C190" s="30">
-        <v>0</v>
-      </c>
-      <c r="D190" s="22">
-        <v>1</v>
-      </c>
-      <c r="E190" s="31">
+      <c r="C190" s="28">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" s="29">
         <v>1</v>
       </c>
       <c r="F190">
@@ -7882,13 +7887,13 @@
       <c r="B191">
         <v>36874</v>
       </c>
-      <c r="C191" s="30">
-        <v>2</v>
-      </c>
-      <c r="D191" s="22">
-        <v>2</v>
-      </c>
-      <c r="E191" s="31">
+      <c r="C191" s="28">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" s="29">
         <v>1</v>
       </c>
       <c r="F191">
@@ -7914,13 +7919,13 @@
       <c r="B192">
         <v>29524</v>
       </c>
-      <c r="C192" s="30">
-        <v>0</v>
-      </c>
-      <c r="D192" s="22">
-        <v>3</v>
-      </c>
-      <c r="E192" s="31">
+      <c r="C192" s="28">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192" s="29">
         <v>3</v>
       </c>
       <c r="F192">
@@ -7946,13 +7951,13 @@
       <c r="B193">
         <v>387890</v>
       </c>
-      <c r="C193" s="30">
-        <v>0</v>
-      </c>
-      <c r="D193" s="22">
-        <v>2</v>
-      </c>
-      <c r="E193" s="31">
+      <c r="C193" s="28">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193" s="29">
         <v>3</v>
       </c>
       <c r="F193">
@@ -7978,13 +7983,13 @@
       <c r="B194">
         <v>176898</v>
       </c>
-      <c r="C194" s="30">
-        <v>1</v>
-      </c>
-      <c r="D194" s="22">
-        <v>2</v>
-      </c>
-      <c r="E194" s="31">
+      <c r="C194" s="28">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194" s="29">
         <v>2</v>
       </c>
       <c r="F194">
@@ -8010,13 +8015,13 @@
       <c r="B195">
         <v>577679</v>
       </c>
-      <c r="C195" s="30">
-        <v>3</v>
-      </c>
-      <c r="D195" s="22">
-        <v>1</v>
-      </c>
-      <c r="E195" s="31">
+      <c r="C195" s="28">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" s="29">
         <v>3</v>
       </c>
       <c r="F195">
@@ -8042,13 +8047,13 @@
       <c r="B196">
         <v>185641</v>
       </c>
-      <c r="C196" s="30">
-        <v>0</v>
-      </c>
-      <c r="D196" s="22">
-        <v>1</v>
-      </c>
-      <c r="E196" s="31">
+      <c r="C196" s="28">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" s="29">
         <v>4</v>
       </c>
       <c r="F196">
@@ -8074,13 +8079,13 @@
       <c r="B197">
         <v>387889</v>
       </c>
-      <c r="C197" s="30">
-        <v>2</v>
-      </c>
-      <c r="D197" s="22">
+      <c r="C197" s="28">
+        <v>2</v>
+      </c>
+      <c r="D197">
         <v>4</v>
       </c>
-      <c r="E197" s="31">
+      <c r="E197" s="29">
         <v>1</v>
       </c>
       <c r="F197">
@@ -8106,13 +8111,13 @@
       <c r="B198">
         <v>228603</v>
       </c>
-      <c r="C198" s="30">
-        <v>2</v>
-      </c>
-      <c r="D198" s="22">
-        <v>2</v>
-      </c>
-      <c r="E198" s="31">
+      <c r="C198" s="28">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198" s="29">
         <v>0</v>
       </c>
       <c r="F198">
@@ -8138,13 +8143,13 @@
       <c r="B199">
         <v>526729</v>
       </c>
-      <c r="C199" s="30">
-        <v>1</v>
-      </c>
-      <c r="D199" s="22">
-        <v>2</v>
-      </c>
-      <c r="E199" s="31">
+      <c r="C199" s="28">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199" s="29">
         <v>1</v>
       </c>
       <c r="F199">
@@ -8170,13 +8175,13 @@
       <c r="B200">
         <v>765201</v>
       </c>
-      <c r="C200" s="30">
-        <v>1</v>
-      </c>
-      <c r="D200" s="22">
-        <v>2</v>
-      </c>
-      <c r="E200" s="31">
+      <c r="C200" s="28">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200" s="29">
         <v>2</v>
       </c>
       <c r="F200">
@@ -8202,13 +8207,13 @@
       <c r="B201">
         <v>45622</v>
       </c>
-      <c r="C201" s="30">
-        <v>1</v>
-      </c>
-      <c r="D201" s="22">
-        <v>1</v>
-      </c>
-      <c r="E201" s="31">
+      <c r="C201" s="28">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201" s="29">
         <v>0</v>
       </c>
       <c r="F201">
@@ -8234,13 +8239,13 @@
       <c r="B202">
         <v>65401</v>
       </c>
-      <c r="C202" s="30">
-        <v>0</v>
-      </c>
-      <c r="D202" s="22">
-        <v>2</v>
-      </c>
-      <c r="E202" s="31">
+      <c r="C202" s="28">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202" s="29">
         <v>1</v>
       </c>
       <c r="F202">
@@ -8266,13 +8271,13 @@
       <c r="B203">
         <v>48467</v>
       </c>
-      <c r="C203" s="30">
-        <v>0</v>
-      </c>
-      <c r="D203" s="22">
-        <v>0</v>
-      </c>
-      <c r="E203" s="31">
+      <c r="C203" s="28">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" s="29">
         <v>2</v>
       </c>
       <c r="F203">
@@ -8298,13 +8303,13 @@
       <c r="B204">
         <v>48464</v>
       </c>
-      <c r="C204" s="30">
-        <v>1</v>
-      </c>
-      <c r="D204" s="22">
-        <v>0</v>
-      </c>
-      <c r="E204" s="31">
+      <c r="C204" s="28">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" s="29">
         <v>0</v>
       </c>
       <c r="F204">
@@ -8330,13 +8335,13 @@
       <c r="B205">
         <v>185007</v>
       </c>
-      <c r="C205" s="30">
-        <v>2</v>
-      </c>
-      <c r="D205" s="22">
-        <v>0</v>
-      </c>
-      <c r="E205" s="31">
+      <c r="C205" s="28">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" s="29">
         <v>3</v>
       </c>
       <c r="F205">
@@ -8362,13 +8367,13 @@
       <c r="B206">
         <v>451637</v>
       </c>
-      <c r="C206" s="30">
-        <v>2</v>
-      </c>
-      <c r="D206" s="22">
-        <v>2</v>
-      </c>
-      <c r="E206" s="31">
+      <c r="C206" s="28">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" s="29">
         <v>3</v>
       </c>
       <c r="F206">
@@ -8394,13 +8399,13 @@
       <c r="B207">
         <v>86175</v>
       </c>
-      <c r="C207" s="30">
-        <v>2</v>
-      </c>
-      <c r="D207" s="22">
-        <v>1</v>
-      </c>
-      <c r="E207" s="31">
+      <c r="C207" s="28">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207" s="29">
         <v>1</v>
       </c>
       <c r="F207">
@@ -8426,13 +8431,13 @@
       <c r="B208">
         <v>157792</v>
       </c>
-      <c r="C208" s="30">
-        <v>2</v>
-      </c>
-      <c r="D208" s="22">
-        <v>3</v>
-      </c>
-      <c r="E208" s="31">
+      <c r="C208" s="28">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208" s="29">
         <v>2</v>
       </c>
       <c r="F208">
@@ -8458,13 +8463,13 @@
       <c r="B209">
         <v>289483</v>
       </c>
-      <c r="C209" s="30">
-        <v>0</v>
-      </c>
-      <c r="D209" s="22">
-        <v>1</v>
-      </c>
-      <c r="E209" s="31">
+      <c r="C209" s="28">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" s="29">
         <v>3</v>
       </c>
       <c r="F209">
@@ -8490,13 +8495,13 @@
       <c r="B210">
         <v>176598</v>
       </c>
-      <c r="C210" s="30">
-        <v>2</v>
-      </c>
-      <c r="D210" s="22">
-        <v>1</v>
-      </c>
-      <c r="E210" s="31">
+      <c r="C210" s="28">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" s="29">
         <v>0</v>
       </c>
       <c r="F210">
@@ -8522,13 +8527,13 @@
       <c r="B211">
         <v>1256701</v>
       </c>
-      <c r="C211" s="30">
-        <v>1</v>
-      </c>
-      <c r="D211" s="22">
-        <v>1</v>
-      </c>
-      <c r="E211" s="31">
+      <c r="C211" s="28">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" s="29">
         <v>2</v>
       </c>
       <c r="F211">
@@ -8554,13 +8559,13 @@
       <c r="B212">
         <v>366349</v>
       </c>
-      <c r="C212" s="30">
-        <v>3</v>
-      </c>
-      <c r="D212" s="22">
-        <v>3</v>
-      </c>
-      <c r="E212" s="31">
+      <c r="C212" s="28">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212" s="29">
         <v>1</v>
       </c>
       <c r="F212">
@@ -8586,13 +8591,13 @@
       <c r="B213">
         <v>554335</v>
       </c>
-      <c r="C213" s="30">
-        <v>1</v>
-      </c>
-      <c r="D213" s="22">
-        <v>2</v>
-      </c>
-      <c r="E213" s="31">
+      <c r="C213" s="28">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213" s="29">
         <v>2</v>
       </c>
       <c r="F213">
@@ -8618,13 +8623,13 @@
       <c r="B214">
         <v>182367</v>
       </c>
-      <c r="C214" s="30">
-        <v>2</v>
-      </c>
-      <c r="D214" s="22">
-        <v>1</v>
-      </c>
-      <c r="E214" s="31">
+      <c r="C214" s="28">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" s="29">
         <v>0</v>
       </c>
       <c r="F214">
@@ -8650,13 +8655,13 @@
       <c r="B215">
         <v>1387244</v>
       </c>
-      <c r="C215" s="30">
-        <v>1</v>
-      </c>
-      <c r="D215" s="22">
-        <v>2</v>
-      </c>
-      <c r="E215" s="31">
+      <c r="C215" s="28">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215" s="29">
         <v>1</v>
       </c>
       <c r="F215">
@@ -8682,13 +8687,13 @@
       <c r="B216">
         <v>1172533</v>
       </c>
-      <c r="C216" s="30">
-        <v>2</v>
-      </c>
-      <c r="D216" s="22">
-        <v>3</v>
-      </c>
-      <c r="E216" s="31">
+      <c r="C216" s="28">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216" s="29">
         <v>1</v>
       </c>
       <c r="F216">
@@ -8709,18 +8714,18 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="1" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
       <c r="B217">
         <v>287609</v>
       </c>
-      <c r="C217" s="30">
-        <v>2</v>
-      </c>
-      <c r="D217" s="22">
-        <v>1</v>
-      </c>
-      <c r="E217" s="31">
+      <c r="C217" s="28">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" s="29">
         <v>1</v>
       </c>
       <c r="F217">
@@ -8746,13 +8751,13 @@
       <c r="B218">
         <v>198092</v>
       </c>
-      <c r="C218" s="30">
-        <v>1</v>
-      </c>
-      <c r="D218" s="22">
-        <v>0</v>
-      </c>
-      <c r="E218" s="31">
+      <c r="C218" s="28">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" s="29">
         <v>1</v>
       </c>
       <c r="F218">
@@ -8778,13 +8783,13 @@
       <c r="B219">
         <v>424704</v>
       </c>
-      <c r="C219" s="30">
-        <v>3</v>
-      </c>
-      <c r="D219" s="22">
-        <v>1</v>
-      </c>
-      <c r="E219" s="31">
+      <c r="C219" s="28">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" s="29">
         <v>2</v>
       </c>
       <c r="F219">
@@ -8810,13 +8815,13 @@
       <c r="B220">
         <v>407226</v>
       </c>
-      <c r="C220" s="30">
-        <v>1</v>
-      </c>
-      <c r="D220" s="22">
-        <v>2</v>
-      </c>
-      <c r="E220" s="31">
+      <c r="C220" s="28">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220" s="29">
         <v>3</v>
       </c>
       <c r="F220">
@@ -8842,13 +8847,13 @@
       <c r="B221">
         <v>241145</v>
       </c>
-      <c r="C221" s="30">
-        <v>2</v>
-      </c>
-      <c r="D221" s="22">
-        <v>2</v>
-      </c>
-      <c r="E221" s="31">
+      <c r="C221" s="28">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221" s="29">
         <v>1</v>
       </c>
       <c r="F221">
@@ -8874,13 +8879,13 @@
       <c r="B222">
         <v>270918</v>
       </c>
-      <c r="C222" s="30">
-        <v>0</v>
-      </c>
-      <c r="D222" s="22">
-        <v>3</v>
-      </c>
-      <c r="E222" s="31">
+      <c r="C222" s="28">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222" s="29">
         <v>0</v>
       </c>
       <c r="F222">
@@ -8906,13 +8911,13 @@
       <c r="B223">
         <v>435906</v>
       </c>
-      <c r="C223" s="30">
-        <v>1</v>
-      </c>
-      <c r="D223" s="22">
-        <v>1</v>
-      </c>
-      <c r="E223" s="31">
+      <c r="C223" s="28">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" s="29">
         <v>2</v>
       </c>
       <c r="F223">
@@ -8938,13 +8943,13 @@
       <c r="B224">
         <v>143223</v>
       </c>
-      <c r="C224" s="30">
-        <v>0</v>
-      </c>
-      <c r="D224" s="22">
-        <v>1</v>
-      </c>
-      <c r="E224" s="31">
+      <c r="C224" s="28">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" s="29">
         <v>0</v>
       </c>
       <c r="F224">
@@ -8970,13 +8975,13 @@
       <c r="B225">
         <v>447422</v>
       </c>
-      <c r="C225" s="30">
-        <v>0</v>
-      </c>
-      <c r="D225" s="22">
-        <v>2</v>
-      </c>
-      <c r="E225" s="31">
+      <c r="C225" s="28">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225" s="29">
         <v>0</v>
       </c>
       <c r="F225">
@@ -9002,13 +9007,13 @@
       <c r="B226">
         <v>148453</v>
       </c>
-      <c r="C226" s="30">
-        <v>0</v>
-      </c>
-      <c r="D226" s="22">
-        <v>3</v>
-      </c>
-      <c r="E226" s="31">
+      <c r="C226" s="28">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="E226" s="29">
         <v>0</v>
       </c>
       <c r="F226">
@@ -9034,13 +9039,13 @@
       <c r="B227">
         <v>255519</v>
       </c>
-      <c r="C227" s="30">
-        <v>1</v>
-      </c>
-      <c r="D227" s="22">
-        <v>3</v>
-      </c>
-      <c r="E227" s="31">
+      <c r="C227" s="28">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227" s="29">
         <v>1</v>
       </c>
       <c r="F227">
@@ -9066,13 +9071,13 @@
       <c r="B228">
         <v>130788</v>
       </c>
-      <c r="C228" s="30">
-        <v>1</v>
-      </c>
-      <c r="D228" s="22">
-        <v>0</v>
-      </c>
-      <c r="E228" s="31">
+      <c r="C228" s="28">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" s="29">
         <v>1</v>
       </c>
       <c r="F228">
@@ -9098,13 +9103,13 @@
       <c r="B229">
         <v>142842</v>
       </c>
-      <c r="C229" s="30">
-        <v>3</v>
-      </c>
-      <c r="D229" s="22">
-        <v>0</v>
-      </c>
-      <c r="E229" s="31">
+      <c r="C229" s="28">
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" s="29">
         <v>3</v>
       </c>
       <c r="F229">
@@ -9130,13 +9135,13 @@
       <c r="B230">
         <v>253256</v>
       </c>
-      <c r="C230" s="30">
-        <v>3</v>
-      </c>
-      <c r="D230" s="22">
-        <v>3</v>
-      </c>
-      <c r="E230" s="31">
+      <c r="C230" s="28">
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+      <c r="E230" s="29">
         <v>0</v>
       </c>
       <c r="F230">
@@ -9162,13 +9167,13 @@
       <c r="B231">
         <v>619805</v>
       </c>
-      <c r="C231" s="30">
-        <v>1</v>
-      </c>
-      <c r="D231" s="22">
-        <v>3</v>
-      </c>
-      <c r="E231" s="31">
+      <c r="C231" s="28">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231" s="29">
         <v>1</v>
       </c>
       <c r="F231">
@@ -9194,13 +9199,13 @@
       <c r="B232">
         <v>28454</v>
       </c>
-      <c r="C232" s="30">
-        <v>2</v>
-      </c>
-      <c r="D232" s="22">
-        <v>1</v>
-      </c>
-      <c r="E232" s="31">
+      <c r="C232" s="28">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232" s="29">
         <v>3</v>
       </c>
       <c r="F232">
@@ -9226,13 +9231,13 @@
       <c r="B233">
         <v>563996</v>
       </c>
-      <c r="C233" s="30">
-        <v>2</v>
-      </c>
-      <c r="D233" s="22">
-        <v>2</v>
-      </c>
-      <c r="E233" s="31">
+      <c r="C233" s="28">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233" s="29">
         <v>1</v>
       </c>
       <c r="F233">
@@ -9258,13 +9263,13 @@
       <c r="B234">
         <v>397260</v>
       </c>
-      <c r="C234" s="30">
-        <v>0</v>
-      </c>
-      <c r="D234" s="22">
-        <v>1</v>
-      </c>
-      <c r="E234" s="31">
+      <c r="C234" s="28">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" s="29">
         <v>1</v>
       </c>
       <c r="F234">
@@ -9290,13 +9295,13 @@
       <c r="B235">
         <v>160791</v>
       </c>
-      <c r="C235" s="30">
-        <v>1</v>
-      </c>
-      <c r="D235" s="22">
-        <v>0</v>
-      </c>
-      <c r="E235" s="31">
+      <c r="C235" s="28">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" s="29">
         <v>2</v>
       </c>
       <c r="F235">
@@ -9316,19 +9321,19 @@
       </c>
     </row>
     <row r="236" spans="1:10" ht="17">
-      <c r="A236" s="36" t="s">
+      <c r="A236" s="33" t="s">
         <v>357</v>
       </c>
       <c r="B236">
         <v>394733</v>
       </c>
-      <c r="C236" s="30">
-        <v>2</v>
-      </c>
-      <c r="D236" s="22">
-        <v>1</v>
-      </c>
-      <c r="E236" s="31">
+      <c r="C236" s="28">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236" s="29">
         <v>3</v>
       </c>
       <c r="F236">
@@ -9354,13 +9359,13 @@
       <c r="B237">
         <v>394732</v>
       </c>
-      <c r="C237" s="30">
-        <v>1</v>
-      </c>
-      <c r="D237" s="22">
-        <v>2</v>
-      </c>
-      <c r="E237" s="31">
+      <c r="C237" s="28">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237" s="29">
         <v>1</v>
       </c>
       <c r="F237">
@@ -9386,13 +9391,13 @@
       <c r="B238">
         <v>286803</v>
       </c>
-      <c r="C238" s="30">
-        <v>0</v>
-      </c>
-      <c r="D238" s="22">
-        <v>3</v>
-      </c>
-      <c r="E238" s="31">
+      <c r="C238" s="28">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="E238" s="29">
         <v>0</v>
       </c>
       <c r="F238">
@@ -9418,13 +9423,13 @@
       <c r="B239">
         <v>44749</v>
       </c>
-      <c r="C239" s="30">
-        <v>0</v>
-      </c>
-      <c r="D239" s="22">
-        <v>1</v>
-      </c>
-      <c r="E239" s="31">
+      <c r="C239" s="28">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239" s="29">
         <v>3</v>
       </c>
       <c r="F239">
@@ -9450,13 +9455,13 @@
       <c r="B240">
         <v>406432</v>
       </c>
-      <c r="C240" s="30">
-        <v>0</v>
-      </c>
-      <c r="D240" s="22">
-        <v>3</v>
-      </c>
-      <c r="E240" s="31">
+      <c r="C240" s="28">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+      <c r="E240" s="29">
         <v>1</v>
       </c>
       <c r="F240">
@@ -9482,13 +9487,13 @@
       <c r="B241">
         <v>1933</v>
       </c>
-      <c r="C241" s="30">
-        <v>2</v>
-      </c>
-      <c r="D241" s="22">
-        <v>1</v>
-      </c>
-      <c r="E241" s="31">
+      <c r="C241" s="28">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241" s="29">
         <v>2</v>
       </c>
       <c r="F241">
@@ -9514,13 +9519,13 @@
       <c r="B242">
         <v>83771</v>
       </c>
-      <c r="C242" s="30">
-        <v>1</v>
-      </c>
-      <c r="D242" s="22">
-        <v>3</v>
-      </c>
-      <c r="E242" s="31">
+      <c r="C242" s="28">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>3</v>
+      </c>
+      <c r="E242" s="29">
         <v>0</v>
       </c>
       <c r="F242">
@@ -9546,13 +9551,13 @@
       <c r="B243">
         <v>619730</v>
       </c>
-      <c r="C243" s="30">
-        <v>2</v>
-      </c>
-      <c r="D243" s="22">
-        <v>1</v>
-      </c>
-      <c r="E243" s="31">
+      <c r="C243" s="28">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243" s="29">
         <v>0</v>
       </c>
       <c r="F243">
@@ -9578,13 +9583,13 @@
       <c r="B244">
         <v>266809</v>
       </c>
-      <c r="C244" s="30">
-        <v>1</v>
-      </c>
-      <c r="D244" s="22">
-        <v>1</v>
-      </c>
-      <c r="E244" s="31">
+      <c r="C244" s="28">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" s="29">
         <v>1</v>
       </c>
       <c r="F244">
@@ -9610,13 +9615,13 @@
       <c r="B245">
         <v>447593</v>
       </c>
-      <c r="C245" s="30">
-        <v>3</v>
-      </c>
-      <c r="D245" s="22">
-        <v>0</v>
-      </c>
-      <c r="E245" s="31">
+      <c r="C245" s="28">
+        <v>3</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" s="29">
         <v>1</v>
       </c>
       <c r="F245">
@@ -9642,13 +9647,13 @@
       <c r="B246">
         <v>412896</v>
       </c>
-      <c r="C246" s="30">
+      <c r="C246" s="28">
         <v>4</v>
       </c>
-      <c r="D246" s="22">
-        <v>0</v>
-      </c>
-      <c r="E246" s="31">
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" s="29">
         <v>0</v>
       </c>
       <c r="F246">
@@ -9674,13 +9679,13 @@
       <c r="B247">
         <v>213588</v>
       </c>
-      <c r="C247" s="30">
-        <v>1</v>
-      </c>
-      <c r="D247" s="22">
-        <v>3</v>
-      </c>
-      <c r="E247" s="31">
+      <c r="C247" s="28">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+      <c r="E247" s="29">
         <v>2</v>
       </c>
       <c r="F247">
@@ -9706,13 +9711,13 @@
       <c r="B248">
         <v>238991</v>
       </c>
-      <c r="C248" s="30">
-        <v>1</v>
-      </c>
-      <c r="D248" s="22">
-        <v>0</v>
-      </c>
-      <c r="E248" s="31">
+      <c r="C248" s="28">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" s="29">
         <v>2</v>
       </c>
       <c r="F248">
@@ -9738,13 +9743,13 @@
       <c r="B249">
         <v>54294</v>
       </c>
-      <c r="C249" s="30">
-        <v>3</v>
-      </c>
-      <c r="D249" s="22">
-        <v>3</v>
-      </c>
-      <c r="E249" s="31">
+      <c r="C249" s="28">
+        <v>3</v>
+      </c>
+      <c r="D249">
+        <v>3</v>
+      </c>
+      <c r="E249" s="29">
         <v>1</v>
       </c>
       <c r="F249">
@@ -9770,13 +9775,13 @@
       <c r="B250">
         <v>92487</v>
       </c>
-      <c r="C250" s="30">
-        <v>1</v>
-      </c>
-      <c r="D250" s="22">
-        <v>2</v>
-      </c>
-      <c r="E250" s="31">
+      <c r="C250" s="28">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250" s="29">
         <v>3</v>
       </c>
       <c r="F250">
@@ -9802,13 +9807,13 @@
       <c r="B251">
         <v>43131</v>
       </c>
-      <c r="C251" s="30">
-        <v>1</v>
-      </c>
-      <c r="D251" s="22">
-        <v>1</v>
-      </c>
-      <c r="E251" s="31">
+      <c r="C251" s="28">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251" s="29">
         <v>2</v>
       </c>
       <c r="F251">
@@ -9834,13 +9839,13 @@
       <c r="B252">
         <v>225004</v>
       </c>
-      <c r="C252" s="30">
-        <v>3</v>
-      </c>
-      <c r="D252" s="22">
-        <v>0</v>
-      </c>
-      <c r="E252" s="31">
+      <c r="C252" s="28">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" s="29">
         <v>2</v>
       </c>
       <c r="F252">
@@ -9866,13 +9871,13 @@
       <c r="B253">
         <v>261392</v>
       </c>
-      <c r="C253" s="30">
-        <v>1</v>
-      </c>
-      <c r="D253" s="22">
-        <v>0</v>
-      </c>
-      <c r="E253" s="31">
+      <c r="C253" s="28">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" s="29">
         <v>3</v>
       </c>
       <c r="F253">
@@ -9898,13 +9903,13 @@
       <c r="B254">
         <v>158751</v>
       </c>
-      <c r="C254" s="30">
-        <v>3</v>
-      </c>
-      <c r="D254" s="22">
-        <v>2</v>
-      </c>
-      <c r="E254" s="31">
+      <c r="C254" s="28">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254" s="29">
         <v>1</v>
       </c>
       <c r="F254">
@@ -9930,13 +9935,13 @@
       <c r="B255">
         <v>160236</v>
       </c>
-      <c r="C255" s="30">
-        <v>1</v>
-      </c>
-      <c r="D255" s="22">
-        <v>1</v>
-      </c>
-      <c r="E255" s="31">
+      <c r="C255" s="28">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" s="29">
         <v>3</v>
       </c>
       <c r="F255">
@@ -9962,13 +9967,13 @@
       <c r="B256">
         <v>227322</v>
       </c>
-      <c r="C256" s="30">
-        <v>2</v>
-      </c>
-      <c r="D256" s="22">
-        <v>3</v>
-      </c>
-      <c r="E256" s="31">
+      <c r="C256" s="28">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+      <c r="E256" s="29">
         <v>3</v>
       </c>
       <c r="F256">
@@ -9994,13 +9999,13 @@
       <c r="B257">
         <v>349273</v>
       </c>
-      <c r="C257" s="30">
-        <v>2</v>
-      </c>
-      <c r="D257" s="22">
-        <v>1</v>
-      </c>
-      <c r="E257" s="31">
+      <c r="C257" s="28">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257" s="29">
         <v>2</v>
       </c>
       <c r="F257">
@@ -10026,13 +10031,13 @@
       <c r="B258">
         <v>114707</v>
       </c>
-      <c r="C258" s="30">
-        <v>0</v>
-      </c>
-      <c r="D258" s="22">
-        <v>0</v>
-      </c>
-      <c r="E258" s="31">
+      <c r="C258" s="28">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258" s="29">
         <v>3</v>
       </c>
       <c r="F258">
@@ -10058,13 +10063,13 @@
       <c r="B259">
         <v>158754</v>
       </c>
-      <c r="C259" s="30">
-        <v>0</v>
-      </c>
-      <c r="D259" s="22">
-        <v>3</v>
-      </c>
-      <c r="E259" s="31">
+      <c r="C259" s="28">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="E259" s="29">
         <v>1</v>
       </c>
       <c r="F259">
@@ -10090,13 +10095,13 @@
       <c r="B260">
         <v>435912</v>
       </c>
-      <c r="C260" s="30">
-        <v>0</v>
-      </c>
-      <c r="D260" s="22">
-        <v>3</v>
-      </c>
-      <c r="E260" s="31">
+      <c r="C260" s="28">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+      <c r="E260" s="29">
         <v>3</v>
       </c>
       <c r="F260">
@@ -10122,13 +10127,13 @@
       <c r="B261">
         <v>184755</v>
       </c>
-      <c r="C261" s="30">
-        <v>3</v>
-      </c>
-      <c r="D261" s="22">
-        <v>3</v>
-      </c>
-      <c r="E261" s="31">
+      <c r="C261" s="28">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+      <c r="E261" s="29">
         <v>2</v>
       </c>
       <c r="F261">
@@ -10154,13 +10159,13 @@
       <c r="B262">
         <v>321325</v>
       </c>
-      <c r="C262" s="30">
-        <v>2</v>
-      </c>
-      <c r="D262" s="22">
-        <v>1</v>
-      </c>
-      <c r="E262" s="31">
+      <c r="C262" s="28">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" s="29">
         <v>2</v>
       </c>
       <c r="F262">
@@ -10186,13 +10191,13 @@
       <c r="B263">
         <v>72806</v>
       </c>
-      <c r="C263" s="30">
-        <v>1</v>
-      </c>
-      <c r="D263" s="22">
-        <v>2</v>
-      </c>
-      <c r="E263" s="31">
+      <c r="C263" s="28">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263" s="29">
         <v>0</v>
       </c>
       <c r="F263">
@@ -10218,13 +10223,13 @@
       <c r="B264">
         <v>391736</v>
       </c>
-      <c r="C264" s="30">
-        <v>3</v>
-      </c>
-      <c r="D264" s="22">
-        <v>0</v>
-      </c>
-      <c r="E264" s="31">
+      <c r="C264" s="28">
+        <v>3</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264" s="29">
         <v>3</v>
       </c>
       <c r="F264">
@@ -10250,13 +10255,13 @@
       <c r="B265">
         <v>355930</v>
       </c>
-      <c r="C265" s="32">
-        <v>3</v>
-      </c>
-      <c r="D265" s="33">
-        <v>1</v>
-      </c>
-      <c r="E265" s="34">
+      <c r="C265" s="30">
+        <v>3</v>
+      </c>
+      <c r="D265" s="31">
+        <v>1</v>
+      </c>
+      <c r="E265" s="32">
         <v>0</v>
       </c>
       <c r="F265">
@@ -10276,7 +10281,7 @@
       </c>
     </row>
     <row r="266" spans="1:10">
-      <c r="A266" s="35" t="s">
+      <c r="A266" t="s">
         <v>351</v>
       </c>
       <c r="B266">
@@ -10308,7 +10313,7 @@
       </c>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="2" t="s">
+      <c r="A267" t="s">
         <v>26</v>
       </c>
       <c r="C267">
@@ -10361,8 +10366,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="54.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="23" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="21" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -10373,10 +10378,10 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D1" t="s">
@@ -10396,10 +10401,10 @@
       <c r="A2">
         <v>4577</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D2" t="s">
@@ -10419,10 +10424,10 @@
       <c r="A3">
         <v>9606</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D3" t="s">
@@ -10442,10 +10447,10 @@
       <c r="A4">
         <v>398578</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D4" t="s">
@@ -10465,10 +10470,10 @@
       <c r="A5">
         <v>80866</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
@@ -10488,10 +10493,10 @@
       <c r="A6">
         <v>1747</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D6" t="s">
@@ -10511,10 +10516,10 @@
       <c r="A7">
         <v>59201</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D7" t="s">
@@ -10534,10 +10539,10 @@
       <c r="A8">
         <v>28901</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
@@ -10557,10 +10562,10 @@
       <c r="A9">
         <v>562</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D9" t="s">
@@ -10580,10 +10585,10 @@
       <c r="A10">
         <v>31998</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
@@ -10603,10 +10608,10 @@
       <c r="A11">
         <v>2209</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D11" t="s">
@@ -10626,10 +10631,10 @@
       <c r="A12">
         <v>1587</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
@@ -10649,10 +10654,10 @@
       <c r="A13">
         <v>2208</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D13" t="s">
@@ -10672,10 +10677,10 @@
       <c r="A14">
         <v>1540099</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
@@ -10695,10 +10700,10 @@
       <c r="A15">
         <v>76773</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <v>0.5</v>
       </c>
       <c r="D15" t="s">
@@ -10718,10 +10723,10 @@
       <c r="A16">
         <v>54736</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
@@ -10741,10 +10746,10 @@
       <c r="A17">
         <v>9598</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D17" t="s">
@@ -10764,10 +10769,10 @@
       <c r="A18">
         <v>1204725</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D18" t="s">
@@ -10787,10 +10792,10 @@
       <c r="A19">
         <v>1300163</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
@@ -10810,10 +10815,10 @@
       <c r="A20">
         <v>2162</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D20" t="s">
@@ -10833,10 +10838,10 @@
       <c r="A21">
         <v>1982305</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D21" t="s">
@@ -10856,10 +10861,10 @@
       <c r="A22">
         <v>4565</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D22" t="s">
@@ -10879,10 +10884,10 @@
       <c r="A23">
         <v>33998</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D23" t="s">
@@ -10902,10 +10907,10 @@
       <c r="A24">
         <v>103728</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D24" t="s">
@@ -10925,10 +10930,10 @@
       <c r="A25">
         <v>103729</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D25" t="s">
@@ -10948,10 +10953,10 @@
       <c r="A26">
         <v>96101</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D26" t="s">
@@ -10971,10 +10976,10 @@
       <c r="A27">
         <v>42197</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D27" t="s">
@@ -10994,10 +10999,10 @@
       <c r="A28">
         <v>1080</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D28" t="s">
@@ -11017,10 +11022,10 @@
       <c r="A29">
         <v>41985</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D29" t="s">
@@ -11040,10 +11045,10 @@
       <c r="A30">
         <v>293890</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D30" t="s">
@@ -11063,10 +11068,10 @@
       <c r="A31">
         <v>196587</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D31" t="s">
@@ -11086,10 +11091,10 @@
       <c r="A32">
         <v>279824</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D32" t="s">
@@ -11109,10 +11114,10 @@
       <c r="A33">
         <v>237019</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D33" t="s">
@@ -11132,10 +11137,10 @@
       <c r="A34">
         <v>57028</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D34" t="s">
@@ -11155,10 +11160,10 @@
       <c r="A35">
         <v>291403</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D35" t="s">
@@ -11178,10 +11183,10 @@
       <c r="A36">
         <v>235931</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D36" t="s">
@@ -11201,10 +11206,10 @@
       <c r="A37">
         <v>889453</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D37" t="s">
@@ -11224,10 +11229,10 @@
       <c r="A38">
         <v>1120994</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D38" t="s">
@@ -11247,10 +11252,10 @@
       <c r="A39">
         <v>82374</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D39" t="s">
@@ -11270,10 +11275,10 @@
       <c r="A40">
         <v>561088</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D40" t="s">
@@ -11293,10 +11298,10 @@
       <c r="A41">
         <v>591202</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D41" t="s">
@@ -11316,10 +11321,10 @@
       <c r="A42">
         <v>440515</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D42" t="s">
@@ -11339,10 +11344,10 @@
       <c r="A43">
         <v>188872</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D43" t="s">
@@ -11362,10 +11367,10 @@
       <c r="A44">
         <v>375061</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D44" t="s">
@@ -11385,10 +11390,10 @@
       <c r="A45">
         <v>394340</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D45" t="s">
@@ -11408,10 +11413,10 @@
       <c r="A46">
         <v>180295</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D46" t="s">
@@ -11431,10 +11436,10 @@
       <c r="A47">
         <v>370622</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D47" t="s">
@@ -11454,10 +11459,10 @@
       <c r="A48">
         <v>41977</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D48" t="s">
@@ -11477,10 +11482,10 @@
       <c r="A49">
         <v>116849</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D49" t="s">
@@ -11500,10 +11505,10 @@
       <c r="A50">
         <v>170623</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D50" t="s">
@@ -11523,10 +11528,10 @@
       <c r="A51">
         <v>454048</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D51" t="s">
@@ -11546,10 +11551,10 @@
       <c r="A52">
         <v>53254</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D52" t="s">
@@ -11569,10 +11574,10 @@
       <c r="A53">
         <v>71656</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D53" t="s">
@@ -11592,10 +11597,10 @@
       <c r="A54">
         <v>55210</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D54" t="s">
@@ -11615,10 +11620,10 @@
       <c r="A55">
         <v>509094</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D55" t="s">
@@ -11638,10 +11643,10 @@
       <c r="A56">
         <v>575302</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D56" t="s">
@@ -11661,10 +11666,10 @@
       <c r="A57">
         <v>367474</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D57" t="s">
@@ -11684,10 +11689,10 @@
       <c r="A58">
         <v>456330</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D58" t="s">
@@ -11707,10 +11712,10 @@
       <c r="A59">
         <v>53342</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D59" t="s">
@@ -11730,10 +11735,10 @@
       <c r="A60">
         <v>28898</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D60" t="s">
@@ -11753,10 +11758,10 @@
       <c r="A61">
         <v>576117</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D61" t="s">
@@ -11776,10 +11781,10 @@
       <c r="A62">
         <v>76595</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D62" t="s">
@@ -11799,10 +11804,10 @@
       <c r="A63">
         <v>504486</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D63" t="s">
@@ -11822,10 +11827,10 @@
       <c r="A64">
         <v>180163</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D64" t="s">
@@ -11845,10 +11850,10 @@
       <c r="A65">
         <v>393003</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D65" t="s">
@@ -11868,10 +11873,10 @@
       <c r="A66">
         <v>104662</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D66" t="s">
@@ -11891,10 +11896,10 @@
       <c r="A67">
         <v>1004</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D67" t="s">
@@ -11914,10 +11919,10 @@
       <c r="A68">
         <v>331697</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D68" t="s">
@@ -11937,10 +11942,10 @@
       <c r="A69">
         <v>421530</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D69" t="s">
@@ -11960,10 +11965,10 @@
       <c r="A70">
         <v>1278652</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>154</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D70" t="s">
@@ -11983,10 +11988,10 @@
       <c r="A71">
         <v>91624</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D71" t="s">
@@ -12006,10 +12011,10 @@
       <c r="A72">
         <v>349931</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D72" t="s">
@@ -12029,10 +12034,10 @@
       <c r="A73">
         <v>29357</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D73" t="s">
@@ -12052,10 +12057,10 @@
       <c r="A74">
         <v>36845</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D74" t="s">
@@ -12075,10 +12080,10 @@
       <c r="A75">
         <v>259063</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D75" t="s">
@@ -12098,10 +12103,10 @@
       <c r="A76">
         <v>1557</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D76" t="s">
@@ -12121,10 +12126,10 @@
       <c r="A77">
         <v>33954</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D77" t="s">
@@ -12144,10 +12149,10 @@
       <c r="A78">
         <v>29365</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D78" t="s">
@@ -12167,10 +12172,10 @@
       <c r="A79">
         <v>100134</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D79" t="s">
@@ -12190,10 +12195,10 @@
       <c r="A80">
         <v>108437</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D80" t="s">
@@ -12213,10 +12218,10 @@
       <c r="A81">
         <v>990</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D81" t="s">
@@ -12236,10 +12241,10 @@
       <c r="A82">
         <v>109258</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D82" t="s">
@@ -12259,10 +12264,10 @@
       <c r="A83">
         <v>35837</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D83" t="s">
@@ -12282,10 +12287,10 @@
       <c r="A84">
         <v>51616</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D84" t="s">
@@ -12305,10 +12310,10 @@
       <c r="A85">
         <v>888</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D85" t="s">
@@ -12328,10 +12333,10 @@
       <c r="A86">
         <v>897</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D86" t="s">
@@ -12351,10 +12356,10 @@
       <c r="A87">
         <v>51195</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D87" t="s">
@@ -12374,10 +12379,10 @@
       <c r="A88">
         <v>380392</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>172</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D88" t="s">
@@ -12397,10 +12402,10 @@
       <c r="A89">
         <v>231440</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D89" t="s">
@@ -12420,10 +12425,10 @@
       <c r="A90">
         <v>91360</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D90" t="s">
@@ -12443,10 +12448,10 @@
       <c r="A91">
         <v>329936</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D91" t="s">
@@ -12466,10 +12471,10 @@
       <c r="A92">
         <v>53343</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D92" t="s">
@@ -12489,10 +12494,10 @@
       <c r="A93">
         <v>1566</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D93" t="s">
@@ -12512,10 +12517,10 @@
       <c r="A94">
         <v>74701</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D94" t="s">
@@ -12535,10 +12540,10 @@
       <c r="A95">
         <v>348840</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D95" t="s">
@@ -12558,10 +12563,10 @@
       <c r="A96">
         <v>876</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D96" t="s">
@@ -12581,10 +12586,10 @@
       <c r="A97">
         <v>47158</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D97" t="s">
@@ -12604,10 +12609,10 @@
       <c r="A98">
         <v>45629</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D98" t="s">
@@ -12627,10 +12632,10 @@
       <c r="A99">
         <v>575978</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>183</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D99" t="s">
@@ -12650,10 +12655,10 @@
       <c r="A100">
         <v>466107</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>184</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D100" t="s">
@@ -12673,10 +12678,10 @@
       <c r="A101">
         <v>458711</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>185</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D101" t="s">
@@ -12696,10 +12701,10 @@
       <c r="A102">
         <v>299072</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>186</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D102" t="s">
@@ -12719,10 +12724,10 @@
       <c r="A103">
         <v>76007</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>187</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D103" t="s">
@@ -12742,10 +12747,10 @@
       <c r="A104">
         <v>332095</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>188</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D104" t="s">
@@ -12765,10 +12770,10 @@
       <c r="A105">
         <v>288995</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>189</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D105" t="s">
@@ -12788,10 +12793,10 @@
       <c r="A106">
         <v>1294566</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>190</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D106" t="s">
@@ -12811,10 +12816,10 @@
       <c r="A107">
         <v>292407</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D107" t="s">
@@ -12834,10 +12839,10 @@
       <c r="A108">
         <v>363850</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>192</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D108" t="s">
@@ -12857,10 +12862,10 @@
       <c r="A109">
         <v>651661</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>193</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D109" t="s">
@@ -12880,10 +12885,10 @@
       <c r="A110">
         <v>172045</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>194</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D110" t="s">
@@ -12903,10 +12908,10 @@
       <c r="A111">
         <v>504469</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>195</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D111" t="s">
@@ -12926,10 +12931,10 @@
       <c r="A112">
         <v>65700</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>196</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C112" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D112" t="s">
@@ -12949,10 +12954,10 @@
       <c r="A113">
         <v>42322</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
         <v>197</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D113" t="s">
@@ -12972,10 +12977,10 @@
       <c r="A114">
         <v>44754</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>198</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D114" t="s">
@@ -12995,10 +13000,10 @@
       <c r="A115">
         <v>28122</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>199</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C115" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D115" t="s">
@@ -13018,10 +13023,10 @@
       <c r="A116">
         <v>428988</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>200</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D116" t="s">
@@ -13041,10 +13046,10 @@
       <c r="A117">
         <v>654838</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D117" t="s">
@@ -13064,10 +13069,10 @@
       <c r="A118">
         <v>49280</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>202</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D118" t="s">
@@ -13087,10 +13092,10 @@
       <c r="A119">
         <v>745368</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s">
         <v>203</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D119" t="s">
@@ -13110,10 +13115,10 @@
       <c r="A120">
         <v>402884</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
         <v>204</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C120" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D120" t="s">
@@ -13133,10 +13138,10 @@
       <c r="A121">
         <v>115783</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
         <v>205</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C121" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D121" t="s">
@@ -13156,10 +13161,10 @@
       <c r="A122">
         <v>390806</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>206</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D122" t="s">
@@ -13179,10 +13184,10 @@
       <c r="A123">
         <v>334858</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D123" t="s">
@@ -13202,10 +13207,10 @@
       <c r="A124">
         <v>2242</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D124" t="s">
@@ -13225,10 +13230,10 @@
       <c r="A125">
         <v>480814</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D125" t="s">
@@ -13248,10 +13253,10 @@
       <c r="A126">
         <v>180311</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>210</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D126" t="s">
@@ -13271,10 +13276,10 @@
       <c r="A127">
         <v>568105</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s">
         <v>211</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D127" t="s">
@@ -13294,10 +13299,10 @@
       <c r="A128">
         <v>496053</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" t="s">
         <v>212</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C128" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D128" t="s">
@@ -13317,10 +13322,10 @@
       <c r="A129">
         <v>344998</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s">
         <v>213</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D129" t="s">
@@ -13340,10 +13345,10 @@
       <c r="A130">
         <v>446684</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
         <v>214</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D130" t="s">
@@ -13363,10 +13368,10 @@
       <c r="A131">
         <v>265175</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" t="s">
         <v>215</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D131" t="s">
@@ -13386,10 +13391,10 @@
       <c r="A132">
         <v>53444</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
         <v>216</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D132" t="s">
@@ -13409,10 +13414,10 @@
       <c r="A133">
         <v>82688</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s">
         <v>217</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D133" t="s">
@@ -13432,10 +13437,10 @@
       <c r="A134">
         <v>83526</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" t="s">
         <v>218</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D134" t="s">
@@ -13455,10 +13460,10 @@
       <c r="A135">
         <v>643671</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" t="s">
         <v>219</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D135" t="s">
@@ -13478,10 +13483,10 @@
       <c r="A136">
         <v>988</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
         <v>220</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D136" t="s">
@@ -13501,10 +13506,10 @@
       <c r="A137">
         <v>1150508</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s">
         <v>221</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D137" t="s">
@@ -13524,10 +13529,10 @@
       <c r="A138">
         <v>40571</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s">
         <v>222</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D138" t="s">
@@ -13547,10 +13552,10 @@
       <c r="A139">
         <v>438851</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s">
         <v>223</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C139" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D139" t="s">
@@ -13570,10 +13575,10 @@
       <c r="A140">
         <v>262325</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>224</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D140" t="s">
@@ -13593,10 +13598,10 @@
       <c r="A141">
         <v>435289</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" t="s">
         <v>225</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D141" t="s">
@@ -13616,10 +13621,10 @@
       <c r="A142">
         <v>57040</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" t="s">
         <v>226</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D142" t="s">
@@ -13639,10 +13644,10 @@
       <c r="A143">
         <v>561184</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" t="s">
         <v>227</v>
       </c>
-      <c r="C143" s="23" t="s">
+      <c r="C143" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D143" t="s">
@@ -13662,10 +13667,10 @@
       <c r="A144">
         <v>561365</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
         <v>228</v>
       </c>
-      <c r="C144" s="23" t="s">
+      <c r="C144" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D144" t="s">
@@ -13685,10 +13690,10 @@
       <c r="A145">
         <v>429344</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
         <v>229</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="C145" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D145" t="s">
@@ -13708,10 +13713,10 @@
       <c r="A146">
         <v>287990</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s">
         <v>230</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D146" t="s">
@@ -13731,10 +13736,10 @@
       <c r="A147">
         <v>293552</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>231</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D147" t="s">
@@ -13754,10 +13759,10 @@
       <c r="A148">
         <v>1028</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>232</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D148" t="s">
@@ -13777,10 +13782,10 @@
       <c r="A149">
         <v>86796</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" t="s">
         <v>233</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D149" t="s">
@@ -13800,10 +13805,10 @@
       <c r="A150">
         <v>349095</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>234</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C150" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D150" t="s">
@@ -13823,10 +13828,10 @@
       <c r="A151">
         <v>213248</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" t="s">
         <v>235</v>
       </c>
-      <c r="C151" s="23" t="s">
+      <c r="C151" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D151" t="s">
@@ -13846,10 +13851,10 @@
       <c r="A152">
         <v>374425</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
         <v>236</v>
       </c>
-      <c r="C152" s="23" t="s">
+      <c r="C152" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D152" t="s">
@@ -13869,10 +13874,10 @@
       <c r="A153">
         <v>330227</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" t="s">
         <v>237</v>
       </c>
-      <c r="C153" s="23" t="s">
+      <c r="C153" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D153" t="s">
@@ -13892,10 +13897,10 @@
       <c r="A154">
         <v>1071583</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>238</v>
       </c>
-      <c r="C154" s="23" t="s">
+      <c r="C154" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D154" t="s">
@@ -13915,10 +13920,10 @@
       <c r="A155">
         <v>875239</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s">
         <v>239</v>
       </c>
-      <c r="C155" s="23" t="s">
+      <c r="C155" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D155" t="s">
@@ -13938,10 +13943,10 @@
       <c r="A156">
         <v>468058</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s">
         <v>240</v>
       </c>
-      <c r="C156" s="23" t="s">
+      <c r="C156" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D156" t="s">
@@ -13961,10 +13966,10 @@
       <c r="A157">
         <v>33922</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
         <v>241</v>
       </c>
-      <c r="C157" s="23" t="s">
+      <c r="C157" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D157" t="s">
@@ -13984,10 +13989,10 @@
       <c r="A158">
         <v>244584</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" t="s">
         <v>242</v>
       </c>
-      <c r="C158" s="23" t="s">
+      <c r="C158" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D158" t="s">
@@ -14007,10 +14012,10 @@
       <c r="A159">
         <v>171291</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" t="s">
         <v>243</v>
       </c>
-      <c r="C159" s="23" t="s">
+      <c r="C159" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D159" t="s">
@@ -14030,10 +14035,10 @@
       <c r="A160">
         <v>1255265</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s">
         <v>244</v>
       </c>
-      <c r="C160" s="23" t="s">
+      <c r="C160" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D160" t="s">
@@ -14053,10 +14058,10 @@
       <c r="A161">
         <v>756689</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" t="s">
         <v>245</v>
       </c>
-      <c r="C161" s="23" t="s">
+      <c r="C161" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D161" t="s">
@@ -14076,10 +14081,10 @@
       <c r="A162">
         <v>443157</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>246</v>
       </c>
-      <c r="C162" s="23" t="s">
+      <c r="C162" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D162" t="s">
@@ -14099,10 +14104,10 @@
       <c r="A163">
         <v>1843</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" t="s">
         <v>247</v>
       </c>
-      <c r="C163" s="23" t="s">
+      <c r="C163" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D163" t="s">
@@ -14122,10 +14127,10 @@
       <c r="A164">
         <v>223904</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s">
         <v>248</v>
       </c>
-      <c r="C164" s="23" t="s">
+      <c r="C164" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D164" t="s">
@@ -14145,10 +14150,10 @@
       <c r="A165">
         <v>1259470</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s">
         <v>249</v>
       </c>
-      <c r="C165" s="23" t="s">
+      <c r="C165" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D165" t="s">
@@ -14168,10 +14173,10 @@
       <c r="A166">
         <v>424797</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
         <v>250</v>
       </c>
-      <c r="C166" s="23" t="s">
+      <c r="C166" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D166" t="s">
@@ -14191,10 +14196,10 @@
       <c r="A167">
         <v>906888</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" t="s">
         <v>251</v>
       </c>
-      <c r="C167" s="23" t="s">
+      <c r="C167" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D167" t="s">
@@ -14214,10 +14219,10 @@
       <c r="A168">
         <v>191564</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
         <v>252</v>
       </c>
-      <c r="C168" s="23" t="s">
+      <c r="C168" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D168" t="s">
@@ -14237,10 +14242,10 @@
       <c r="A169">
         <v>1189325</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s">
         <v>253</v>
       </c>
-      <c r="C169" s="23" t="s">
+      <c r="C169" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D169" t="s">
@@ -14260,10 +14265,10 @@
       <c r="A170">
         <v>129578</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
         <v>254</v>
       </c>
-      <c r="C170" s="23" t="s">
+      <c r="C170" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D170" t="s">
@@ -14283,10 +14288,10 @@
       <c r="A171">
         <v>64969</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" t="s">
         <v>255</v>
       </c>
-      <c r="C171" s="23" t="s">
+      <c r="C171" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D171" t="s">
@@ -14306,10 +14311,10 @@
       <c r="A172">
         <v>684063</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s">
         <v>256</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="C172" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D172" t="s">
@@ -14329,10 +14334,10 @@
       <c r="A173">
         <v>1243042</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" t="s">
         <v>257</v>
       </c>
-      <c r="C173" s="23" t="s">
+      <c r="C173" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D173" t="s">
@@ -14352,10 +14357,10 @@
       <c r="A174">
         <v>100176</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" t="s">
         <v>258</v>
       </c>
-      <c r="C174" s="23" t="s">
+      <c r="C174" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D174" t="s">
@@ -14375,10 +14380,10 @@
       <c r="A175">
         <v>1037355</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" t="s">
         <v>259</v>
       </c>
-      <c r="C175" s="23" t="s">
+      <c r="C175" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D175" t="s">
@@ -14398,10 +14403,10 @@
       <c r="A176">
         <v>623280</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" t="s">
         <v>260</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C176" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D176" t="s">
@@ -14421,10 +14426,10 @@
       <c r="A177">
         <v>115544</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s">
         <v>261</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D177" t="s">
@@ -14444,10 +14449,10 @@
       <c r="A178">
         <v>351343</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s">
         <v>262</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D178" t="s">
@@ -14467,10 +14472,10 @@
       <c r="A179">
         <v>188932</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="23" t="s">
+      <c r="C179" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D179" t="s">
@@ -14490,10 +14495,10 @@
       <c r="A180">
         <v>572036</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s">
         <v>264</v>
       </c>
-      <c r="C180" s="23" t="s">
+      <c r="C180" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D180" t="s">
@@ -14513,10 +14518,10 @@
       <c r="A181">
         <v>420403</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" t="s">
         <v>265</v>
       </c>
-      <c r="C181" s="23" t="s">
+      <c r="C181" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D181" t="s">
@@ -14536,10 +14541,10 @@
       <c r="A182">
         <v>1167741</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
         <v>266</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C182" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D182" t="s">
@@ -14559,10 +14564,10 @@
       <c r="A183">
         <v>490570</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" t="s">
         <v>267</v>
       </c>
-      <c r="C183" s="23" t="s">
+      <c r="C183" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D183" t="s">
@@ -14582,10 +14587,10 @@
       <c r="A184">
         <v>1456769</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s">
         <v>268</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C184" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D184" t="s">
@@ -14605,10 +14610,10 @@
       <c r="A185">
         <v>263852</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s">
         <v>269</v>
       </c>
-      <c r="C185" s="23" t="s">
+      <c r="C185" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D185" t="s">
@@ -14628,10 +14633,10 @@
       <c r="A186">
         <v>696762</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s">
         <v>270</v>
       </c>
-      <c r="C186" s="23" t="s">
+      <c r="C186" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D186" t="s">
@@ -14651,10 +14656,10 @@
       <c r="A187">
         <v>422297</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
         <v>271</v>
       </c>
-      <c r="C187" s="23" t="s">
+      <c r="C187" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D187" t="s">
@@ -14674,10 +14679,10 @@
       <c r="A188">
         <v>198312</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" t="s">
         <v>272</v>
       </c>
-      <c r="C188" s="23" t="s">
+      <c r="C188" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D188" t="s">
@@ -14697,10 +14702,10 @@
       <c r="A189">
         <v>36874</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" t="s">
         <v>273</v>
       </c>
-      <c r="C189" s="23" t="s">
+      <c r="C189" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D189" t="s">
@@ -14720,10 +14725,10 @@
       <c r="A190">
         <v>29524</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
         <v>274</v>
       </c>
-      <c r="C190" s="23" t="s">
+      <c r="C190" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D190" t="s">
@@ -14743,10 +14748,10 @@
       <c r="A191">
         <v>387890</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" t="s">
         <v>275</v>
       </c>
-      <c r="C191" s="23" t="s">
+      <c r="C191" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D191" t="s">
@@ -14766,10 +14771,10 @@
       <c r="A192">
         <v>176898</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
         <v>276</v>
       </c>
-      <c r="C192" s="23" t="s">
+      <c r="C192" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D192" t="s">
@@ -14789,10 +14794,10 @@
       <c r="A193">
         <v>577679</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s">
         <v>277</v>
       </c>
-      <c r="C193" s="23" t="s">
+      <c r="C193" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D193" t="s">
@@ -14812,10 +14817,10 @@
       <c r="A194">
         <v>185641</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
         <v>278</v>
       </c>
-      <c r="C194" s="23" t="s">
+      <c r="C194" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D194" t="s">
@@ -14835,10 +14840,10 @@
       <c r="A195">
         <v>387889</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s">
         <v>279</v>
       </c>
-      <c r="C195" s="23" t="s">
+      <c r="C195" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D195" t="s">
@@ -14858,10 +14863,10 @@
       <c r="A196">
         <v>228603</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
         <v>280</v>
       </c>
-      <c r="C196" s="23" t="s">
+      <c r="C196" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D196" t="s">
@@ -14881,10 +14886,10 @@
       <c r="A197">
         <v>526729</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s">
         <v>281</v>
       </c>
-      <c r="C197" s="23" t="s">
+      <c r="C197" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D197" t="s">
@@ -14904,10 +14909,10 @@
       <c r="A198">
         <v>765201</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" t="s">
         <v>282</v>
       </c>
-      <c r="C198" s="23" t="s">
+      <c r="C198" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D198" t="s">
@@ -14927,10 +14932,10 @@
       <c r="A199">
         <v>45622</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" t="s">
         <v>283</v>
       </c>
-      <c r="C199" s="23" t="s">
+      <c r="C199" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D199" t="s">
@@ -14950,10 +14955,10 @@
       <c r="A200">
         <v>65401</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
         <v>284</v>
       </c>
-      <c r="C200" s="23" t="s">
+      <c r="C200" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D200" t="s">
@@ -14973,10 +14978,10 @@
       <c r="A201">
         <v>48467</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" t="s">
         <v>285</v>
       </c>
-      <c r="C201" s="23" t="s">
+      <c r="C201" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D201" t="s">
@@ -14996,10 +15001,10 @@
       <c r="A202">
         <v>48464</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" t="s">
         <v>286</v>
       </c>
-      <c r="C202" s="23" t="s">
+      <c r="C202" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D202" t="s">
@@ -15019,10 +15024,10 @@
       <c r="A203">
         <v>185007</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" t="s">
         <v>287</v>
       </c>
-      <c r="C203" s="23" t="s">
+      <c r="C203" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D203" t="s">
@@ -15042,10 +15047,10 @@
       <c r="A204">
         <v>451637</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" t="s">
         <v>288</v>
       </c>
-      <c r="C204" s="23" t="s">
+      <c r="C204" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D204" t="s">
@@ -15065,10 +15070,10 @@
       <c r="A205">
         <v>86175</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s">
         <v>289</v>
       </c>
-      <c r="C205" s="23" t="s">
+      <c r="C205" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D205" t="s">
@@ -15088,10 +15093,10 @@
       <c r="A206">
         <v>157792</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" t="s">
         <v>290</v>
       </c>
-      <c r="C206" s="23" t="s">
+      <c r="C206" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D206" t="s">
@@ -15111,10 +15116,10 @@
       <c r="A207">
         <v>289483</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" t="s">
         <v>291</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C207" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D207" t="s">
@@ -15134,10 +15139,10 @@
       <c r="A208">
         <v>176598</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" t="s">
         <v>292</v>
       </c>
-      <c r="C208" s="23" t="s">
+      <c r="C208" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D208" t="s">
@@ -15157,10 +15162,10 @@
       <c r="A209">
         <v>1256701</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" t="s">
         <v>293</v>
       </c>
-      <c r="C209" s="23" t="s">
+      <c r="C209" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D209" t="s">
@@ -15180,10 +15185,10 @@
       <c r="A210">
         <v>366349</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" t="s">
         <v>294</v>
       </c>
-      <c r="C210" s="23" t="s">
+      <c r="C210" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D210" t="s">
@@ -15203,10 +15208,10 @@
       <c r="A211">
         <v>554335</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" t="s">
         <v>295</v>
       </c>
-      <c r="C211" s="23" t="s">
+      <c r="C211" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D211" t="s">
@@ -15226,10 +15231,10 @@
       <c r="A212">
         <v>182367</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" t="s">
         <v>296</v>
       </c>
-      <c r="C212" s="23" t="s">
+      <c r="C212" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D212" t="s">
@@ -15249,10 +15254,10 @@
       <c r="A213">
         <v>1387244</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" t="s">
         <v>297</v>
       </c>
-      <c r="C213" s="23" t="s">
+      <c r="C213" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D213" t="s">
@@ -15272,10 +15277,10 @@
       <c r="A214">
         <v>1172533</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" t="s">
         <v>298</v>
       </c>
-      <c r="C214" s="23" t="s">
+      <c r="C214" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D214" t="s">
@@ -15295,10 +15300,10 @@
       <c r="A215">
         <v>287609</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="23" t="s">
+      <c r="C215" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D215" t="s">
@@ -15318,10 +15323,10 @@
       <c r="A216">
         <v>198092</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" t="s">
         <v>300</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D216" t="s">
@@ -15341,10 +15346,10 @@
       <c r="A217">
         <v>424704</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" t="s">
         <v>301</v>
       </c>
-      <c r="C217" s="23" t="s">
+      <c r="C217" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D217" t="s">
@@ -15364,10 +15369,10 @@
       <c r="A218">
         <v>407226</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" t="s">
         <v>302</v>
       </c>
-      <c r="C218" s="23" t="s">
+      <c r="C218" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D218" t="s">
@@ -15387,10 +15392,10 @@
       <c r="A219">
         <v>241145</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" t="s">
         <v>303</v>
       </c>
-      <c r="C219" s="23" t="s">
+      <c r="C219" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D219" t="s">
@@ -15410,10 +15415,10 @@
       <c r="A220">
         <v>270918</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" t="s">
         <v>304</v>
       </c>
-      <c r="C220" s="23" t="s">
+      <c r="C220" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D220" t="s">
@@ -15433,10 +15438,10 @@
       <c r="A221">
         <v>435906</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" t="s">
         <v>305</v>
       </c>
-      <c r="C221" s="23" t="s">
+      <c r="C221" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D221" t="s">
@@ -15456,10 +15461,10 @@
       <c r="A222">
         <v>143223</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" t="s">
         <v>306</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="C222" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D222" t="s">
@@ -15479,10 +15484,10 @@
       <c r="A223">
         <v>447422</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" t="s">
         <v>307</v>
       </c>
-      <c r="C223" s="23" t="s">
+      <c r="C223" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D223" t="s">
@@ -15502,10 +15507,10 @@
       <c r="A224">
         <v>148453</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" t="s">
         <v>308</v>
       </c>
-      <c r="C224" s="23" t="s">
+      <c r="C224" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D224" t="s">
@@ -15525,10 +15530,10 @@
       <c r="A225">
         <v>255519</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" t="s">
         <v>309</v>
       </c>
-      <c r="C225" s="23" t="s">
+      <c r="C225" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D225" t="s">
@@ -15548,10 +15553,10 @@
       <c r="A226">
         <v>130788</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" t="s">
         <v>310</v>
       </c>
-      <c r="C226" s="23" t="s">
+      <c r="C226" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D226" t="s">
@@ -15571,10 +15576,10 @@
       <c r="A227">
         <v>142842</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" t="s">
         <v>311</v>
       </c>
-      <c r="C227" s="23" t="s">
+      <c r="C227" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D227" t="s">
@@ -15594,10 +15599,10 @@
       <c r="A228">
         <v>253256</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" t="s">
         <v>312</v>
       </c>
-      <c r="C228" s="23" t="s">
+      <c r="C228" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D228" t="s">
@@ -15617,10 +15622,10 @@
       <c r="A229">
         <v>619805</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" t="s">
         <v>313</v>
       </c>
-      <c r="C229" s="23" t="s">
+      <c r="C229" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D229" t="s">
@@ -15640,10 +15645,10 @@
       <c r="A230">
         <v>28454</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" t="s">
         <v>314</v>
       </c>
-      <c r="C230" s="23" t="s">
+      <c r="C230" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D230" t="s">
@@ -15663,10 +15668,10 @@
       <c r="A231">
         <v>563996</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" t="s">
         <v>315</v>
       </c>
-      <c r="C231" s="23" t="s">
+      <c r="C231" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D231" t="s">
@@ -15686,10 +15691,10 @@
       <c r="A232">
         <v>397260</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" t="s">
         <v>316</v>
       </c>
-      <c r="C232" s="23" t="s">
+      <c r="C232" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D232" t="s">
@@ -15709,10 +15714,10 @@
       <c r="A233">
         <v>160791</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" t="s">
         <v>317</v>
       </c>
-      <c r="C233" s="23" t="s">
+      <c r="C233" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D233" t="s">
@@ -15732,10 +15737,10 @@
       <c r="A234">
         <v>394733</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" t="s">
         <v>318</v>
       </c>
-      <c r="C234" s="23" t="s">
+      <c r="C234" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D234" t="s">
@@ -15755,10 +15760,10 @@
       <c r="A235">
         <v>394732</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" t="s">
         <v>319</v>
       </c>
-      <c r="C235" s="23" t="s">
+      <c r="C235" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D235" t="s">
@@ -15778,10 +15783,10 @@
       <c r="A236">
         <v>286803</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" t="s">
         <v>320</v>
       </c>
-      <c r="C236" s="23" t="s">
+      <c r="C236" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D236" t="s">
@@ -15801,10 +15806,10 @@
       <c r="A237">
         <v>44749</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" t="s">
         <v>321</v>
       </c>
-      <c r="C237" s="23" t="s">
+      <c r="C237" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D237" t="s">
@@ -15824,10 +15829,10 @@
       <c r="A238">
         <v>406432</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" t="s">
         <v>322</v>
       </c>
-      <c r="C238" s="23" t="s">
+      <c r="C238" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D238" t="s">
@@ -15847,10 +15852,10 @@
       <c r="A239">
         <v>1933</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" t="s">
         <v>323</v>
       </c>
-      <c r="C239" s="23" t="s">
+      <c r="C239" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D239" t="s">
@@ -15870,10 +15875,10 @@
       <c r="A240">
         <v>83771</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" t="s">
         <v>324</v>
       </c>
-      <c r="C240" s="23" t="s">
+      <c r="C240" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D240" t="s">
@@ -15893,10 +15898,10 @@
       <c r="A241">
         <v>619730</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" t="s">
         <v>325</v>
       </c>
-      <c r="C241" s="23" t="s">
+      <c r="C241" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D241" t="s">
@@ -15916,10 +15921,10 @@
       <c r="A242">
         <v>266809</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" t="s">
         <v>326</v>
       </c>
-      <c r="C242" s="23" t="s">
+      <c r="C242" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D242" t="s">
@@ -15939,10 +15944,10 @@
       <c r="A243">
         <v>447593</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" t="s">
         <v>327</v>
       </c>
-      <c r="C243" s="23" t="s">
+      <c r="C243" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D243" t="s">
@@ -15962,10 +15967,10 @@
       <c r="A244">
         <v>412896</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" t="s">
         <v>328</v>
       </c>
-      <c r="C244" s="23" t="s">
+      <c r="C244" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D244" t="s">
@@ -15985,10 +15990,10 @@
       <c r="A245">
         <v>213588</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" t="s">
         <v>329</v>
       </c>
-      <c r="C245" s="23" t="s">
+      <c r="C245" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D245" t="s">
@@ -16008,10 +16013,10 @@
       <c r="A246">
         <v>238991</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" t="s">
         <v>330</v>
       </c>
-      <c r="C246" s="23" t="s">
+      <c r="C246" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D246" t="s">
@@ -16031,10 +16036,10 @@
       <c r="A247">
         <v>54294</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" t="s">
         <v>331</v>
       </c>
-      <c r="C247" s="23" t="s">
+      <c r="C247" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D247" t="s">
@@ -16054,10 +16059,10 @@
       <c r="A248">
         <v>92487</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" t="s">
         <v>332</v>
       </c>
-      <c r="C248" s="23" t="s">
+      <c r="C248" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D248" t="s">
@@ -16077,10 +16082,10 @@
       <c r="A249">
         <v>43131</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" t="s">
         <v>333</v>
       </c>
-      <c r="C249" s="23" t="s">
+      <c r="C249" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D249" t="s">
@@ -16100,10 +16105,10 @@
       <c r="A250">
         <v>225004</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" t="s">
         <v>334</v>
       </c>
-      <c r="C250" s="23" t="s">
+      <c r="C250" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D250" t="s">
@@ -16123,10 +16128,10 @@
       <c r="A251">
         <v>261392</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" t="s">
         <v>335</v>
       </c>
-      <c r="C251" s="23" t="s">
+      <c r="C251" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D251" t="s">
@@ -16146,10 +16151,10 @@
       <c r="A252">
         <v>158751</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" t="s">
         <v>336</v>
       </c>
-      <c r="C252" s="23" t="s">
+      <c r="C252" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D252" t="s">
@@ -16169,10 +16174,10 @@
       <c r="A253">
         <v>160236</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" t="s">
         <v>337</v>
       </c>
-      <c r="C253" s="23" t="s">
+      <c r="C253" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D253" t="s">
@@ -16192,10 +16197,10 @@
       <c r="A254">
         <v>227322</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" t="s">
         <v>338</v>
       </c>
-      <c r="C254" s="23" t="s">
+      <c r="C254" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D254" t="s">
@@ -16215,10 +16220,10 @@
       <c r="A255">
         <v>349273</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" t="s">
         <v>339</v>
       </c>
-      <c r="C255" s="23" t="s">
+      <c r="C255" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D255" t="s">
@@ -16238,10 +16243,10 @@
       <c r="A256">
         <v>114707</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" t="s">
         <v>340</v>
       </c>
-      <c r="C256" s="23" t="s">
+      <c r="C256" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D256" t="s">
@@ -16261,10 +16266,10 @@
       <c r="A257">
         <v>158754</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" t="s">
         <v>341</v>
       </c>
-      <c r="C257" s="23" t="s">
+      <c r="C257" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D257" t="s">
@@ -16284,10 +16289,10 @@
       <c r="A258">
         <v>435912</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" t="s">
         <v>342</v>
       </c>
-      <c r="C258" s="23" t="s">
+      <c r="C258" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D258" t="s">
@@ -16307,10 +16312,10 @@
       <c r="A259">
         <v>184755</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" t="s">
         <v>343</v>
       </c>
-      <c r="C259" s="23" t="s">
+      <c r="C259" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D259" t="s">
@@ -16330,10 +16335,10 @@
       <c r="A260">
         <v>321325</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" t="s">
         <v>344</v>
       </c>
-      <c r="C260" s="23" t="s">
+      <c r="C260" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D260" t="s">
@@ -16353,10 +16358,10 @@
       <c r="A261">
         <v>72806</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" t="s">
         <v>345</v>
       </c>
-      <c r="C261" s="23" t="s">
+      <c r="C261" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D261" t="s">
@@ -16376,10 +16381,10 @@
       <c r="A262">
         <v>391736</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" t="s">
         <v>346</v>
       </c>
-      <c r="C262" s="23" t="s">
+      <c r="C262" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D262" t="s">
@@ -16399,10 +16404,10 @@
       <c r="A263">
         <v>355930</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" t="s">
         <v>347</v>
       </c>
-      <c r="C263" s="23" t="s">
+      <c r="C263" s="21" t="s">
         <v>349</v>
       </c>
       <c r="D263" t="s">
@@ -16444,120 +16449,120 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1"/>
     <row r="2" spans="1:5" ht="20" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1"/>
     <row r="4" spans="1:5" ht="20" customHeight="1">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" thickBot="1">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" thickBot="1">
-      <c r="B11" s="26"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="24"/>
+      <c r="D11" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
-      <c r="B13" s="25"/>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="23"/>
+      <c r="D13" s="18" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20" customHeight="1">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>1E-3</v>
       </c>
     </row>

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijm/local/recentrifuge/recentrifuge/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martimartine1/local/recentrifuge/recentrifuge/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB8A60-DA43-C244-BBBE-4A07230AEA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745E701B-5BBC-F345-BFB0-F0057E053ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42700" yWindow="-2580" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-53460" yWindow="-10160" windowWidth="44840" windowHeight="25640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,6 @@
     <t>Actinokineospora globicatena</t>
   </si>
   <si>
-    <t>Actinomadura glauciflava</t>
-  </si>
-  <si>
     <t>Actinosynnema pretiosum</t>
   </si>
   <si>
@@ -1173,12 +1170,15 @@
   <si>
     <t>Neoroseomonas lacus</t>
   </si>
+  <si>
+    <t>Actinomadura luteofluorescens</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1253,6 +1253,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1441,7 +1448,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1495,6 +1502,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1791,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1829,7 +1837,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2666,10 +2674,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28">
-        <v>96101</v>
+        <v>369</v>
+      </c>
+      <c r="B28" s="35">
+        <v>46163</v>
       </c>
       <c r="C28" s="28">
         <v>3</v>
@@ -2698,7 +2706,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>42197</v>
@@ -2730,7 +2738,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30">
         <v>1080</v>
@@ -2762,7 +2770,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31">
         <v>41985</v>
@@ -2794,7 +2802,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32">
         <v>293890</v>
@@ -2826,7 +2834,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>196587</v>
@@ -2858,7 +2866,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>279824</v>
@@ -2890,7 +2898,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>237019</v>
@@ -2922,7 +2930,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36">
         <v>57028</v>
@@ -2954,7 +2962,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37">
         <v>291403</v>
@@ -2986,7 +2994,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <v>235931</v>
@@ -3018,7 +3026,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39">
         <v>889453</v>
@@ -3050,7 +3058,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>1120994</v>
@@ -3082,7 +3090,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>82374</v>
@@ -3114,7 +3122,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>561088</v>
@@ -3146,7 +3154,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>591202</v>
@@ -3178,7 +3186,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>440515</v>
@@ -3210,7 +3218,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45">
         <v>188872</v>
@@ -3242,7 +3250,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <v>375061</v>
@@ -3274,7 +3282,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47">
         <v>394340</v>
@@ -3306,7 +3314,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48">
         <v>180295</v>
@@ -3338,7 +3346,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49">
         <v>370622</v>
@@ -3370,7 +3378,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50">
         <v>41977</v>
@@ -3402,7 +3410,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B51">
         <v>116849</v>
@@ -3434,7 +3442,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B52">
         <v>170623</v>
@@ -3466,7 +3474,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53">
         <v>454048</v>
@@ -3498,7 +3506,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54">
         <v>53254</v>
@@ -3530,7 +3538,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55">
         <v>71656</v>
@@ -3562,7 +3570,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56">
         <v>55210</v>
@@ -3594,7 +3602,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57">
         <v>509094</v>
@@ -3626,7 +3634,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B58">
         <v>575302</v>
@@ -3658,7 +3666,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59">
         <v>367474</v>
@@ -3690,7 +3698,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60">
         <v>456330</v>
@@ -3722,7 +3730,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61">
         <v>53342</v>
@@ -3754,7 +3762,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62">
         <v>28898</v>
@@ -3786,7 +3794,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63">
         <v>576117</v>
@@ -3818,7 +3826,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B64">
         <v>76595</v>
@@ -3850,7 +3858,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B65">
         <v>504486</v>
@@ -3882,7 +3890,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66">
         <v>180163</v>
@@ -3914,7 +3922,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67">
         <v>393003</v>
@@ -3946,7 +3954,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B68">
         <v>104662</v>
@@ -3978,7 +3986,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B69">
         <v>1004</v>
@@ -4010,7 +4018,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70">
         <v>331697</v>
@@ -4042,7 +4050,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B71">
         <v>421530</v>
@@ -4074,7 +4082,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B72">
         <v>1278652</v>
@@ -4106,7 +4114,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B73">
         <v>91624</v>
@@ -4138,7 +4146,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74">
         <v>349931</v>
@@ -4170,7 +4178,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B75">
         <v>29357</v>
@@ -4202,7 +4210,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B76">
         <v>36845</v>
@@ -4234,7 +4242,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B77">
         <v>259063</v>
@@ -4266,7 +4274,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B78">
         <v>1557</v>
@@ -4298,7 +4306,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79">
         <v>33954</v>
@@ -4330,7 +4338,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B80">
         <v>29365</v>
@@ -4362,7 +4370,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B81">
         <v>100134</v>
@@ -4394,7 +4402,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82">
         <v>108437</v>
@@ -4426,7 +4434,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B83">
         <v>990</v>
@@ -4458,7 +4466,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84">
         <v>109258</v>
@@ -4490,7 +4498,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85">
         <v>35837</v>
@@ -4522,7 +4530,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86">
         <v>51616</v>
@@ -4554,7 +4562,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87">
         <v>888</v>
@@ -4586,7 +4594,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B88">
         <v>897</v>
@@ -4618,7 +4626,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B89">
         <v>51195</v>
@@ -4650,7 +4658,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90">
         <v>380392</v>
@@ -4682,7 +4690,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91">
         <v>231440</v>
@@ -4714,7 +4722,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B92">
         <v>91360</v>
@@ -4746,7 +4754,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B93">
         <v>329936</v>
@@ -4778,7 +4786,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B94">
         <v>53343</v>
@@ -4810,7 +4818,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B95">
         <v>1566</v>
@@ -4842,7 +4850,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B96">
         <v>74701</v>
@@ -4874,7 +4882,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B97">
         <v>348840</v>
@@ -4906,7 +4914,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B98">
         <v>876</v>
@@ -4938,7 +4946,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B99">
         <v>47158</v>
@@ -4970,7 +4978,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B100">
         <v>45629</v>
@@ -5002,7 +5010,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101">
         <v>575978</v>
@@ -5034,7 +5042,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B102">
         <v>466107</v>
@@ -5066,7 +5074,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B103">
         <v>458711</v>
@@ -5098,7 +5106,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B104">
         <v>299072</v>
@@ -5130,7 +5138,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B105">
         <v>76007</v>
@@ -5162,7 +5170,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106">
         <v>332095</v>
@@ -5194,7 +5202,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B107">
         <v>288995</v>
@@ -5226,7 +5234,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B108">
         <v>1294566</v>
@@ -5258,7 +5266,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B109">
         <v>292407</v>
@@ -5290,7 +5298,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B110">
         <v>363850</v>
@@ -5322,7 +5330,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B111">
         <v>651661</v>
@@ -5354,7 +5362,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B112">
         <v>172045</v>
@@ -5386,7 +5394,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B113">
         <v>504469</v>
@@ -5418,7 +5426,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B114">
         <v>65700</v>
@@ -5450,7 +5458,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B115">
         <v>42322</v>
@@ -5482,7 +5490,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B116">
         <v>44754</v>
@@ -5514,7 +5522,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B117">
         <v>28122</v>
@@ -5546,7 +5554,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B118">
         <v>428988</v>
@@ -5578,7 +5586,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B119">
         <v>654838</v>
@@ -5610,7 +5618,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B120">
         <v>49280</v>
@@ -5642,7 +5650,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B121">
         <v>745368</v>
@@ -5674,7 +5682,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B122">
         <v>402884</v>
@@ -5706,7 +5714,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B123">
         <v>115783</v>
@@ -5738,7 +5746,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B124">
         <v>390806</v>
@@ -5770,7 +5778,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B125">
         <v>334858</v>
@@ -5802,7 +5810,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B126">
         <v>2242</v>
@@ -5834,7 +5842,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B127">
         <v>480814</v>
@@ -5866,7 +5874,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B128">
         <v>180311</v>
@@ -5898,7 +5906,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B129">
         <v>568105</v>
@@ -5930,7 +5938,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B130">
         <v>496053</v>
@@ -5962,7 +5970,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B131">
         <v>344998</v>
@@ -5994,7 +6002,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B132">
         <v>446684</v>
@@ -6026,7 +6034,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B133">
         <v>265175</v>
@@ -6058,7 +6066,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B134">
         <v>53444</v>
@@ -6090,7 +6098,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B135">
         <v>82688</v>
@@ -6122,7 +6130,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B136">
         <v>83526</v>
@@ -6154,7 +6162,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B137">
         <v>643671</v>
@@ -6186,7 +6194,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B138">
         <v>988</v>
@@ -6218,7 +6226,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B139">
         <v>1150508</v>
@@ -6250,7 +6258,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B140">
         <v>40571</v>
@@ -6282,7 +6290,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B141">
         <v>438851</v>
@@ -6314,7 +6322,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B142">
         <v>262325</v>
@@ -6346,7 +6354,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B143">
         <v>435289</v>
@@ -6378,7 +6386,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B144">
         <v>57040</v>
@@ -6410,7 +6418,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B145">
         <v>561184</v>
@@ -6442,7 +6450,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B146">
         <v>561365</v>
@@ -6474,7 +6482,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B147">
         <v>429344</v>
@@ -6506,7 +6514,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B148">
         <v>287990</v>
@@ -6538,7 +6546,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B149">
         <v>293552</v>
@@ -6570,7 +6578,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B150">
         <v>1028</v>
@@ -6602,7 +6610,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B151">
         <v>86796</v>
@@ -6634,7 +6642,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B152">
         <v>349095</v>
@@ -6666,7 +6674,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B153">
         <v>213248</v>
@@ -6698,7 +6706,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B154">
         <v>374425</v>
@@ -6730,7 +6738,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B155">
         <v>330227</v>
@@ -6762,7 +6770,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B156">
         <v>1071583</v>
@@ -6794,7 +6802,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B157">
         <v>875239</v>
@@ -6826,7 +6834,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B158">
         <v>468058</v>
@@ -6858,7 +6866,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B159">
         <v>33922</v>
@@ -6890,7 +6898,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B160">
         <v>244584</v>
@@ -6922,7 +6930,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B161">
         <v>171291</v>
@@ -6954,7 +6962,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B162">
         <v>1255265</v>
@@ -6986,7 +6994,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B163">
         <v>756689</v>
@@ -7018,7 +7026,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B164">
         <v>443157</v>
@@ -7050,7 +7058,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B165">
         <v>1843</v>
@@ -7082,7 +7090,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B166">
         <v>223904</v>
@@ -7114,7 +7122,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B167">
         <v>1259470</v>
@@ -7146,7 +7154,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B168">
         <v>424797</v>
@@ -7178,7 +7186,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B169">
         <v>906888</v>
@@ -7210,7 +7218,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B170">
         <v>191564</v>
@@ -7242,7 +7250,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B171">
         <v>1189325</v>
@@ -7274,7 +7282,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B172">
         <v>129578</v>
@@ -7306,7 +7314,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B173">
         <v>64969</v>
@@ -7338,7 +7346,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B174">
         <v>684063</v>
@@ -7370,7 +7378,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B175">
         <v>1243042</v>
@@ -7402,7 +7410,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B176">
         <v>100176</v>
@@ -7434,7 +7442,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B177">
         <v>1037355</v>
@@ -7466,7 +7474,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B178">
         <v>623280</v>
@@ -7498,7 +7506,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B179">
         <v>115544</v>
@@ -7530,7 +7538,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B180">
         <v>351343</v>
@@ -7562,7 +7570,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B181">
         <v>188932</v>
@@ -7594,7 +7602,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B182">
         <v>572036</v>
@@ -7626,7 +7634,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B183">
         <v>420403</v>
@@ -7658,7 +7666,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B184">
         <v>1167741</v>
@@ -7690,7 +7698,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B185">
         <v>490570</v>
@@ -7722,7 +7730,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B186">
         <v>1456769</v>
@@ -7754,7 +7762,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B187">
         <v>263852</v>
@@ -7786,7 +7794,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B188">
         <v>696762</v>
@@ -7818,7 +7826,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B189">
         <v>422297</v>
@@ -7850,7 +7858,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B190">
         <v>198312</v>
@@ -7882,7 +7890,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B191">
         <v>36874</v>
@@ -7914,7 +7922,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B192">
         <v>29524</v>
@@ -7946,7 +7954,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B193">
         <v>387890</v>
@@ -7978,7 +7986,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B194">
         <v>176898</v>
@@ -8010,7 +8018,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B195">
         <v>577679</v>
@@ -8042,7 +8050,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B196">
         <v>185641</v>
@@ -8074,7 +8082,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B197">
         <v>387889</v>
@@ -8106,7 +8114,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B198">
         <v>228603</v>
@@ -8138,7 +8146,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B199">
         <v>526729</v>
@@ -8170,7 +8178,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B200">
         <v>765201</v>
@@ -8202,7 +8210,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B201">
         <v>45622</v>
@@ -8234,7 +8242,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B202">
         <v>65401</v>
@@ -8266,7 +8274,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B203">
         <v>48467</v>
@@ -8298,7 +8306,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B204">
         <v>48464</v>
@@ -8330,7 +8338,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B205">
         <v>185007</v>
@@ -8362,7 +8370,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B206">
         <v>451637</v>
@@ -8394,7 +8402,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B207">
         <v>86175</v>
@@ -8426,7 +8434,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B208">
         <v>157792</v>
@@ -8458,7 +8466,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B209">
         <v>289483</v>
@@ -8490,7 +8498,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B210">
         <v>176598</v>
@@ -8522,7 +8530,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B211">
         <v>1256701</v>
@@ -8554,7 +8562,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B212">
         <v>366349</v>
@@ -8586,7 +8594,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B213">
         <v>554335</v>
@@ -8618,7 +8626,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B214">
         <v>182367</v>
@@ -8650,7 +8658,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B215">
         <v>1387244</v>
@@ -8682,7 +8690,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B216">
         <v>1172533</v>
@@ -8714,7 +8722,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B217">
         <v>287609</v>
@@ -8746,7 +8754,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B218">
         <v>198092</v>
@@ -8778,7 +8786,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B219">
         <v>424704</v>
@@ -8810,7 +8818,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B220">
         <v>407226</v>
@@ -8842,7 +8850,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B221">
         <v>241145</v>
@@ -8874,7 +8882,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B222">
         <v>270918</v>
@@ -8906,7 +8914,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B223">
         <v>435906</v>
@@ -8938,7 +8946,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B224">
         <v>143223</v>
@@ -8970,7 +8978,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B225">
         <v>447422</v>
@@ -9002,7 +9010,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B226">
         <v>148453</v>
@@ -9034,7 +9042,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B227">
         <v>255519</v>
@@ -9066,7 +9074,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B228">
         <v>130788</v>
@@ -9098,7 +9106,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B229">
         <v>142842</v>
@@ -9130,7 +9138,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B230">
         <v>253256</v>
@@ -9162,7 +9170,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B231">
         <v>619805</v>
@@ -9194,7 +9202,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B232">
         <v>28454</v>
@@ -9226,7 +9234,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B233">
         <v>563996</v>
@@ -9258,7 +9266,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B234">
         <v>397260</v>
@@ -9290,7 +9298,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B235">
         <v>160791</v>
@@ -9322,7 +9330,7 @@
     </row>
     <row r="236" spans="1:10" ht="17">
       <c r="A236" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B236">
         <v>394733</v>
@@ -9354,7 +9362,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B237">
         <v>394732</v>
@@ -9386,7 +9394,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B238">
         <v>286803</v>
@@ -9418,7 +9426,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B239">
         <v>44749</v>
@@ -9450,7 +9458,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B240">
         <v>406432</v>
@@ -9482,7 +9490,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B241">
         <v>1933</v>
@@ -9514,7 +9522,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B242">
         <v>83771</v>
@@ -9546,7 +9554,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B243">
         <v>619730</v>
@@ -9578,7 +9586,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B244">
         <v>266809</v>
@@ -9610,7 +9618,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B245">
         <v>447593</v>
@@ -9642,7 +9650,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B246">
         <v>412896</v>
@@ -9674,7 +9682,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B247">
         <v>213588</v>
@@ -9706,7 +9714,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B248">
         <v>238991</v>
@@ -9738,7 +9746,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B249">
         <v>54294</v>
@@ -9770,7 +9778,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B250">
         <v>92487</v>
@@ -9802,7 +9810,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B251">
         <v>43131</v>
@@ -9834,7 +9842,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B252">
         <v>225004</v>
@@ -9866,7 +9874,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B253">
         <v>261392</v>
@@ -9898,7 +9906,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B254">
         <v>158751</v>
@@ -9930,7 +9938,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B255">
         <v>160236</v>
@@ -9962,7 +9970,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B256">
         <v>227322</v>
@@ -9994,7 +10002,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B257">
         <v>349273</v>
@@ -10026,7 +10034,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B258">
         <v>114707</v>
@@ -10058,7 +10066,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B259">
         <v>158754</v>
@@ -10090,7 +10098,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B260">
         <v>435912</v>
@@ -10122,7 +10130,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B261">
         <v>184755</v>
@@ -10154,7 +10162,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B262">
         <v>321325</v>
@@ -10186,7 +10194,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B263">
         <v>72806</v>
@@ -10218,7 +10226,7 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B264">
         <v>391736</v>
@@ -10250,7 +10258,7 @@
     </row>
     <row r="265" spans="1:10" ht="17" thickBot="1">
       <c r="A265" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B265">
         <v>355930</v>
@@ -10282,7 +10290,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -10360,8 +10368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10394,7 +10402,7 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10888,13 +10896,13 @@
         <v>107</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -10911,13 +10919,13 @@
         <v>108</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D24" t="s">
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F24" t="s">
         <v>59</v>
@@ -10934,13 +10942,13 @@
         <v>109</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -10951,19 +10959,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>96101</v>
+        <v>46163</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>369</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
@@ -10977,16 +10985,16 @@
         <v>42197</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F27" t="s">
         <v>59</v>
@@ -11000,16 +11008,16 @@
         <v>1080</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D28" t="s">
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
@@ -11023,16 +11031,16 @@
         <v>41985</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F29" t="s">
         <v>59</v>
@@ -11046,16 +11054,16 @@
         <v>293890</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -11069,16 +11077,16 @@
         <v>196587</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D31" t="s">
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -11092,16 +11100,16 @@
         <v>279824</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F32" t="s">
         <v>59</v>
@@ -11115,16 +11123,16 @@
         <v>237019</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
         <v>59</v>
@@ -11138,16 +11146,16 @@
         <v>57028</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -11161,16 +11169,16 @@
         <v>291403</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D35" t="s">
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F35" t="s">
         <v>59</v>
@@ -11184,16 +11192,16 @@
         <v>235931</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -11207,16 +11215,16 @@
         <v>889453</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D37" t="s">
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
@@ -11230,16 +11238,16 @@
         <v>1120994</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D38" t="s">
         <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F38" t="s">
         <v>59</v>
@@ -11253,16 +11261,16 @@
         <v>82374</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D39" t="s">
         <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
@@ -11276,16 +11284,16 @@
         <v>561088</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
@@ -11299,16 +11307,16 @@
         <v>591202</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" t="s">
         <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -11322,16 +11330,16 @@
         <v>440515</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D42" t="s">
         <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F42" t="s">
         <v>59</v>
@@ -11345,16 +11353,16 @@
         <v>188872</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D43" t="s">
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F43" t="s">
         <v>59</v>
@@ -11368,16 +11376,16 @@
         <v>375061</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F44" t="s">
         <v>59</v>
@@ -11391,16 +11399,16 @@
         <v>394340</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F45" t="s">
         <v>59</v>
@@ -11414,16 +11422,16 @@
         <v>180295</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D46" t="s">
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F46" t="s">
         <v>59</v>
@@ -11437,16 +11445,16 @@
         <v>370622</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F47" t="s">
         <v>59</v>
@@ -11460,16 +11468,16 @@
         <v>41977</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D48" t="s">
         <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F48" t="s">
         <v>59</v>
@@ -11483,16 +11491,16 @@
         <v>116849</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D49" t="s">
         <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F49" t="s">
         <v>59</v>
@@ -11506,16 +11514,16 @@
         <v>170623</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D50" t="s">
         <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F50" t="s">
         <v>59</v>
@@ -11529,16 +11537,16 @@
         <v>454048</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D51" t="s">
         <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F51" t="s">
         <v>59</v>
@@ -11552,16 +11560,16 @@
         <v>53254</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D52" t="s">
         <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F52" t="s">
         <v>59</v>
@@ -11575,16 +11583,16 @@
         <v>71656</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
         <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
         <v>59</v>
@@ -11598,16 +11606,16 @@
         <v>55210</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
         <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F54" t="s">
         <v>59</v>
@@ -11621,16 +11629,16 @@
         <v>509094</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F55" t="s">
         <v>59</v>
@@ -11644,16 +11652,16 @@
         <v>575302</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D56" t="s">
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -11667,16 +11675,16 @@
         <v>367474</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D57" t="s">
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F57" t="s">
         <v>59</v>
@@ -11690,16 +11698,16 @@
         <v>456330</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F58" t="s">
         <v>59</v>
@@ -11713,16 +11721,16 @@
         <v>53342</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F59" t="s">
         <v>59</v>
@@ -11736,16 +11744,16 @@
         <v>28898</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
         <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
         <v>59</v>
@@ -11759,16 +11767,16 @@
         <v>576117</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" t="s">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F61" t="s">
         <v>59</v>
@@ -11782,16 +11790,16 @@
         <v>76595</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D62" t="s">
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F62" t="s">
         <v>59</v>
@@ -11805,16 +11813,16 @@
         <v>504486</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D63" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F63" t="s">
         <v>59</v>
@@ -11828,16 +11836,16 @@
         <v>180163</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D64" t="s">
         <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F64" t="s">
         <v>59</v>
@@ -11851,16 +11859,16 @@
         <v>393003</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D65" t="s">
         <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F65" t="s">
         <v>59</v>
@@ -11874,16 +11882,16 @@
         <v>104662</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D66" t="s">
         <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F66" t="s">
         <v>59</v>
@@ -11897,16 +11905,16 @@
         <v>1004</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" t="s">
         <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
         <v>59</v>
@@ -11920,16 +11928,16 @@
         <v>331697</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D68" t="s">
         <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
         <v>59</v>
@@ -11943,16 +11951,16 @@
         <v>421530</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D69" t="s">
         <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F69" t="s">
         <v>59</v>
@@ -11966,16 +11974,16 @@
         <v>1278652</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D70" t="s">
         <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F70" t="s">
         <v>59</v>
@@ -11989,16 +11997,16 @@
         <v>91624</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D71" t="s">
         <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F71" t="s">
         <v>59</v>
@@ -12012,16 +12020,16 @@
         <v>349931</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D72" t="s">
         <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F72" t="s">
         <v>59</v>
@@ -12035,16 +12043,16 @@
         <v>29357</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D73" t="s">
         <v>60</v>
       </c>
       <c r="E73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F73" t="s">
         <v>59</v>
@@ -12058,16 +12066,16 @@
         <v>36845</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D74" t="s">
         <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F74" t="s">
         <v>59</v>
@@ -12081,16 +12089,16 @@
         <v>259063</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D75" t="s">
         <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F75" t="s">
         <v>59</v>
@@ -12104,16 +12112,16 @@
         <v>1557</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D76" t="s">
         <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F76" t="s">
         <v>59</v>
@@ -12127,16 +12135,16 @@
         <v>33954</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D77" t="s">
         <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F77" t="s">
         <v>59</v>
@@ -12150,16 +12158,16 @@
         <v>29365</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D78" t="s">
         <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F78" t="s">
         <v>59</v>
@@ -12173,16 +12181,16 @@
         <v>100134</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D79" t="s">
         <v>60</v>
       </c>
       <c r="E79" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F79" t="s">
         <v>59</v>
@@ -12196,16 +12204,16 @@
         <v>108437</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D80" t="s">
         <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F80" t="s">
         <v>59</v>
@@ -12219,16 +12227,16 @@
         <v>990</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
         <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F81" t="s">
         <v>59</v>
@@ -12242,16 +12250,16 @@
         <v>109258</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D82" t="s">
         <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F82" t="s">
         <v>59</v>
@@ -12265,16 +12273,16 @@
         <v>35837</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D83" t="s">
         <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F83" t="s">
         <v>59</v>
@@ -12288,16 +12296,16 @@
         <v>51616</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D84" t="s">
         <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F84" t="s">
         <v>59</v>
@@ -12311,16 +12319,16 @@
         <v>888</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D85" t="s">
         <v>60</v>
       </c>
       <c r="E85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F85" t="s">
         <v>59</v>
@@ -12334,16 +12342,16 @@
         <v>897</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D86" t="s">
         <v>60</v>
       </c>
       <c r="E86" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F86" t="s">
         <v>59</v>
@@ -12357,16 +12365,16 @@
         <v>51195</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D87" t="s">
         <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F87" t="s">
         <v>59</v>
@@ -12380,16 +12388,16 @@
         <v>380392</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D88" t="s">
         <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
         <v>59</v>
@@ -12403,16 +12411,16 @@
         <v>231440</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D89" t="s">
         <v>60</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F89" t="s">
         <v>59</v>
@@ -12426,16 +12434,16 @@
         <v>91360</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D90" t="s">
         <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F90" t="s">
         <v>59</v>
@@ -12449,16 +12457,16 @@
         <v>329936</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D91" t="s">
         <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F91" t="s">
         <v>59</v>
@@ -12472,16 +12480,16 @@
         <v>53343</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D92" t="s">
         <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F92" t="s">
         <v>59</v>
@@ -12495,16 +12503,16 @@
         <v>1566</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D93" t="s">
         <v>60</v>
       </c>
       <c r="E93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F93" t="s">
         <v>59</v>
@@ -12518,16 +12526,16 @@
         <v>74701</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D94" t="s">
         <v>60</v>
       </c>
       <c r="E94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F94" t="s">
         <v>59</v>
@@ -12541,16 +12549,16 @@
         <v>348840</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D95" t="s">
         <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F95" t="s">
         <v>59</v>
@@ -12564,16 +12572,16 @@
         <v>876</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D96" t="s">
         <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F96" t="s">
         <v>59</v>
@@ -12587,16 +12595,16 @@
         <v>47158</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D97" t="s">
         <v>60</v>
       </c>
       <c r="E97" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F97" t="s">
         <v>59</v>
@@ -12610,16 +12618,16 @@
         <v>45629</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D98" t="s">
         <v>60</v>
       </c>
       <c r="E98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F98" t="s">
         <v>59</v>
@@ -12633,16 +12641,16 @@
         <v>575978</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D99" t="s">
         <v>60</v>
       </c>
       <c r="E99" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F99" t="s">
         <v>59</v>
@@ -12656,16 +12664,16 @@
         <v>466107</v>
       </c>
       <c r="B100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D100" t="s">
         <v>60</v>
       </c>
       <c r="E100" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F100" t="s">
         <v>59</v>
@@ -12679,16 +12687,16 @@
         <v>458711</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D101" t="s">
         <v>60</v>
       </c>
       <c r="E101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F101" t="s">
         <v>59</v>
@@ -12702,16 +12710,16 @@
         <v>299072</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D102" t="s">
         <v>60</v>
       </c>
       <c r="E102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F102" t="s">
         <v>59</v>
@@ -12725,16 +12733,16 @@
         <v>76007</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D103" t="s">
         <v>60</v>
       </c>
       <c r="E103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F103" t="s">
         <v>59</v>
@@ -12748,16 +12756,16 @@
         <v>332095</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D104" t="s">
         <v>60</v>
       </c>
       <c r="E104" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F104" t="s">
         <v>59</v>
@@ -12771,16 +12779,16 @@
         <v>288995</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D105" t="s">
         <v>60</v>
       </c>
       <c r="E105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F105" t="s">
         <v>59</v>
@@ -12794,16 +12802,16 @@
         <v>1294566</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D106" t="s">
         <v>60</v>
       </c>
       <c r="E106" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F106" t="s">
         <v>59</v>
@@ -12817,16 +12825,16 @@
         <v>292407</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D107" t="s">
         <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F107" t="s">
         <v>59</v>
@@ -12840,16 +12848,16 @@
         <v>363850</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D108" t="s">
         <v>60</v>
       </c>
       <c r="E108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F108" t="s">
         <v>59</v>
@@ -12863,16 +12871,16 @@
         <v>651661</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D109" t="s">
         <v>60</v>
       </c>
       <c r="E109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F109" t="s">
         <v>59</v>
@@ -12886,16 +12894,16 @@
         <v>172045</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D110" t="s">
         <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F110" t="s">
         <v>59</v>
@@ -12909,16 +12917,16 @@
         <v>504469</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D111" t="s">
         <v>60</v>
       </c>
       <c r="E111" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F111" t="s">
         <v>59</v>
@@ -12932,16 +12940,16 @@
         <v>65700</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D112" t="s">
         <v>60</v>
       </c>
       <c r="E112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F112" t="s">
         <v>59</v>
@@ -12955,16 +12963,16 @@
         <v>42322</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D113" t="s">
         <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F113" t="s">
         <v>59</v>
@@ -12978,16 +12986,16 @@
         <v>44754</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D114" t="s">
         <v>60</v>
       </c>
       <c r="E114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F114" t="s">
         <v>59</v>
@@ -13001,16 +13009,16 @@
         <v>28122</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D115" t="s">
         <v>60</v>
       </c>
       <c r="E115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F115" t="s">
         <v>59</v>
@@ -13024,16 +13032,16 @@
         <v>428988</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D116" t="s">
         <v>60</v>
       </c>
       <c r="E116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F116" t="s">
         <v>59</v>
@@ -13047,16 +13055,16 @@
         <v>654838</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D117" t="s">
         <v>60</v>
       </c>
       <c r="E117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F117" t="s">
         <v>59</v>
@@ -13070,16 +13078,16 @@
         <v>49280</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D118" t="s">
         <v>60</v>
       </c>
       <c r="E118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F118" t="s">
         <v>59</v>
@@ -13093,16 +13101,16 @@
         <v>745368</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D119" t="s">
         <v>60</v>
       </c>
       <c r="E119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F119" t="s">
         <v>59</v>
@@ -13116,16 +13124,16 @@
         <v>402884</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
         <v>60</v>
       </c>
       <c r="E120" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F120" t="s">
         <v>59</v>
@@ -13139,16 +13147,16 @@
         <v>115783</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D121" t="s">
         <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F121" t="s">
         <v>59</v>
@@ -13162,16 +13170,16 @@
         <v>390806</v>
       </c>
       <c r="B122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D122" t="s">
         <v>60</v>
       </c>
       <c r="E122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F122" t="s">
         <v>59</v>
@@ -13185,16 +13193,16 @@
         <v>334858</v>
       </c>
       <c r="B123" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D123" t="s">
         <v>60</v>
       </c>
       <c r="E123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F123" t="s">
         <v>59</v>
@@ -13208,16 +13216,16 @@
         <v>2242</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D124" t="s">
         <v>60</v>
       </c>
       <c r="E124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F124" t="s">
         <v>59</v>
@@ -13231,16 +13239,16 @@
         <v>480814</v>
       </c>
       <c r="B125" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D125" t="s">
         <v>60</v>
       </c>
       <c r="E125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F125" t="s">
         <v>59</v>
@@ -13254,16 +13262,16 @@
         <v>180311</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D126" t="s">
         <v>60</v>
       </c>
       <c r="E126" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F126" t="s">
         <v>59</v>
@@ -13277,16 +13285,16 @@
         <v>568105</v>
       </c>
       <c r="B127" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D127" t="s">
         <v>60</v>
       </c>
       <c r="E127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F127" t="s">
         <v>59</v>
@@ -13300,16 +13308,16 @@
         <v>496053</v>
       </c>
       <c r="B128" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D128" t="s">
         <v>60</v>
       </c>
       <c r="E128" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F128" t="s">
         <v>59</v>
@@ -13323,16 +13331,16 @@
         <v>344998</v>
       </c>
       <c r="B129" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D129" t="s">
         <v>60</v>
       </c>
       <c r="E129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F129" t="s">
         <v>59</v>
@@ -13346,16 +13354,16 @@
         <v>446684</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D130" t="s">
         <v>60</v>
       </c>
       <c r="E130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F130" t="s">
         <v>59</v>
@@ -13369,16 +13377,16 @@
         <v>265175</v>
       </c>
       <c r="B131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D131" t="s">
         <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F131" t="s">
         <v>59</v>
@@ -13392,16 +13400,16 @@
         <v>53444</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D132" t="s">
         <v>60</v>
       </c>
       <c r="E132" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F132" t="s">
         <v>59</v>
@@ -13415,16 +13423,16 @@
         <v>82688</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D133" t="s">
         <v>60</v>
       </c>
       <c r="E133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F133" t="s">
         <v>59</v>
@@ -13438,16 +13446,16 @@
         <v>83526</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D134" t="s">
         <v>60</v>
       </c>
       <c r="E134" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F134" t="s">
         <v>59</v>
@@ -13461,16 +13469,16 @@
         <v>643671</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D135" t="s">
         <v>60</v>
       </c>
       <c r="E135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F135" t="s">
         <v>59</v>
@@ -13484,16 +13492,16 @@
         <v>988</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D136" t="s">
         <v>60</v>
       </c>
       <c r="E136" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F136" t="s">
         <v>59</v>
@@ -13507,16 +13515,16 @@
         <v>1150508</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D137" t="s">
         <v>60</v>
       </c>
       <c r="E137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F137" t="s">
         <v>59</v>
@@ -13530,16 +13538,16 @@
         <v>40571</v>
       </c>
       <c r="B138" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D138" t="s">
         <v>60</v>
       </c>
       <c r="E138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F138" t="s">
         <v>59</v>
@@ -13553,16 +13561,16 @@
         <v>438851</v>
       </c>
       <c r="B139" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D139" t="s">
         <v>60</v>
       </c>
       <c r="E139" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F139" t="s">
         <v>59</v>
@@ -13576,16 +13584,16 @@
         <v>262325</v>
       </c>
       <c r="B140" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D140" t="s">
         <v>60</v>
       </c>
       <c r="E140" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F140" t="s">
         <v>59</v>
@@ -13599,16 +13607,16 @@
         <v>435289</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D141" t="s">
         <v>60</v>
       </c>
       <c r="E141" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F141" t="s">
         <v>59</v>
@@ -13622,16 +13630,16 @@
         <v>57040</v>
       </c>
       <c r="B142" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D142" t="s">
         <v>60</v>
       </c>
       <c r="E142" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F142" t="s">
         <v>59</v>
@@ -13645,16 +13653,16 @@
         <v>561184</v>
       </c>
       <c r="B143" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D143" t="s">
         <v>60</v>
       </c>
       <c r="E143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F143" t="s">
         <v>59</v>
@@ -13668,16 +13676,16 @@
         <v>561365</v>
       </c>
       <c r="B144" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D144" t="s">
         <v>60</v>
       </c>
       <c r="E144" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F144" t="s">
         <v>59</v>
@@ -13691,16 +13699,16 @@
         <v>429344</v>
       </c>
       <c r="B145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D145" t="s">
         <v>60</v>
       </c>
       <c r="E145" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F145" t="s">
         <v>59</v>
@@ -13714,16 +13722,16 @@
         <v>287990</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D146" t="s">
         <v>60</v>
       </c>
       <c r="E146" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F146" t="s">
         <v>59</v>
@@ -13737,16 +13745,16 @@
         <v>293552</v>
       </c>
       <c r="B147" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D147" t="s">
         <v>60</v>
       </c>
       <c r="E147" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F147" t="s">
         <v>59</v>
@@ -13760,16 +13768,16 @@
         <v>1028</v>
       </c>
       <c r="B148" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D148" t="s">
         <v>60</v>
       </c>
       <c r="E148" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F148" t="s">
         <v>59</v>
@@ -13783,16 +13791,16 @@
         <v>86796</v>
       </c>
       <c r="B149" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D149" t="s">
         <v>60</v>
       </c>
       <c r="E149" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F149" t="s">
         <v>59</v>
@@ -13806,16 +13814,16 @@
         <v>349095</v>
       </c>
       <c r="B150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D150" t="s">
         <v>60</v>
       </c>
       <c r="E150" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F150" t="s">
         <v>59</v>
@@ -13829,16 +13837,16 @@
         <v>213248</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D151" t="s">
         <v>60</v>
       </c>
       <c r="E151" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F151" t="s">
         <v>59</v>
@@ -13852,16 +13860,16 @@
         <v>374425</v>
       </c>
       <c r="B152" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D152" t="s">
         <v>60</v>
       </c>
       <c r="E152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F152" t="s">
         <v>59</v>
@@ -13875,16 +13883,16 @@
         <v>330227</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D153" t="s">
         <v>60</v>
       </c>
       <c r="E153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F153" t="s">
         <v>59</v>
@@ -13898,16 +13906,16 @@
         <v>1071583</v>
       </c>
       <c r="B154" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D154" t="s">
         <v>60</v>
       </c>
       <c r="E154" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F154" t="s">
         <v>59</v>
@@ -13921,16 +13929,16 @@
         <v>875239</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D155" t="s">
         <v>60</v>
       </c>
       <c r="E155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F155" t="s">
         <v>59</v>
@@ -13944,16 +13952,16 @@
         <v>468058</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D156" t="s">
         <v>60</v>
       </c>
       <c r="E156" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F156" t="s">
         <v>59</v>
@@ -13967,16 +13975,16 @@
         <v>33922</v>
       </c>
       <c r="B157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D157" t="s">
         <v>60</v>
       </c>
       <c r="E157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F157" t="s">
         <v>59</v>
@@ -13990,16 +13998,16 @@
         <v>244584</v>
       </c>
       <c r="B158" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D158" t="s">
         <v>60</v>
       </c>
       <c r="E158" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F158" t="s">
         <v>59</v>
@@ -14013,16 +14021,16 @@
         <v>171291</v>
       </c>
       <c r="B159" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D159" t="s">
         <v>60</v>
       </c>
       <c r="E159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F159" t="s">
         <v>59</v>
@@ -14036,16 +14044,16 @@
         <v>1255265</v>
       </c>
       <c r="B160" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D160" t="s">
         <v>60</v>
       </c>
       <c r="E160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F160" t="s">
         <v>59</v>
@@ -14059,16 +14067,16 @@
         <v>756689</v>
       </c>
       <c r="B161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D161" t="s">
         <v>60</v>
       </c>
       <c r="E161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F161" t="s">
         <v>59</v>
@@ -14082,16 +14090,16 @@
         <v>443157</v>
       </c>
       <c r="B162" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D162" t="s">
         <v>60</v>
       </c>
       <c r="E162" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F162" t="s">
         <v>59</v>
@@ -14105,16 +14113,16 @@
         <v>1843</v>
       </c>
       <c r="B163" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D163" t="s">
         <v>60</v>
       </c>
       <c r="E163" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F163" t="s">
         <v>59</v>
@@ -14128,16 +14136,16 @@
         <v>223904</v>
       </c>
       <c r="B164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D164" t="s">
         <v>60</v>
       </c>
       <c r="E164" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F164" t="s">
         <v>59</v>
@@ -14151,16 +14159,16 @@
         <v>1259470</v>
       </c>
       <c r="B165" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D165" t="s">
         <v>60</v>
       </c>
       <c r="E165" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F165" t="s">
         <v>59</v>
@@ -14174,16 +14182,16 @@
         <v>424797</v>
       </c>
       <c r="B166" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D166" t="s">
         <v>60</v>
       </c>
       <c r="E166" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F166" t="s">
         <v>59</v>
@@ -14197,16 +14205,16 @@
         <v>906888</v>
       </c>
       <c r="B167" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D167" t="s">
         <v>60</v>
       </c>
       <c r="E167" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F167" t="s">
         <v>59</v>
@@ -14220,16 +14228,16 @@
         <v>191564</v>
       </c>
       <c r="B168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D168" t="s">
         <v>60</v>
       </c>
       <c r="E168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F168" t="s">
         <v>59</v>
@@ -14243,16 +14251,16 @@
         <v>1189325</v>
       </c>
       <c r="B169" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D169" t="s">
         <v>60</v>
       </c>
       <c r="E169" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F169" t="s">
         <v>59</v>
@@ -14266,16 +14274,16 @@
         <v>129578</v>
       </c>
       <c r="B170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D170" t="s">
         <v>60</v>
       </c>
       <c r="E170" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F170" t="s">
         <v>59</v>
@@ -14289,16 +14297,16 @@
         <v>64969</v>
       </c>
       <c r="B171" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D171" t="s">
         <v>60</v>
       </c>
       <c r="E171" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F171" t="s">
         <v>59</v>
@@ -14312,16 +14320,16 @@
         <v>684063</v>
       </c>
       <c r="B172" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D172" t="s">
         <v>60</v>
       </c>
       <c r="E172" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F172" t="s">
         <v>59</v>
@@ -14335,16 +14343,16 @@
         <v>1243042</v>
       </c>
       <c r="B173" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D173" t="s">
         <v>60</v>
       </c>
       <c r="E173" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F173" t="s">
         <v>59</v>
@@ -14358,16 +14366,16 @@
         <v>100176</v>
       </c>
       <c r="B174" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D174" t="s">
         <v>60</v>
       </c>
       <c r="E174" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F174" t="s">
         <v>59</v>
@@ -14381,16 +14389,16 @@
         <v>1037355</v>
       </c>
       <c r="B175" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D175" t="s">
         <v>60</v>
       </c>
       <c r="E175" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F175" t="s">
         <v>59</v>
@@ -14404,16 +14412,16 @@
         <v>623280</v>
       </c>
       <c r="B176" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D176" t="s">
         <v>60</v>
       </c>
       <c r="E176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F176" t="s">
         <v>59</v>
@@ -14427,16 +14435,16 @@
         <v>115544</v>
       </c>
       <c r="B177" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D177" t="s">
         <v>60</v>
       </c>
       <c r="E177" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F177" t="s">
         <v>59</v>
@@ -14450,16 +14458,16 @@
         <v>351343</v>
       </c>
       <c r="B178" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D178" t="s">
         <v>60</v>
       </c>
       <c r="E178" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F178" t="s">
         <v>59</v>
@@ -14473,16 +14481,16 @@
         <v>188932</v>
       </c>
       <c r="B179" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D179" t="s">
         <v>60</v>
       </c>
       <c r="E179" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
         <v>59</v>
@@ -14496,16 +14504,16 @@
         <v>572036</v>
       </c>
       <c r="B180" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D180" t="s">
         <v>60</v>
       </c>
       <c r="E180" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
         <v>59</v>
@@ -14519,16 +14527,16 @@
         <v>420403</v>
       </c>
       <c r="B181" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D181" t="s">
         <v>60</v>
       </c>
       <c r="E181" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
         <v>59</v>
@@ -14542,16 +14550,16 @@
         <v>1167741</v>
       </c>
       <c r="B182" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D182" t="s">
         <v>60</v>
       </c>
       <c r="E182" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
         <v>59</v>
@@ -14565,16 +14573,16 @@
         <v>490570</v>
       </c>
       <c r="B183" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D183" t="s">
         <v>60</v>
       </c>
       <c r="E183" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
         <v>59</v>
@@ -14588,16 +14596,16 @@
         <v>1456769</v>
       </c>
       <c r="B184" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D184" t="s">
         <v>60</v>
       </c>
       <c r="E184" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
         <v>59</v>
@@ -14611,16 +14619,16 @@
         <v>263852</v>
       </c>
       <c r="B185" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D185" t="s">
         <v>60</v>
       </c>
       <c r="E185" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
         <v>59</v>
@@ -14634,16 +14642,16 @@
         <v>696762</v>
       </c>
       <c r="B186" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D186" t="s">
         <v>60</v>
       </c>
       <c r="E186" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
         <v>59</v>
@@ -14657,16 +14665,16 @@
         <v>422297</v>
       </c>
       <c r="B187" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D187" t="s">
         <v>60</v>
       </c>
       <c r="E187" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
         <v>59</v>
@@ -14680,16 +14688,16 @@
         <v>198312</v>
       </c>
       <c r="B188" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D188" t="s">
         <v>60</v>
       </c>
       <c r="E188" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
         <v>59</v>
@@ -14703,16 +14711,16 @@
         <v>36874</v>
       </c>
       <c r="B189" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D189" t="s">
         <v>60</v>
       </c>
       <c r="E189" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F189" t="s">
         <v>59</v>
@@ -14726,16 +14734,16 @@
         <v>29524</v>
       </c>
       <c r="B190" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D190" t="s">
         <v>60</v>
       </c>
       <c r="E190" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
         <v>59</v>
@@ -14749,16 +14757,16 @@
         <v>387890</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D191" t="s">
         <v>60</v>
       </c>
       <c r="E191" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
         <v>59</v>
@@ -14772,16 +14780,16 @@
         <v>176898</v>
       </c>
       <c r="B192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D192" t="s">
         <v>60</v>
       </c>
       <c r="E192" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F192" t="s">
         <v>59</v>
@@ -14795,16 +14803,16 @@
         <v>577679</v>
       </c>
       <c r="B193" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D193" t="s">
         <v>60</v>
       </c>
       <c r="E193" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
         <v>59</v>
@@ -14818,16 +14826,16 @@
         <v>185641</v>
       </c>
       <c r="B194" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D194" t="s">
         <v>60</v>
       </c>
       <c r="E194" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F194" t="s">
         <v>59</v>
@@ -14841,16 +14849,16 @@
         <v>387889</v>
       </c>
       <c r="B195" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D195" t="s">
         <v>60</v>
       </c>
       <c r="E195" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F195" t="s">
         <v>59</v>
@@ -14864,16 +14872,16 @@
         <v>228603</v>
       </c>
       <c r="B196" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D196" t="s">
         <v>60</v>
       </c>
       <c r="E196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F196" t="s">
         <v>59</v>
@@ -14887,16 +14895,16 @@
         <v>526729</v>
       </c>
       <c r="B197" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D197" t="s">
         <v>60</v>
       </c>
       <c r="E197" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F197" t="s">
         <v>59</v>
@@ -14910,16 +14918,16 @@
         <v>765201</v>
       </c>
       <c r="B198" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D198" t="s">
         <v>60</v>
       </c>
       <c r="E198" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F198" t="s">
         <v>59</v>
@@ -14933,16 +14941,16 @@
         <v>45622</v>
       </c>
       <c r="B199" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D199" t="s">
         <v>60</v>
       </c>
       <c r="E199" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F199" t="s">
         <v>59</v>
@@ -14956,16 +14964,16 @@
         <v>65401</v>
       </c>
       <c r="B200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D200" t="s">
         <v>60</v>
       </c>
       <c r="E200" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F200" t="s">
         <v>59</v>
@@ -14979,16 +14987,16 @@
         <v>48467</v>
       </c>
       <c r="B201" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D201" t="s">
         <v>60</v>
       </c>
       <c r="E201" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F201" t="s">
         <v>59</v>
@@ -15002,16 +15010,16 @@
         <v>48464</v>
       </c>
       <c r="B202" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D202" t="s">
         <v>60</v>
       </c>
       <c r="E202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F202" t="s">
         <v>59</v>
@@ -15025,16 +15033,16 @@
         <v>185007</v>
       </c>
       <c r="B203" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D203" t="s">
         <v>60</v>
       </c>
       <c r="E203" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F203" t="s">
         <v>59</v>
@@ -15048,16 +15056,16 @@
         <v>451637</v>
       </c>
       <c r="B204" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D204" t="s">
         <v>60</v>
       </c>
       <c r="E204" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F204" t="s">
         <v>59</v>
@@ -15071,16 +15079,16 @@
         <v>86175</v>
       </c>
       <c r="B205" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D205" t="s">
         <v>60</v>
       </c>
       <c r="E205" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F205" t="s">
         <v>59</v>
@@ -15094,16 +15102,16 @@
         <v>157792</v>
       </c>
       <c r="B206" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D206" t="s">
         <v>60</v>
       </c>
       <c r="E206" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F206" t="s">
         <v>59</v>
@@ -15117,16 +15125,16 @@
         <v>289483</v>
       </c>
       <c r="B207" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D207" t="s">
         <v>60</v>
       </c>
       <c r="E207" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F207" t="s">
         <v>59</v>
@@ -15140,16 +15148,16 @@
         <v>176598</v>
       </c>
       <c r="B208" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D208" t="s">
         <v>60</v>
       </c>
       <c r="E208" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F208" t="s">
         <v>59</v>
@@ -15163,16 +15171,16 @@
         <v>1256701</v>
       </c>
       <c r="B209" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D209" t="s">
         <v>60</v>
       </c>
       <c r="E209" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F209" t="s">
         <v>59</v>
@@ -15186,16 +15194,16 @@
         <v>366349</v>
       </c>
       <c r="B210" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D210" t="s">
         <v>60</v>
       </c>
       <c r="E210" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F210" t="s">
         <v>59</v>
@@ -15209,16 +15217,16 @@
         <v>554335</v>
       </c>
       <c r="B211" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D211" t="s">
         <v>60</v>
       </c>
       <c r="E211" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F211" t="s">
         <v>59</v>
@@ -15232,16 +15240,16 @@
         <v>182367</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D212" t="s">
         <v>60</v>
       </c>
       <c r="E212" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F212" t="s">
         <v>59</v>
@@ -15255,16 +15263,16 @@
         <v>1387244</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D213" t="s">
         <v>60</v>
       </c>
       <c r="E213" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F213" t="s">
         <v>59</v>
@@ -15278,16 +15286,16 @@
         <v>1172533</v>
       </c>
       <c r="B214" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D214" t="s">
         <v>60</v>
       </c>
       <c r="E214" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F214" t="s">
         <v>59</v>
@@ -15301,16 +15309,16 @@
         <v>287609</v>
       </c>
       <c r="B215" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D215" t="s">
         <v>60</v>
       </c>
       <c r="E215" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F215" t="s">
         <v>59</v>
@@ -15324,16 +15332,16 @@
         <v>198092</v>
       </c>
       <c r="B216" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D216" t="s">
         <v>60</v>
       </c>
       <c r="E216" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F216" t="s">
         <v>59</v>
@@ -15347,16 +15355,16 @@
         <v>424704</v>
       </c>
       <c r="B217" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D217" t="s">
         <v>60</v>
       </c>
       <c r="E217" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F217" t="s">
         <v>59</v>
@@ -15370,16 +15378,16 @@
         <v>407226</v>
       </c>
       <c r="B218" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D218" t="s">
         <v>60</v>
       </c>
       <c r="E218" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F218" t="s">
         <v>59</v>
@@ -15393,16 +15401,16 @@
         <v>241145</v>
       </c>
       <c r="B219" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D219" t="s">
         <v>60</v>
       </c>
       <c r="E219" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F219" t="s">
         <v>59</v>
@@ -15416,16 +15424,16 @@
         <v>270918</v>
       </c>
       <c r="B220" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D220" t="s">
         <v>60</v>
       </c>
       <c r="E220" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F220" t="s">
         <v>59</v>
@@ -15439,16 +15447,16 @@
         <v>435906</v>
       </c>
       <c r="B221" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D221" t="s">
         <v>60</v>
       </c>
       <c r="E221" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F221" t="s">
         <v>59</v>
@@ -15462,16 +15470,16 @@
         <v>143223</v>
       </c>
       <c r="B222" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D222" t="s">
         <v>60</v>
       </c>
       <c r="E222" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F222" t="s">
         <v>59</v>
@@ -15485,16 +15493,16 @@
         <v>447422</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D223" t="s">
         <v>60</v>
       </c>
       <c r="E223" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F223" t="s">
         <v>59</v>
@@ -15508,16 +15516,16 @@
         <v>148453</v>
       </c>
       <c r="B224" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D224" t="s">
         <v>60</v>
       </c>
       <c r="E224" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F224" t="s">
         <v>59</v>
@@ -15531,16 +15539,16 @@
         <v>255519</v>
       </c>
       <c r="B225" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D225" t="s">
         <v>60</v>
       </c>
       <c r="E225" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F225" t="s">
         <v>59</v>
@@ -15554,16 +15562,16 @@
         <v>130788</v>
       </c>
       <c r="B226" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D226" t="s">
         <v>60</v>
       </c>
       <c r="E226" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F226" t="s">
         <v>59</v>
@@ -15577,16 +15585,16 @@
         <v>142842</v>
       </c>
       <c r="B227" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D227" t="s">
         <v>60</v>
       </c>
       <c r="E227" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F227" t="s">
         <v>59</v>
@@ -15600,16 +15608,16 @@
         <v>253256</v>
       </c>
       <c r="B228" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D228" t="s">
         <v>60</v>
       </c>
       <c r="E228" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F228" t="s">
         <v>59</v>
@@ -15623,16 +15631,16 @@
         <v>619805</v>
       </c>
       <c r="B229" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D229" t="s">
         <v>60</v>
       </c>
       <c r="E229" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F229" t="s">
         <v>59</v>
@@ -15646,16 +15654,16 @@
         <v>28454</v>
       </c>
       <c r="B230" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D230" t="s">
         <v>60</v>
       </c>
       <c r="E230" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F230" t="s">
         <v>59</v>
@@ -15669,16 +15677,16 @@
         <v>563996</v>
       </c>
       <c r="B231" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D231" t="s">
         <v>60</v>
       </c>
       <c r="E231" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F231" t="s">
         <v>59</v>
@@ -15692,16 +15700,16 @@
         <v>397260</v>
       </c>
       <c r="B232" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D232" t="s">
         <v>60</v>
       </c>
       <c r="E232" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F232" t="s">
         <v>59</v>
@@ -15715,16 +15723,16 @@
         <v>160791</v>
       </c>
       <c r="B233" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C233" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D233" t="s">
         <v>60</v>
       </c>
       <c r="E233" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F233" t="s">
         <v>59</v>
@@ -15738,16 +15746,16 @@
         <v>394733</v>
       </c>
       <c r="B234" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D234" t="s">
         <v>60</v>
       </c>
       <c r="E234" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F234" t="s">
         <v>59</v>
@@ -15761,16 +15769,16 @@
         <v>394732</v>
       </c>
       <c r="B235" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C235" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D235" t="s">
         <v>60</v>
       </c>
       <c r="E235" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F235" t="s">
         <v>59</v>
@@ -15784,16 +15792,16 @@
         <v>286803</v>
       </c>
       <c r="B236" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D236" t="s">
         <v>60</v>
       </c>
       <c r="E236" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F236" t="s">
         <v>59</v>
@@ -15807,16 +15815,16 @@
         <v>44749</v>
       </c>
       <c r="B237" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C237" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D237" t="s">
         <v>60</v>
       </c>
       <c r="E237" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F237" t="s">
         <v>59</v>
@@ -15830,16 +15838,16 @@
         <v>406432</v>
       </c>
       <c r="B238" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D238" t="s">
         <v>60</v>
       </c>
       <c r="E238" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F238" t="s">
         <v>59</v>
@@ -15853,16 +15861,16 @@
         <v>1933</v>
       </c>
       <c r="B239" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D239" t="s">
         <v>60</v>
       </c>
       <c r="E239" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F239" t="s">
         <v>59</v>
@@ -15876,16 +15884,16 @@
         <v>83771</v>
       </c>
       <c r="B240" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D240" t="s">
         <v>60</v>
       </c>
       <c r="E240" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F240" t="s">
         <v>59</v>
@@ -15899,16 +15907,16 @@
         <v>619730</v>
       </c>
       <c r="B241" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D241" t="s">
         <v>60</v>
       </c>
       <c r="E241" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F241" t="s">
         <v>59</v>
@@ -15922,16 +15930,16 @@
         <v>266809</v>
       </c>
       <c r="B242" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D242" t="s">
         <v>60</v>
       </c>
       <c r="E242" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F242" t="s">
         <v>59</v>
@@ -15945,16 +15953,16 @@
         <v>447593</v>
       </c>
       <c r="B243" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D243" t="s">
         <v>60</v>
       </c>
       <c r="E243" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F243" t="s">
         <v>59</v>
@@ -15968,16 +15976,16 @@
         <v>412896</v>
       </c>
       <c r="B244" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D244" t="s">
         <v>60</v>
       </c>
       <c r="E244" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F244" t="s">
         <v>59</v>
@@ -15991,16 +15999,16 @@
         <v>213588</v>
       </c>
       <c r="B245" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D245" t="s">
         <v>60</v>
       </c>
       <c r="E245" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F245" t="s">
         <v>59</v>
@@ -16014,16 +16022,16 @@
         <v>238991</v>
       </c>
       <c r="B246" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C246" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D246" t="s">
         <v>60</v>
       </c>
       <c r="E246" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F246" t="s">
         <v>59</v>
@@ -16037,16 +16045,16 @@
         <v>54294</v>
       </c>
       <c r="B247" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D247" t="s">
         <v>60</v>
       </c>
       <c r="E247" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F247" t="s">
         <v>59</v>
@@ -16060,16 +16068,16 @@
         <v>92487</v>
       </c>
       <c r="B248" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C248" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D248" t="s">
         <v>60</v>
       </c>
       <c r="E248" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F248" t="s">
         <v>59</v>
@@ -16083,16 +16091,16 @@
         <v>43131</v>
       </c>
       <c r="B249" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D249" t="s">
         <v>60</v>
       </c>
       <c r="E249" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F249" t="s">
         <v>59</v>
@@ -16106,16 +16114,16 @@
         <v>225004</v>
       </c>
       <c r="B250" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C250" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D250" t="s">
         <v>60</v>
       </c>
       <c r="E250" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F250" t="s">
         <v>59</v>
@@ -16129,16 +16137,16 @@
         <v>261392</v>
       </c>
       <c r="B251" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D251" t="s">
         <v>60</v>
       </c>
       <c r="E251" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F251" t="s">
         <v>59</v>
@@ -16152,16 +16160,16 @@
         <v>158751</v>
       </c>
       <c r="B252" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C252" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D252" t="s">
         <v>60</v>
       </c>
       <c r="E252" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F252" t="s">
         <v>59</v>
@@ -16175,16 +16183,16 @@
         <v>160236</v>
       </c>
       <c r="B253" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D253" t="s">
         <v>60</v>
       </c>
       <c r="E253" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F253" t="s">
         <v>59</v>
@@ -16198,16 +16206,16 @@
         <v>227322</v>
       </c>
       <c r="B254" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C254" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D254" t="s">
         <v>60</v>
       </c>
       <c r="E254" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F254" t="s">
         <v>59</v>
@@ -16221,16 +16229,16 @@
         <v>349273</v>
       </c>
       <c r="B255" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C255" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D255" t="s">
         <v>60</v>
       </c>
       <c r="E255" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F255" t="s">
         <v>59</v>
@@ -16244,16 +16252,16 @@
         <v>114707</v>
       </c>
       <c r="B256" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C256" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D256" t="s">
         <v>60</v>
       </c>
       <c r="E256" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F256" t="s">
         <v>59</v>
@@ -16267,16 +16275,16 @@
         <v>158754</v>
       </c>
       <c r="B257" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D257" t="s">
         <v>60</v>
       </c>
       <c r="E257" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F257" t="s">
         <v>59</v>
@@ -16290,16 +16298,16 @@
         <v>435912</v>
       </c>
       <c r="B258" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D258" t="s">
         <v>60</v>
       </c>
       <c r="E258" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F258" t="s">
         <v>59</v>
@@ -16313,16 +16321,16 @@
         <v>184755</v>
       </c>
       <c r="B259" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C259" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D259" t="s">
         <v>60</v>
       </c>
       <c r="E259" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F259" t="s">
         <v>59</v>
@@ -16336,16 +16344,16 @@
         <v>321325</v>
       </c>
       <c r="B260" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D260" t="s">
         <v>60</v>
       </c>
       <c r="E260" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F260" t="s">
         <v>59</v>
@@ -16359,16 +16367,16 @@
         <v>72806</v>
       </c>
       <c r="B261" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D261" t="s">
         <v>60</v>
       </c>
       <c r="E261" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F261" t="s">
         <v>59</v>
@@ -16382,16 +16390,16 @@
         <v>391736</v>
       </c>
       <c r="B262" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C262" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D262" t="s">
         <v>60</v>
       </c>
       <c r="E262" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F262" t="s">
         <v>59</v>
@@ -16405,16 +16413,16 @@
         <v>355930</v>
       </c>
       <c r="B263" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D263" t="s">
         <v>60</v>
       </c>
       <c r="E263" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F263" t="s">
         <v>59</v>
@@ -16522,16 +16530,16 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="B13" s="23"/>
       <c r="D13" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">

--- a/recentrifuge/test/mock.xlsx
+++ b/recentrifuge/test/mock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martimartine1/local/recentrifuge/recentrifuge/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745E701B-5BBC-F345-BFB0-F0057E053ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6E38B3-CD55-774D-8677-A23227667FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-53460" yWindow="-10160" windowWidth="44840" windowHeight="25640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-53460" yWindow="-4340" windowWidth="44840" windowHeight="25640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mock" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="371">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -1172,6 +1172,9 @@
   </si>
   <si>
     <t>Actinomadura luteofluorescens</t>
+  </si>
+  <si>
+    <t>Macellibacteroides fermentans</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7442,10 +7445,10 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="1" t="s">
-        <v>258</v>
+        <v>370</v>
       </c>
       <c r="B177">
-        <v>1037355</v>
+        <v>879969</v>
       </c>
       <c r="C177" s="28">
         <v>2</v>
